--- a/Data Files/LisSkenarioBaru.xlsx
+++ b/Data Files/LisSkenarioBaru.xlsx
@@ -8,26 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon\ASIC\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1EA037-2010-433C-88E2-3AB15D43F9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA10866-D7B1-4A20-AFDE-61AE61A4A9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="793" xr2:uid="{757C07E9-73FD-4EAE-8969-0533CFDE11EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="793" activeTab="1" xr2:uid="{757C07E9-73FD-4EAE-8969-0533CFDE11EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Batch" sheetId="1" r:id="rId1"/>
     <sheet name="Activity" sheetId="2" r:id="rId2"/>
     <sheet name="Approval" sheetId="3" r:id="rId3"/>
-    <sheet name="Documentation" sheetId="17" r:id="rId4"/>
-    <sheet name="Act Maintenance Rek" sheetId="15" r:id="rId5"/>
-    <sheet name="Act Maintenance Info" sheetId="16" r:id="rId6"/>
-    <sheet name="Act Restrukturisasi Rek" sheetId="12" r:id="rId7"/>
-    <sheet name="Act Pemindahbukuan" sheetId="5" r:id="rId8"/>
-    <sheet name="Act Bucket Adjusment" sheetId="11" r:id="rId9"/>
-    <sheet name="Act Pembukaan Rek" sheetId="8" r:id="rId10"/>
-    <sheet name="Act Blokir Rek" sheetId="9" r:id="rId11"/>
-    <sheet name="Act Asuransi" sheetId="14" r:id="rId12"/>
-    <sheet name="Act Pending Rekening" sheetId="13" r:id="rId13"/>
-    <sheet name="Act Penutupan Rek" sheetId="10" r:id="rId14"/>
-    <sheet name="Var" sheetId="4" r:id="rId15"/>
+    <sheet name="Var" sheetId="4" r:id="rId4"/>
+    <sheet name="Documentation" sheetId="17" r:id="rId5"/>
+    <sheet name="Act Maintenance Rek" sheetId="15" r:id="rId6"/>
+    <sheet name="Act Maintenance Info" sheetId="16" r:id="rId7"/>
+    <sheet name="Act Restrukturisasi Rek" sheetId="12" r:id="rId8"/>
+    <sheet name="Act Pemindahbukuan" sheetId="5" r:id="rId9"/>
+    <sheet name="Act Bucket Adjusment" sheetId="11" r:id="rId10"/>
+    <sheet name="Act Pembukaan Rek" sheetId="8" r:id="rId11"/>
+    <sheet name="Act Blokir Rek" sheetId="9" r:id="rId12"/>
+    <sheet name="Act Asuransi" sheetId="14" r:id="rId13"/>
+    <sheet name="Act Pending Rekening" sheetId="13" r:id="rId14"/>
+    <sheet name="Act Penutupan Rek" sheetId="10" r:id="rId15"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId16"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="307">
   <si>
     <t>NoTC</t>
   </si>
@@ -817,9 +817,6 @@
     <t>Input Form</t>
   </si>
   <si>
-    <t>A0126</t>
-  </si>
-  <si>
     <t>Confirm Activity</t>
   </si>
   <si>
@@ -859,15 +856,6 @@
     <t xml:space="preserve">Berhasil Update Inquiry Incomplete </t>
   </si>
   <si>
-    <t>A0127</t>
-  </si>
-  <si>
-    <t>A0128</t>
-  </si>
-  <si>
-    <t>A0129</t>
-  </si>
-  <si>
     <t>Simpan</t>
   </si>
   <si>
@@ -910,72 +898,6 @@
     <t>TC-001</t>
   </si>
   <si>
-    <t>Validasi PK Rules 1</t>
-  </si>
-  <si>
-    <t>Validasi PK Rules 2</t>
-  </si>
-  <si>
-    <t>Validasi PK Rules 3</t>
-  </si>
-  <si>
-    <t>Validasi PK Rules 4 - Rek Rules 1 - No PK akhir di isi sama</t>
-  </si>
-  <si>
-    <t>Validasi PK Rules 4 - Rek Rules 1 - Tanggal PK akhir di isi sama</t>
-  </si>
-  <si>
-    <t>Validasi PK Rules 4 - Rek Rules 1 - Tanggal PK awal di isi sama</t>
-  </si>
-  <si>
-    <t>Validasi PK Rules 3 - Tanggal PK saja yang diisi</t>
-  </si>
-  <si>
-    <t>Validasi PK Rules 4 - Rek Rules 2 - No PK akhir di isi sama</t>
-  </si>
-  <si>
-    <t>Validasi PK Rules 4 - Rek Rules 2 - Tanggal PK awal di isi sama</t>
-  </si>
-  <si>
-    <t>Validasi PK Rules 4 - Rek Rules 2 - Tanggal PK akhir di isi sama</t>
-  </si>
-  <si>
-    <t>TC-007</t>
-  </si>
-  <si>
-    <t>TC-009</t>
-  </si>
-  <si>
-    <t>TC-011</t>
-  </si>
-  <si>
-    <t>TC-013</t>
-  </si>
-  <si>
-    <t>TC-015</t>
-  </si>
-  <si>
-    <t>TC-016</t>
-  </si>
-  <si>
-    <t>TC-017</t>
-  </si>
-  <si>
-    <t>TC-018</t>
-  </si>
-  <si>
-    <t>TC-023</t>
-  </si>
-  <si>
-    <t>TC-024</t>
-  </si>
-  <si>
-    <t>TC-025</t>
-  </si>
-  <si>
-    <t>TC-026</t>
-  </si>
-  <si>
     <t>ASIC/1234</t>
   </si>
   <si>
@@ -988,318 +910,18 @@
     <t>PK013</t>
   </si>
   <si>
-    <t>Validasi PK Rules 4 - Rek Rules 2 - No PK awal  di isi sama</t>
-  </si>
-  <si>
-    <t>Validasi PK Rules 4 - Rek Rules 1 - No PK awal di isi sama</t>
-  </si>
-  <si>
-    <t>TC-035</t>
-  </si>
-  <si>
-    <t>TC-037</t>
-  </si>
-  <si>
-    <t>TC-039</t>
-  </si>
-  <si>
-    <t>TC-041</t>
-  </si>
-  <si>
-    <t>TC-043</t>
-  </si>
-  <si>
-    <t>TC-044</t>
-  </si>
-  <si>
-    <t>TC-045</t>
-  </si>
-  <si>
-    <t>TC-046</t>
-  </si>
-  <si>
-    <t>TC-051</t>
-  </si>
-  <si>
-    <t>TC-052</t>
-  </si>
-  <si>
-    <t>TC-053</t>
-  </si>
-  <si>
-    <t>TC-054</t>
-  </si>
-  <si>
     <t>CR37769</t>
   </si>
   <si>
-    <t>Validasi PK Rules 4 isi 1 field - Rek Rules 1 - No PK akhir di isi sama</t>
-  </si>
-  <si>
-    <t>Validasi PK Rules 4 isi 1 field - Rek Rules 1 - No PK sama di isi sama</t>
-  </si>
-  <si>
-    <t>Validasi PK Rules 4 isi 1 field - Rek Rules 1 - Tanggal PK awal di isi sama</t>
-  </si>
-  <si>
-    <t>Validasi PK Rules 4 isi 1 field - Rek Rules 1 - Tanggal PK akhir di isi sama</t>
-  </si>
-  <si>
-    <t>Validasi PK Rules 4 isi 1 field - Rek Rules 2 - No PK akhir != No PK awal</t>
-  </si>
-  <si>
-    <t>Validasi PK Rules 4 isi 1 field - Rek Rules 2 - No PK awal != No PK akhir</t>
-  </si>
-  <si>
-    <t>Validasi PK Rules 4 isi 1 field - Rek Rules 2 - Tanggal PK awal != Tanggal PK akhir</t>
-  </si>
-  <si>
-    <t>Validasi PK Rules 4 isi 1 field - Rek Rules 2 - Tanggal PK akhir != Tanggal PK awal</t>
-  </si>
-  <si>
     <t>31/11/2015</t>
   </si>
   <si>
-    <t>TC-061</t>
-  </si>
-  <si>
-    <t>Restrukturisasi Rekening - Normal - Input form</t>
-  </si>
-  <si>
-    <t>Normal - Pemindahbukuan dana GL-GL</t>
-  </si>
-  <si>
-    <t>Normal - Pemindahbukuan dana interbranch GL-GL</t>
-  </si>
-  <si>
-    <t>TC-091</t>
-  </si>
-  <si>
-    <t>TC-092</t>
-  </si>
-  <si>
     <t>001360180001001</t>
   </si>
   <si>
-    <t>Normal - Maintenance info - Fix rate date: terisi &amp; Interest rate: terisi</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance info - Fix rate date: 00/00/0000 &amp; Interest rate: 0.0000</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance info - Fix rate date: terisi &amp; Interest rate: 0.0000</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance info - Fix rate date: 00/00/0000 &amp; Interest rate: terisi</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance info - Fix rate date: 2099 &amp; Interest rate: terisi</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance info - Fix rate date &lt; tgl system &amp; Interest rate: terisi</t>
-  </si>
-  <si>
-    <t>TC-096</t>
-  </si>
-  <si>
-    <t>TC-097</t>
-  </si>
-  <si>
-    <t>TC-098</t>
-  </si>
-  <si>
-    <t>TC-099</t>
-  </si>
-  <si>
-    <t>TC-100</t>
-  </si>
-  <si>
-    <t>TC-101</t>
-  </si>
-  <si>
-    <t>Normal - Menjalankan use case Maintenance rekening pinjaman dengan status rekening Pending</t>
-  </si>
-  <si>
-    <t>Normal - Menjalankan use case Maintenance informasi rekening pinjaman dengan status rekening Pending</t>
-  </si>
-  <si>
-    <t>Normal - Menjalankan use case Bucket Adjusment dengan status rekening Pending</t>
-  </si>
-  <si>
-    <t>TC-093</t>
-  </si>
-  <si>
-    <t>TC-094</t>
-  </si>
-  <si>
-    <t>TC-095</t>
-  </si>
-  <si>
-    <t>Normal - Restrukturisasi Rekening - Input form</t>
-  </si>
-  <si>
     <t>Normal - Maintenance Rekening - Input form Perpanjangan Sementara</t>
   </si>
   <si>
-    <t>TC-103</t>
-  </si>
-  <si>
-    <t>TC-104</t>
-  </si>
-  <si>
-    <t>TC-105</t>
-  </si>
-  <si>
-    <t>TC-106</t>
-  </si>
-  <si>
-    <t>TC-107</t>
-  </si>
-  <si>
-    <t>TC-108</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Rekening - Fix rate date: 00/00/0000 &amp; Interest rate: 0.0000</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Rekening - Fix rate date: terisi &amp; Interest rate: 0.0000</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Rekening - Fix rate date: 00/00/0000 &amp; Interest rate: terisi</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Rekening - Fix rate date: 2099 &amp; Interest rate: terisi</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Rekening - Fix rate date &lt; tgl system &amp; Interest rate: terisi</t>
-  </si>
-  <si>
-    <t>Normal - Pemindahbukuan rekening - Simpanan ke Simpanan &gt; 1T</t>
-  </si>
-  <si>
-    <t>Normal - Pemindahbukuan rekening - Pinjaman ke Pinjaman &gt; 1T</t>
-  </si>
-  <si>
-    <t>Normal - Pemindahbukuan rekening - Pinjaman ke Simpanan &gt; 1T</t>
-  </si>
-  <si>
-    <t>Normal - Pemindahbukuan rekening - Simpanan ke Pinjaman &gt; 1T</t>
-  </si>
-  <si>
-    <t>Normal - Pembukaan rekening - Transaksi 1T</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance rekening pinjaman - Transaksi 1T</t>
-  </si>
-  <si>
-    <t>Normal - Blokir Rekening - Transaksi 1T</t>
-  </si>
-  <si>
-    <t>Normal - Bucket Adjustment - Transaksi 1T</t>
-  </si>
-  <si>
-    <t>TC-109</t>
-  </si>
-  <si>
-    <t>TC-110</t>
-  </si>
-  <si>
-    <t>TC-111</t>
-  </si>
-  <si>
-    <t>TC-112</t>
-  </si>
-  <si>
-    <t>TC-113</t>
-  </si>
-  <si>
-    <t>TC-114</t>
-  </si>
-  <si>
-    <t>TC-115</t>
-  </si>
-  <si>
-    <t>TC-102</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Rekening - Fix rate date: terisi &amp; Interest rate: terisi</t>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Rekening - Validasi PK Rules 1</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Rekening - Validasi PK Rules 2</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Rekening - Validasi PK Rules 3</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Rekening - Validasi PK Rules 3 - Tanggal PK saja yang diisi</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Rekening - Validasi PK Rules 4 isi 1 field - Rek Rules 1 - No PK akhir di isi sama</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Rekening - Validasi PK Rules 4 isi 1 field - Rek Rules 1 - No PK sama di isi sama</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Rekening - Validasi PK Rules 4 isi 1 field - Rek Rules 1 - Tanggal PK awal di isi sama</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Rekening - Validasi PK Rules 4 isi 1 field - Rek Rules 1 - Tanggal PK akhir di isi sama</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Rekening - Validasi PK Rules 4 isi 1 field - Rek Rules 2 - No PK akhir != No PK awal</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Rekening - Validasi PK Rules 4 isi 1 field - Rek Rules 2 - No PK awal != No PK akhir</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Rekening - Validasi PK Rules 4 isi 1 field - Rek Rules 2 - Tanggal PK awal != Tanggal PK akhir</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Rekening - Validasi PK Rules 4 isi 1 field - Rek Rules 2 - Tanggal PK akhir != Tanggal PK awal</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Informasi Rekening - Validasi PK Rules 1</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Informasi Rekening - Validasi PK Rules 2</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Informasi Rekening - Validasi PK Rules 3</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Informasi Rekening - Validasi PK Rules 3 - Tanggal PK saja yang diisi</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Informasi Rekening - Validasi PK Rules 4 isi 1 field - Rek Rules 1 - No PK akhir di isi sama</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Informasi Rekening - Validasi PK Rules 4 isi 1 field - Rek Rules 1 - No PK sama di isi sama</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Informasi Rekening - Validasi PK Rules 4 isi 1 field - Rek Rules 1 - Tanggal PK awal di isi sama</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Informasi Rekening - Validasi PK Rules 4 isi 1 field - Rek Rules 1 - Tanggal PK akhir di isi sama</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Informasi Rekening - Validasi PK Rules 4 isi 1 field - Rek Rules 2 - No PK akhir != No PK awal</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Informasi Rekening - Validasi PK Rules 4 isi 1 field - Rek Rules 2 - No PK awal != No PK akhir</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Informasi Rekening - Validasi PK Rules 4 isi 1 field - Rek Rules 2 - Tanggal PK awal != Tanggal PK akhir</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Informasi Rekening - Validasi PK Rules 4 isi 1 field - Rek Rules 2 - Tanggal PK akhir != Tanggal PK awal</t>
-  </si>
-  <si>
     <t>Teoritis</t>
   </si>
   <si>
@@ -1381,69 +1003,6 @@
     <t>Submit Batch berhasil</t>
   </si>
   <si>
-    <t>TC-077</t>
-  </si>
-  <si>
-    <t>TC-079</t>
-  </si>
-  <si>
-    <t>TC-081</t>
-  </si>
-  <si>
-    <t>Normal - Pembukaan Rek - Input Form - Validasi PK Rules 1</t>
-  </si>
-  <si>
-    <t>Normal - Pembukaan Rek - Input Form - Validasi PK Rules 2</t>
-  </si>
-  <si>
-    <t>Normal - Pembukaan Rek - Input Form -  Validasi PK Rules 3</t>
-  </si>
-  <si>
-    <t>TC-084</t>
-  </si>
-  <si>
-    <t>TC-086</t>
-  </si>
-  <si>
-    <t>TC-088</t>
-  </si>
-  <si>
-    <t>Normal - Pembukaan Rek - Input Excel - Validasi PK Rules 1</t>
-  </si>
-  <si>
-    <t>Normal - Pembukaan Rek - Input Excel - Validasi PK Rules 2</t>
-  </si>
-  <si>
-    <t>Normal - Pembukaan Rek - Input Excel -  Validasi PK Rules 3</t>
-  </si>
-  <si>
-    <t>TC-069</t>
-  </si>
-  <si>
-    <t>Normal - Restrukturisasi Rekening - Input Excel</t>
-  </si>
-  <si>
-    <t>DOC</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Rekening Pinjaman - View All</t>
-  </si>
-  <si>
-    <t>Abnormal - Maintenance Rekening Pinjaman - View All dengan data No dan Tanggal PK tidak sesuai rules</t>
-  </si>
-  <si>
-    <t>Normal - Maintanance Rekening - input form jatuh tempo Melewati Pop Up Error di ICONS scr 17074</t>
-  </si>
-  <si>
-    <t>TC-031</t>
-  </si>
-  <si>
-    <t>TC-032</t>
-  </si>
-  <si>
-    <t>TC-033</t>
-  </si>
-  <si>
     <t>ASIC/3333</t>
   </si>
   <si>
@@ -1453,22 +1012,7 @@
     <t>ASIC/1111</t>
   </si>
   <si>
-    <t>TC-059</t>
-  </si>
-  <si>
-    <t>TC-060</t>
-  </si>
-  <si>
-    <t>Normal - Maintenance Informasi Rekening Pinjaman - View All</t>
-  </si>
-  <si>
-    <t>Abnormal - Maintenance Informasi Rekening Pinjaman - View All dengan data No dan Tanggal PK tidak sesuai rules</t>
-  </si>
-  <si>
-    <t>TC-004</t>
-  </si>
-  <si>
-    <t>Normal - Input Excel Mengisi Field Perpanjangan Sementara</t>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1077,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1567,12 +1111,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1648,7 +1186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1721,9 +1259,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1736,9 +1272,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2170,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BD990D-F751-4EA0-817F-5AB9F99CF85E}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2234,20 +1767,20 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B2" s="7" t="str">
         <f t="shared" ref="B2:B38" si="0">CONCATENATE(A2,"-","01")</f>
         <v>TC-001-01</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>377</v>
+      <c r="C2" s="31" t="s">
+        <v>306</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="F2" s="7">
         <v>11353</v>
@@ -2276,2712 +1809,1137 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="B3" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-007-01</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F3" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H3" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M3" s="20">
+      <c r="A3" s="27"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="20" t="str">
         <f>IF(A3&lt;&gt;"",COUNTIF(Activity!A:A,A3),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-009-01</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="F4" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H4" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M4" s="20">
+      <c r="A4" s="27"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="20" t="str">
         <f>IF(A4&lt;&gt;"",COUNTIF(Activity!A:A,A4),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="B5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-011-01</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F5" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H5" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M5" s="20">
+      <c r="A5" s="27"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="20" t="str">
         <f>IF(A5&lt;&gt;"",COUNTIF(Activity!A:A,A5),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="B6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-013-01</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="F6" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H6" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M6" s="20">
+      <c r="A6" s="27"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="20" t="str">
         <f>IF(A6&lt;&gt;"",COUNTIF(Activity!A:A,A6),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-015-01</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="F7" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H7" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M7" s="20">
+      <c r="A7" s="27"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="20" t="str">
         <f>IF(A7&lt;&gt;"",COUNTIF(Activity!A:A,A7),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="B8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-016-01</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="F8" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H8" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M8" s="20">
+      <c r="A8" s="27"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="20" t="str">
         <f>IF(A8&lt;&gt;"",COUNTIF(Activity!A:A,A8),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="B9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-017-01</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F9" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H9" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M9" s="20">
+      <c r="A9" s="27"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="20" t="str">
         <f>IF(A9&lt;&gt;"",COUNTIF(Activity!A:A,A9),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="B10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-018-01</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="F10" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H10" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M10" s="20">
+      <c r="A10" s="27"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="20" t="str">
         <f>IF(A10&lt;&gt;"",COUNTIF(Activity!A:A,A10),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="B11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-023-01</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="F11" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H11" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M11" s="20">
+      <c r="A11" s="27"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="20" t="str">
         <f>IF(A11&lt;&gt;"",COUNTIF(Activity!A:A,A11),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="B12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-024-01</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F12" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H12" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M12" s="20">
+      <c r="A12" s="27"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="20" t="str">
         <f>IF(A12&lt;&gt;"",COUNTIF(Activity!A:A,A12),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="B13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-025-01</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="F13" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H13" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M13" s="20">
+      <c r="A13" s="27"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="20" t="str">
         <f>IF(A13&lt;&gt;"",COUNTIF(Activity!A:A,A13),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="B14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-026-01</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="F14" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H14" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M14" s="20">
+      <c r="A14" s="27"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="20" t="str">
         <f>IF(A14&lt;&gt;"",COUNTIF(Activity!A:A,A14),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="B15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-035-01</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F15" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H15" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M15" s="20">
+      <c r="A15" s="28"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="20" t="str">
         <f>IF(A15&lt;&gt;"",COUNTIF(Activity!A:A,A15),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="B16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-037-01</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="F16" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H16" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M16" s="20">
+      <c r="A16" s="28"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="20" t="str">
         <f>IF(A16&lt;&gt;"",COUNTIF(Activity!A:A,A16),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="B17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-039-01</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="F17" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H17" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M17" s="20">
+      <c r="A17" s="28"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="20" t="str">
         <f>IF(A17&lt;&gt;"",COUNTIF(Activity!A:A,A17),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="B18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-041-01</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="F18" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H18" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M18" s="20">
+      <c r="A18" s="28"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="20" t="str">
         <f>IF(A18&lt;&gt;"",COUNTIF(Activity!A:A,A18),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="B19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-043-01</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="F19" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H19" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M19" s="20">
+      <c r="A19" s="28"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="20" t="str">
         <f>IF(A19&lt;&gt;"",COUNTIF(Activity!A:A,A19),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="B20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-044-01</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F20" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H20" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M20" s="20">
+      <c r="A20" s="28"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="20" t="str">
         <f>IF(A20&lt;&gt;"",COUNTIF(Activity!A:A,A20),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="B21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-045-01</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="F21" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H21" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M21" s="20">
+      <c r="A21" s="28"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="20" t="str">
         <f>IF(A21&lt;&gt;"",COUNTIF(Activity!A:A,A21),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="B22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-046-01</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="F22" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H22" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M22" s="20">
+      <c r="A22" s="28"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="20" t="str">
         <f>IF(A22&lt;&gt;"",COUNTIF(Activity!A:A,A22),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="B23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-051-01</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="F23" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H23" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M23" s="20">
+      <c r="A23" s="28"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="20" t="str">
         <f>IF(A23&lt;&gt;"",COUNTIF(Activity!A:A,A23),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="B24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-052-01</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F24" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H24" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M24" s="20">
+      <c r="A24" s="28"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="20" t="str">
         <f>IF(A24&lt;&gt;"",COUNTIF(Activity!A:A,A24),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="B25" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-053-01</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="F25" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H25" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M25" s="20">
+      <c r="A25" s="28"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="20" t="str">
         <f>IF(A25&lt;&gt;"",COUNTIF(Activity!A:A,A25),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="B26" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-054-01</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="F26" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H26" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M26" s="20">
+      <c r="A26" s="28"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="20" t="str">
         <f>IF(A26&lt;&gt;"",COUNTIF(Activity!A:A,A26),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="B27" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-061-01</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F27" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H27" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M27" s="20">
+      <c r="A27" s="28"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="20" t="str">
         <f>IF(A27&lt;&gt;"",COUNTIF(Activity!A:A,A27),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="B28" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-091-01</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="F28" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H28" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M28" s="20">
+      <c r="A28" s="28"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="20" t="str">
         <f>IF(A28&lt;&gt;"",COUNTIF(Activity!A:A,A28),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
-        <v>327</v>
-      </c>
-      <c r="B29" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-092-01</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="F29" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H29" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M29" s="20">
+      <c r="A29" s="28"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="20" t="str">
         <f>IF(A29&lt;&gt;"",COUNTIF(Activity!A:A,A29),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="B30" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-093-01</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="F30" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H30" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M30" s="20">
+      <c r="A30" s="25"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="20" t="str">
         <f>IF(A30&lt;&gt;"",COUNTIF(Activity!A:A,A30),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="B31" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-094-01</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="F31" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H31" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M31" s="20">
+      <c r="A31" s="25"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="20" t="str">
         <f>IF(A31&lt;&gt;"",COUNTIF(Activity!A:A,A31),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="B32" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-095-01</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="F32" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H32" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M32" s="20">
+      <c r="A32" s="25"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="20" t="str">
         <f>IF(A32&lt;&gt;"",COUNTIF(Activity!A:A,A32),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="B33" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-096-01</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F33" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H33" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M33" s="20">
+      <c r="A33" s="30"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="20" t="str">
         <f>IF(A33&lt;&gt;"",COUNTIF(Activity!A:A,A33),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="B34" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-097-01</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F34" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H34" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M34" s="20">
+      <c r="A34" s="30"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="20" t="str">
         <f>IF(A34&lt;&gt;"",COUNTIF(Activity!A:A,A34),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="B35" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-098-01</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F35" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H35" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M35" s="20">
+      <c r="A35" s="30"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="20" t="str">
         <f>IF(A35&lt;&gt;"",COUNTIF(Activity!A:A,A35),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="B36" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-099-01</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F36" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H36" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M36" s="20">
+      <c r="A36" s="30"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="20" t="str">
         <f>IF(A36&lt;&gt;"",COUNTIF(Activity!A:A,A36),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="B37" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-100-01</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F37" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H37" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M37" s="20">
+      <c r="A37" s="30"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="20" t="str">
         <f>IF(A37&lt;&gt;"",COUNTIF(Activity!A:A,A37),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="B38" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC-101-01</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F38" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H38" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M38" s="20">
+      <c r="A38" s="30"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="20" t="str">
         <f>IF(A38&lt;&gt;"",COUNTIF(Activity!A:A,A38),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="B39" s="7" t="str">
-        <f t="shared" ref="B39:B44" si="1">CONCATENATE(A39,"-","01")</f>
-        <v>TC-102-01</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="F39" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H39" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M39" s="20">
+      <c r="A39" s="30"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="20" t="str">
         <f>IF(A39&lt;&gt;"",COUNTIF(Activity!A:A,A39),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="B40" s="7" t="str">
-        <f t="shared" ref="B40" si="2">CONCATENATE(A40,"-","01")</f>
-        <v>TC-103-01</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F40" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H40" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M40" s="20">
+      <c r="A40" s="30"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="20" t="str">
         <f>IF(A40&lt;&gt;"",COUNTIF(Activity!A:A,A40),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="B41" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>TC-104-01</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="F41" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H41" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M41" s="20">
+      <c r="A41" s="30"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="20" t="str">
         <f>IF(A41&lt;&gt;"",COUNTIF(Activity!A:A,A41),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="B42" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>TC-105-01</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F42" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H42" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M42" s="20">
+      <c r="A42" s="30"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="20" t="str">
         <f>IF(A42&lt;&gt;"",COUNTIF(Activity!A:A,A42),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="B43" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>TC-106-01</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F43" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H43" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M43" s="20">
+      <c r="A43" s="30"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="20" t="str">
         <f>IF(A43&lt;&gt;"",COUNTIF(Activity!A:A,A43),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="30" t="s">
-        <v>353</v>
-      </c>
-      <c r="B44" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>TC-107-01</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="F44" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H44" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M44" s="20">
+      <c r="A44" s="30"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="20" t="str">
         <f>IF(A44&lt;&gt;"",COUNTIF(Activity!A:A,A44),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="B45" s="7" t="str">
-        <f t="shared" ref="B45:B52" si="3">CONCATENATE(A45,"-","01")</f>
-        <v>TC-108-01</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>443</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>360</v>
-      </c>
-      <c r="F45" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H45" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M45" s="20">
+      <c r="A45" s="30"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="20" t="str">
         <f>IF(A45&lt;&gt;"",COUNTIF(Activity!A:A,A45),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="B46" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>TC-109-01</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>443</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="F46" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H46" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M46" s="20">
+      <c r="A46" s="30"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="20" t="str">
         <f>IF(A46&lt;&gt;"",COUNTIF(Activity!A:A,A46),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="B47" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>TC-110-01</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>443</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="F47" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H47" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M47" s="20">
+      <c r="A47" s="30"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="20" t="str">
         <f>IF(A47&lt;&gt;"",COUNTIF(Activity!A:A,A47),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="B48" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>TC-111-01</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>443</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F48" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H48" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M48" s="20">
+      <c r="A48" s="30"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="20" t="str">
         <f>IF(A48&lt;&gt;"",COUNTIF(Activity!A:A,A48),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="B49" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>TC-112-01</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="F49" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H49" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M49" s="20">
+      <c r="A49" s="30"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="20" t="str">
         <f>IF(A49&lt;&gt;"",COUNTIF(Activity!A:A,A49),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="B50" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>TC-113-01</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F50" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H50" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M50" s="20">
+      <c r="A50" s="30"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="20" t="str">
         <f>IF(A50&lt;&gt;"",COUNTIF(Activity!A:A,A50),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="B51" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>TC-114-01</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="F51" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H51" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M51" s="20">
+      <c r="A51" s="30"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="20" t="str">
         <f>IF(A51&lt;&gt;"",COUNTIF(Activity!A:A,A51),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="B52" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>TC-115-01</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="F52" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H52" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M52" s="20">
+      <c r="A52" s="30"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="20" t="str">
         <f>IF(A52&lt;&gt;"",COUNTIF(Activity!A:A,A52),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="B53" s="7" t="str">
-        <f t="shared" ref="B53:B55" si="4">CONCATENATE(A53,"-","01")</f>
-        <v>TC-077-01</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F53" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H53" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M53" s="20">
+      <c r="A53" s="25"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="20" t="str">
         <f>IF(A53&lt;&gt;"",COUNTIF(Activity!A:A,A53),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="B54" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>TC-079-01</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F54" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H54" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M54" s="20">
+      <c r="A54" s="25"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="20" t="str">
         <f>IF(A54&lt;&gt;"",COUNTIF(Activity!A:A,A54),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="B55" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>TC-081-01</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F55" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H55" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M55" s="20">
+      <c r="A55" s="25"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="20" t="str">
         <f>IF(A55&lt;&gt;"",COUNTIF(Activity!A:A,A55),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="B56" s="7" t="str">
-        <f t="shared" ref="B56:B58" si="5">CONCATENATE(A56,"-","01")</f>
-        <v>TC-084-01</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="F56" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H56" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M56" s="20">
+      <c r="A56" s="25"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="20" t="str">
         <f>IF(A56&lt;&gt;"",COUNTIF(Activity!A:A,A56),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="B57" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>TC-086-01</v>
-      </c>
-      <c r="C57" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="F57" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H57" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M57" s="20">
+      <c r="A57" s="25"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="20" t="str">
         <f>IF(A57&lt;&gt;"",COUNTIF(Activity!A:A,A57),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="B58" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>TC-088-01</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="F58" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H58" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M58" s="20">
+      <c r="A58" s="25"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="20" t="str">
         <f>IF(A58&lt;&gt;"",COUNTIF(Activity!A:A,A58),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="B59" s="7" t="str">
-        <f t="shared" ref="B59:B60" si="6">CONCATENATE(A59,"-","01")</f>
-        <v>TC-069-01</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="F59" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H59" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M59" s="20">
+      <c r="A59" s="25"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="20" t="str">
         <f>IF(A59&lt;&gt;"",COUNTIF(Activity!A:A,A59),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="B60" s="7" t="str">
-        <f t="shared" ref="B60:B62" si="7">CONCATENATE(A60,"-","01")</f>
-        <v>TC-031-01</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="F60" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H60" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M60" s="20">
+      <c r="A60" s="25"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="20" t="str">
         <f>IF(A60&lt;&gt;"",COUNTIF(Activity!A:A,A60),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="25" t="s">
-        <v>448</v>
-      </c>
-      <c r="B61" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>TC-032-01</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="F61" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H61" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M61" s="20">
+      <c r="A61" s="25"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="20" t="str">
         <f>IF(A61&lt;&gt;"",COUNTIF(Activity!A:A,A61),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="25" t="s">
-        <v>449</v>
-      </c>
-      <c r="B62" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>TC-033-01</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="F62" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H62" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M62" s="20">
+      <c r="A62" s="25"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="20" t="str">
         <f>IF(A62&lt;&gt;"",COUNTIF(Activity!A:A,A62),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="25" t="s">
-        <v>453</v>
-      </c>
-      <c r="B63" s="7" t="str">
-        <f t="shared" ref="B63:B64" si="8">CONCATENATE(A63,"-","01")</f>
-        <v>TC-059-01</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="F63" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H63" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M63" s="20">
+      <c r="A63" s="25"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="20" t="str">
         <f>IF(A63&lt;&gt;"",COUNTIF(Activity!A:A,A63),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="B64" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>TC-060-01</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="F64" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H64" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M64" s="20">
+      <c r="A64" s="25"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="20" t="str">
         <f>IF(A64&lt;&gt;"",COUNTIF(Activity!A:A,A64),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="B65" s="7" t="str">
-        <f t="shared" ref="B65" si="9">CONCATENATE(A65,"-","01")</f>
-        <v>TC-004-01</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="F65" s="7">
-        <v>11353</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H65" s="7">
-        <v>16001</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M65" s="20">
+      <c r="A65" s="25"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="20" t="str">
         <f>IF(A65&lt;&gt;"",COUNTIF(Activity!A:A,A65),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -5005,6 +2963,151 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7F4889-46AF-4808-B06F-ACED5C6C53AF}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+    </row>
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="e" cm="1" vm="1">
+        <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;""""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" s="3" t="e" cm="1" vm="1">
+        <f t="array" ref="B3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>1000544283</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="10">
+        <v>200000</v>
+      </c>
+      <c r="H3" s="10">
+        <v>200000</v>
+      </c>
+      <c r="I3" s="10">
+        <v>200000</v>
+      </c>
+      <c r="J3" s="10">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4">
+        <v>1000810348</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10">
+        <v>-2100000000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1D68C1F8-ABFC-40E1-A4B5-14A9F0EF6A32}">
+          <x14:formula1>
+            <xm:f>Var!$B$13:$B$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F24C01-C853-4210-B6F2-D96E9B3CD0E5}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -5065,20 +3168,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="str" cm="1">
-        <f t="array" ref="A3:A9">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;""""))</f>
-        <v>TC-112</v>
-      </c>
-      <c r="B3" s="3" cm="1">
-        <f t="array" ref="B3:D9">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
-        <v>48</v>
-      </c>
-      <c r="C3" s="3" t="str">
-        <v>Pembukaan Rek</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <v>Normal - Pembukaan rekening - Transaksi 1T</v>
-      </c>
+      <c r="A3" s="3" t="e" cm="1" vm="1">
+        <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;""""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" s="3" t="e" cm="1" vm="1">
+        <f t="array" ref="B3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>10001032630</v>
       </c>
@@ -5090,18 +3189,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="str">
-        <v>TC-077</v>
-      </c>
-      <c r="B4" s="3">
-        <v>52</v>
-      </c>
-      <c r="C4" s="3" t="str">
-        <v>Pembukaan Rek</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <v>Normal - Pembukaan Rek - Input Form - Validasi PK Rules 1</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>10001032630</v>
       </c>
@@ -5113,18 +3204,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="str">
-        <v>TC-079</v>
-      </c>
-      <c r="B5" s="3">
-        <v>53</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <v>Pembukaan Rek</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <v>Normal - Pembukaan Rek - Input Form - Validasi PK Rules 2</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="3">
         <v>10001032630</v>
       </c>
@@ -5136,18 +3219,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="str">
-        <v>TC-081</v>
-      </c>
-      <c r="B6" s="3">
-        <v>54</v>
-      </c>
-      <c r="C6" s="3" t="str">
-        <v>Pembukaan Rek</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <v>Normal - Pembukaan Rek - Input Form -  Validasi PK Rules 3</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="3">
         <v>10001032630</v>
       </c>
@@ -5159,18 +3234,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="str">
-        <v>TC-084</v>
-      </c>
-      <c r="B7" s="3">
-        <v>55</v>
-      </c>
-      <c r="C7" s="3" t="str">
-        <v>Pembukaan Rek</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <v>Normal - Pembukaan Rek - Input Excel - Validasi PK Rules 1</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="3">
         <v>10001032630</v>
       </c>
@@ -5182,18 +3249,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="str">
-        <v>TC-086</v>
-      </c>
-      <c r="B8" s="3">
-        <v>56</v>
-      </c>
-      <c r="C8" s="3" t="str">
-        <v>Pembukaan Rek</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <v>Normal - Pembukaan Rek - Input Excel - Validasi PK Rules 2</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3">
         <v>10001032630</v>
       </c>
@@ -5205,18 +3264,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="str">
-        <v>TC-088</v>
-      </c>
-      <c r="B9" s="3">
-        <v>57</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <v>Pembukaan Rek</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <v>Normal - Pembukaan Rek - Input Excel -  Validasi PK Rules 3</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>10001032630</v>
       </c>
@@ -5338,7 +3389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E925F52-EAAA-4A3D-9319-73B65C754D34}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -5399,20 +3450,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="str" cm="1">
+      <c r="A3" s="3" t="e" cm="1" vm="1">
         <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;""""))</f>
-        <v>TC-114</v>
-      </c>
-      <c r="B3" s="3" cm="1">
-        <f t="array" ref="B3:D3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
-        <v>50</v>
-      </c>
-      <c r="C3" s="3" t="str">
-        <v>Blokir Rekening</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <v>Normal - Blokir Rekening - Transaksi 1T</v>
-      </c>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" s="3" t="e" cm="1" vm="1">
+        <f t="array" ref="B3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>226356621</v>
       </c>
@@ -5465,7 +3512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C547CAC-65BB-400B-8328-46C49E04DC52}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -5683,7 +3730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BF20EE-0642-4665-91B6-82837366E096}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -5791,7 +3838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E899D75-4068-4D01-9B07-5BEA1E3081E8}">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -5958,220 +4005,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615939AB-F0E8-430C-A7E8-C811E2A909E6}">
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>2</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>3</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>5</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>6</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>7</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>8</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>9</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>10</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>2</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D923057-5622-4B75-B52E-77EA52D2CA36}">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="70" bestFit="1" customWidth="1"/>
@@ -6200,7 +4045,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B2" s="3" t="str">
         <f>IF(A2="", "",VLOOKUP(A2,Batch!A:E,5,FALSE))</f>
@@ -6213,1306 +4058,638 @@
         <v>119</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C7" s="3">
-        <v>6</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C8" s="3">
-        <v>7</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C9" s="3">
-        <v>8</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="C10" s="3">
-        <v>9</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="C11" s="3">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C12" s="3">
-        <v>11</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C13" s="3">
-        <v>12</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="C14" s="3">
-        <v>13</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C15" s="3">
-        <v>14</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A15" s="25"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C16" s="3">
-        <v>15</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A16" s="25"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C17" s="3">
-        <v>16</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A17" s="25"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C18" s="3">
-        <v>17</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A18" s="25"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C19" s="3">
-        <v>18</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A19" s="25"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C20" s="3">
-        <v>19</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A20" s="25"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C21" s="3">
-        <v>20</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A21" s="25"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C22" s="3">
-        <v>21</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A22" s="25"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C23" s="3">
-        <v>22</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A23" s="25"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C24" s="3">
-        <v>23</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A24" s="25"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C25" s="3">
-        <v>24</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A25" s="25"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C26" s="3">
-        <v>25</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A26" s="25"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>322</v>
-      </c>
+      <c r="A27" s="3"/>
       <c r="B27" s="3" t="str">
         <f>IF(A27="", "",VLOOKUP(A27,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Restrukturisasi Rekening - Input form</v>
-      </c>
-      <c r="C27" s="3">
-        <v>26</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
-        <v>326</v>
-      </c>
+      <c r="A28" s="25"/>
       <c r="B28" s="3" t="str">
         <f>IF(A28="", "",VLOOKUP(A28,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Pemindahbukuan dana GL-GL</v>
-      </c>
-      <c r="C28" s="3">
-        <v>27</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
-        <v>327</v>
-      </c>
+      <c r="A29" s="25"/>
       <c r="B29" s="3" t="str">
         <f>IF(A29="", "",VLOOKUP(A29,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Pemindahbukuan dana interbranch GL-GL</v>
-      </c>
-      <c r="C29" s="3">
-        <v>28</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
-        <v>344</v>
-      </c>
+      <c r="A30" s="25"/>
       <c r="B30" s="3" t="str">
         <f>IF(A30="", "",VLOOKUP(A30,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Menjalankan use case Maintenance rekening pinjaman dengan status rekening Pending</v>
-      </c>
-      <c r="C30" s="3">
-        <v>29</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
-        <v>345</v>
-      </c>
+      <c r="A31" s="25"/>
       <c r="B31" s="3" t="str">
         <f>IF(A31="", "",VLOOKUP(A31,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Menjalankan use case Maintenance informasi rekening pinjaman dengan status rekening Pending</v>
-      </c>
-      <c r="C31" s="3">
-        <v>30</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
-        <v>346</v>
-      </c>
+      <c r="A32" s="25"/>
       <c r="B32" s="3" t="str">
         <f>IF(A32="", "",VLOOKUP(A32,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Menjalankan use case Bucket Adjusment dengan status rekening Pending</v>
-      </c>
-      <c r="C32" s="3">
-        <v>31</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
-        <v>335</v>
-      </c>
+      <c r="A33" s="30"/>
       <c r="B33" s="3" t="str">
         <f>IF(A33="", "",VLOOKUP(A33,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Maintenance info - Fix rate date: terisi &amp; Interest rate: terisi</v>
-      </c>
-      <c r="C33" s="3">
-        <v>32</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
-        <v>336</v>
-      </c>
+      <c r="A34" s="30"/>
       <c r="B34" s="3" t="str">
         <f>IF(A34="", "",VLOOKUP(A34,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Maintenance info - Fix rate date: 00/00/0000 &amp; Interest rate: 0.0000</v>
-      </c>
-      <c r="C34" s="3">
-        <v>33</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
-        <v>337</v>
-      </c>
+      <c r="A35" s="30"/>
       <c r="B35" s="3" t="str">
         <f>IF(A35="", "",VLOOKUP(A35,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Maintenance info - Fix rate date: terisi &amp; Interest rate: 0.0000</v>
-      </c>
-      <c r="C35" s="3">
-        <v>34</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
-        <v>338</v>
-      </c>
+      <c r="A36" s="30"/>
       <c r="B36" s="3" t="str">
         <f>IF(A36="", "",VLOOKUP(A36,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Maintenance info - Fix rate date: 00/00/0000 &amp; Interest rate: terisi</v>
-      </c>
-      <c r="C36" s="3">
-        <v>35</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
-        <v>339</v>
-      </c>
+      <c r="A37" s="30"/>
       <c r="B37" s="3" t="str">
         <f>IF(A37="", "",VLOOKUP(A37,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Maintenance info - Fix rate date: 2099 &amp; Interest rate: terisi</v>
-      </c>
-      <c r="C37" s="3">
-        <v>36</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="30" t="s">
-        <v>340</v>
-      </c>
+      <c r="A38" s="30"/>
       <c r="B38" s="3" t="str">
         <f>IF(A38="", "",VLOOKUP(A38,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Maintenance info - Fix rate date &lt; tgl system &amp; Interest rate: terisi</v>
-      </c>
-      <c r="C38" s="3">
-        <v>37</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="30" t="s">
-        <v>375</v>
-      </c>
+      <c r="A39" s="30"/>
       <c r="B39" s="3" t="str">
         <f>IF(A39="", "",VLOOKUP(A39,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Maintenance Rekening - Fix rate date: terisi &amp; Interest rate: terisi</v>
-      </c>
-      <c r="C39" s="3">
-        <v>38</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="30" t="s">
-        <v>349</v>
-      </c>
+      <c r="A40" s="30"/>
       <c r="B40" s="3" t="str">
         <f>IF(A40="", "",VLOOKUP(A40,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Maintenance Rekening - Fix rate date: 00/00/0000 &amp; Interest rate: 0.0000</v>
-      </c>
-      <c r="C40" s="3">
-        <v>39</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
-        <v>350</v>
-      </c>
+      <c r="A41" s="30"/>
       <c r="B41" s="3" t="str">
         <f>IF(A41="", "",VLOOKUP(A41,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Maintenance Rekening - Fix rate date: terisi &amp; Interest rate: 0.0000</v>
-      </c>
-      <c r="C41" s="3">
-        <v>40</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="30" t="s">
-        <v>351</v>
-      </c>
+      <c r="A42" s="30"/>
       <c r="B42" s="3" t="str">
         <f>IF(A42="", "",VLOOKUP(A42,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Maintenance Rekening - Fix rate date: 00/00/0000 &amp; Interest rate: terisi</v>
-      </c>
-      <c r="C42" s="3">
-        <v>41</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="30" t="s">
-        <v>352</v>
-      </c>
+      <c r="A43" s="30"/>
       <c r="B43" s="3" t="str">
         <f>IF(A43="", "",VLOOKUP(A43,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Maintenance Rekening - Fix rate date: 2099 &amp; Interest rate: terisi</v>
-      </c>
-      <c r="C43" s="3">
-        <v>42</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="30" t="s">
-        <v>353</v>
-      </c>
+      <c r="A44" s="30"/>
       <c r="B44" s="3" t="str">
         <f>IF(A44="", "",VLOOKUP(A44,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Maintenance Rekening - Fix rate date &lt; tgl system &amp; Interest rate: terisi</v>
-      </c>
-      <c r="C44" s="3">
-        <v>43</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="30" t="s">
-        <v>354</v>
-      </c>
+      <c r="A45" s="30"/>
       <c r="B45" s="3" t="str">
         <f>IF(A45="", "",VLOOKUP(A45,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Pemindahbukuan rekening - Simpanan ke Simpanan &gt; 1T</v>
-      </c>
-      <c r="C45" s="3">
-        <v>44</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
-        <v>368</v>
-      </c>
+      <c r="A46" s="30"/>
       <c r="B46" s="3" t="str">
         <f>IF(A46="", "",VLOOKUP(A46,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Pemindahbukuan rekening - Pinjaman ke Pinjaman &gt; 1T</v>
-      </c>
-      <c r="C46" s="3">
-        <v>45</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="30" t="s">
-        <v>369</v>
-      </c>
+      <c r="A47" s="30"/>
       <c r="B47" s="3" t="str">
         <f>IF(A47="", "",VLOOKUP(A47,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Pemindahbukuan rekening - Pinjaman ke Simpanan &gt; 1T</v>
-      </c>
-      <c r="C47" s="3">
-        <v>46</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="30" t="s">
-        <v>370</v>
-      </c>
+      <c r="A48" s="30"/>
       <c r="B48" s="3" t="str">
         <f>IF(A48="", "",VLOOKUP(A48,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Pemindahbukuan rekening - Simpanan ke Pinjaman &gt; 1T</v>
-      </c>
-      <c r="C48" s="3">
-        <v>47</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="30" t="s">
-        <v>371</v>
-      </c>
+      <c r="A49" s="30"/>
       <c r="B49" s="3" t="str">
         <f>IF(A49="", "",VLOOKUP(A49,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Pembukaan rekening - Transaksi 1T</v>
-      </c>
-      <c r="C49" s="3">
-        <v>48</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="30" t="s">
-        <v>372</v>
-      </c>
+      <c r="A50" s="30"/>
       <c r="B50" s="3" t="str">
         <f>IF(A50="", "",VLOOKUP(A50,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Maintenance rekening pinjaman - Transaksi 1T</v>
-      </c>
-      <c r="C50" s="3">
-        <v>49</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="30" t="s">
-        <v>373</v>
-      </c>
+      <c r="A51" s="30"/>
       <c r="B51" s="3" t="str">
         <f>IF(A51="", "",VLOOKUP(A51,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Blokir Rekening - Transaksi 1T</v>
-      </c>
-      <c r="C51" s="3">
-        <v>50</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="30" t="s">
-        <v>374</v>
-      </c>
+      <c r="A52" s="30"/>
       <c r="B52" s="3" t="str">
         <f>IF(A52="", "",VLOOKUP(A52,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Bucket Adjustment - Transaksi 1T</v>
-      </c>
-      <c r="C52" s="3">
-        <v>51</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="25" t="s">
-        <v>429</v>
-      </c>
+      <c r="A53" s="25"/>
       <c r="B53" s="3" t="str">
         <f>IF(A53="", "",VLOOKUP(A53,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Pembukaan Rek - Input Form - Validasi PK Rules 1</v>
-      </c>
-      <c r="C53" s="3">
-        <v>52</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="25" t="s">
-        <v>430</v>
-      </c>
+      <c r="A54" s="25"/>
       <c r="B54" s="3" t="str">
         <f>IF(A54="", "",VLOOKUP(A54,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Pembukaan Rek - Input Form - Validasi PK Rules 2</v>
-      </c>
-      <c r="C54" s="3">
-        <v>53</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="25" t="s">
-        <v>431</v>
-      </c>
+      <c r="A55" s="25"/>
       <c r="B55" s="3" t="str">
         <f>IF(A55="", "",VLOOKUP(A55,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Pembukaan Rek - Input Form -  Validasi PK Rules 3</v>
-      </c>
-      <c r="C55" s="3">
-        <v>54</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="25" t="s">
-        <v>435</v>
-      </c>
+      <c r="A56" s="25"/>
       <c r="B56" s="3" t="str">
         <f>IF(A56="", "",VLOOKUP(A56,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Pembukaan Rek - Input Excel - Validasi PK Rules 1</v>
-      </c>
-      <c r="C56" s="3">
-        <v>55</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="25" t="s">
-        <v>436</v>
-      </c>
+      <c r="A57" s="25"/>
       <c r="B57" s="3" t="str">
         <f>IF(A57="", "",VLOOKUP(A57,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Pembukaan Rek - Input Excel - Validasi PK Rules 2</v>
-      </c>
-      <c r="C57" s="3">
-        <v>56</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="25" t="s">
-        <v>437</v>
-      </c>
+      <c r="A58" s="25"/>
       <c r="B58" s="3" t="str">
         <f>IF(A58="", "",VLOOKUP(A58,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Pembukaan Rek - Input Excel -  Validasi PK Rules 3</v>
-      </c>
-      <c r="C58" s="3">
-        <v>57</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="25" t="s">
-        <v>441</v>
-      </c>
+      <c r="A59" s="25"/>
       <c r="B59" s="3" t="str">
         <f>IF(A59="", "",VLOOKUP(A59,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Restrukturisasi Rekening - Input Excel</v>
-      </c>
-      <c r="C59" s="3">
-        <v>58</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="25" t="s">
-        <v>447</v>
-      </c>
+      <c r="A60" s="25"/>
       <c r="B60" s="3" t="str">
         <f>IF(A60="", "",VLOOKUP(A60,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Maintenance Rekening Pinjaman - View All</v>
-      </c>
-      <c r="C60" s="3">
-        <v>59</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>119</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="9"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="25" t="s">
-        <v>448</v>
-      </c>
+      <c r="A61" s="25"/>
       <c r="B61" s="3" t="str">
         <f>IF(A61="", "",VLOOKUP(A61,Batch!A:E,5,FALSE))</f>
-        <v>Abnormal - Maintenance Rekening Pinjaman - View All dengan data No dan Tanggal PK tidak sesuai rules</v>
-      </c>
-      <c r="C61" s="3">
-        <v>60</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>119</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="9"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="25" t="s">
-        <v>449</v>
-      </c>
+      <c r="A62" s="25"/>
       <c r="B62" s="3" t="str">
         <f>IF(A62="", "",VLOOKUP(A62,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Maintanance Rekening - input form jatuh tempo Melewati Pop Up Error di ICONS scr 17074</v>
-      </c>
-      <c r="C62" s="3">
-        <v>61</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>119</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="9"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="25" t="s">
-        <v>453</v>
-      </c>
+      <c r="A63" s="25"/>
       <c r="B63" s="3" t="str">
         <f>IF(A63="", "",VLOOKUP(A63,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Maintenance Informasi Rekening Pinjaman - View All</v>
-      </c>
-      <c r="C63" s="3">
-        <v>62</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="9"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="25" t="s">
-        <v>454</v>
-      </c>
+      <c r="A64" s="25"/>
       <c r="B64" s="3" t="str">
         <f>IF(A64="", "",VLOOKUP(A64,Batch!A:E,5,FALSE))</f>
-        <v>Abnormal - Maintenance Informasi Rekening Pinjaman - View All dengan data No dan Tanggal PK tidak sesuai rules</v>
-      </c>
-      <c r="C64" s="3">
-        <v>63</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="9"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>457</v>
-      </c>
+      <c r="A65" s="3"/>
       <c r="B65" s="3" t="str">
         <f>IF(A65="", "",VLOOKUP(A65,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Input Excel Mengisi Field Perpanjangan Sementara</v>
-      </c>
-      <c r="C65" s="3">
-        <v>64</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>119</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="9"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B66" s="3" t="e">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3" t="str">
         <f>IF(A66="", "",VLOOKUP(A66,Batch!A:E,5,FALSE))</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="9"/>
@@ -7520,12 +4697,10 @@
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B67" s="3" t="e">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3" t="str">
         <f>IF(A67="", "",VLOOKUP(A67,Batch!A:E,5,FALSE))</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="9"/>
@@ -7533,12 +4708,10 @@
       <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B68" s="3" t="e">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3" t="str">
         <f>IF(A68="", "",VLOOKUP(A68,Batch!A:E,5,FALSE))</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="9"/>
@@ -7546,12 +4719,10 @@
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B69" s="3" t="e">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3" t="str">
         <f>IF(A69="", "",VLOOKUP(A69,Batch!A:E,5,FALSE))</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="9"/>
@@ -7559,12 +4730,10 @@
       <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B70" s="3" t="e">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3" t="str">
         <f>IF(A70="", "",VLOOKUP(A70,Batch!A:E,5,FALSE))</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="9"/>
@@ -9684,6 +6853,208 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615939AB-F0E8-430C-A7E8-C811E2A909E6}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>6</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>7</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>8</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>9</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>10</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146911E3-3D96-4805-9FD0-4118322ED41F}">
   <dimension ref="A1:J17"/>
   <sheetViews>
@@ -9707,10 +7078,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>235</v>
@@ -9725,16 +7096,16 @@
         <v>237</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -9742,130 +7113,130 @@
         <v>233</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>404</v>
+        <v>278</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>408</v>
+        <v>282</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>422</v>
+        <v>296</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>404</v>
+        <v>278</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>239</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>405</v>
+        <v>279</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>409</v>
+        <v>283</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>423</v>
+        <v>297</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>405</v>
+        <v>279</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>240</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>406</v>
+        <v>280</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>410</v>
+        <v>284</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>424</v>
+        <v>298</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>406</v>
+        <v>280</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>407</v>
+        <v>281</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>411</v>
+        <v>285</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>425</v>
+        <v>299</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>407</v>
+        <v>281</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="C6" s="23" t="s">
-        <v>412</v>
+        <v>286</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -9877,7 +7248,7 @@
         <v>238</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -9889,10 +7260,10 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="23" t="s">
-        <v>413</v>
+        <v>287</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>426</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -9905,10 +7276,10 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="23" t="s">
-        <v>414</v>
+        <v>288</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>427</v>
+        <v>301</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -9921,10 +7292,10 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="23" t="s">
-        <v>415</v>
+        <v>289</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>428</v>
+        <v>302</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -9937,7 +7308,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="23" t="s">
-        <v>416</v>
+        <v>290</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -9951,7 +7322,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="23" t="s">
-        <v>417</v>
+        <v>291</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -9965,7 +7336,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -9979,7 +7350,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="23" t="s">
-        <v>418</v>
+        <v>292</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -9993,7 +7364,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="23" t="s">
-        <v>419</v>
+        <v>293</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -10007,7 +7378,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="23" t="s">
-        <v>420</v>
+        <v>294</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -10021,7 +7392,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="23" t="s">
-        <v>421</v>
+        <v>295</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -10037,7 +7408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF16E7AA-ADED-4D28-A781-927C1D368780}">
   <dimension ref="A1:AA29"/>
   <sheetViews>
@@ -10161,11 +7532,11 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str" cm="1">
-        <f t="array" ref="A3:A27">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;""""))</f>
+        <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;""""))</f>
         <v>TC-001</v>
       </c>
       <c r="B3" s="3" cm="1">
-        <f t="array" ref="B3:D27">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
+        <f t="array" ref="B3:D3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
         <v>1</v>
       </c>
       <c r="C3" s="3" t="str">
@@ -10185,10 +7556,10 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="6" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="O3" s="19">
         <v>45689</v>
@@ -10222,18 +7593,10 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="str">
-        <v>TC-007</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <v>Validasi PK Rules 1</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="14">
         <v>253173485</v>
       </c>
@@ -10245,10 +7608,10 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="O4" s="19">
         <v>45323</v>
@@ -10280,18 +7643,10 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="str">
-        <v>TC-009</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <v>Validasi PK Rules 2</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="14">
         <v>315605444</v>
       </c>
@@ -10303,10 +7658,10 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="O5" s="19">
         <v>45323</v>
@@ -10338,18 +7693,10 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="str">
-        <v>TC-011</v>
-      </c>
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <v>Validasi PK Rules 3</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="14">
         <v>316027742</v>
       </c>
@@ -10361,10 +7708,10 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="O6" s="19">
         <v>45323</v>
@@ -10396,18 +7743,10 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="str">
-        <v>TC-013</v>
-      </c>
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <v>Validasi PK Rules 3 - Tanggal PK saja yang diisi</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="14">
         <v>316987952</v>
       </c>
@@ -10450,18 +7789,10 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="str">
-        <v>TC-015</v>
-      </c>
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <v>Validasi PK Rules 4 - Rek Rules 1 - No PK akhir di isi sama</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3">
         <v>317078978</v>
       </c>
@@ -10474,7 +7805,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="6"/>
       <c r="N8" s="3" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
@@ -10483,18 +7814,10 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="str">
-        <v>TC-016</v>
-      </c>
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <v>Validasi PK Rules 4 - Rek Rules 1 - No PK awal di isi sama</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>317099932</v>
       </c>
@@ -10506,7 +7829,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="19"/>
@@ -10516,18 +7839,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="str">
-        <v>TC-017</v>
-      </c>
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <v>Validasi PK Rules 4 - Rek Rules 1 - Tanggal PK awal di isi sama</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="3">
         <v>317205943</v>
       </c>
@@ -10570,18 +7885,10 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="str">
-        <v>TC-018</v>
-      </c>
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D11" s="3" t="str">
-        <v>Validasi PK Rules 4 - Rek Rules 1 - Tanggal PK akhir di isi sama</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3">
         <v>317249233</v>
       </c>
@@ -10622,18 +7929,10 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="str">
-        <v>TC-023</v>
-      </c>
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D12" s="3" t="str">
-        <v>Validasi PK Rules 4 - Rek Rules 2 - No PK akhir di isi sama</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3">
         <v>317249709</v>
       </c>
@@ -10646,7 +7945,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
@@ -10674,18 +7973,10 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="str">
-        <v>TC-024</v>
-      </c>
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <v>Validasi PK Rules 4 - Rek Rules 2 - No PK awal  di isi sama</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3">
         <v>317410464</v>
       </c>
@@ -10697,7 +7988,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="19"/>
@@ -10726,18 +8017,10 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="str">
-        <v>TC-025</v>
-      </c>
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <v>Validasi PK Rules 4 - Rek Rules 2 - Tanggal PK awal di isi sama</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3">
         <v>317413103</v>
       </c>
@@ -10751,7 +8034,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="26" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="3">
@@ -10778,18 +8061,10 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="str">
-        <v>TC-026</v>
-      </c>
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D15" s="3" t="str">
-        <v>Validasi PK Rules 4 - Rek Rules 2 - Tanggal PK akhir di isi sama</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3">
         <v>317695812</v>
       </c>
@@ -10811,18 +8086,10 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="str">
-        <v>TC-093</v>
-      </c>
-      <c r="B16" s="3">
-        <v>29</v>
-      </c>
-      <c r="C16" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D16" s="3" t="str">
-        <v>Normal - Menjalankan use case Maintenance rekening pinjaman dengan status rekening Pending</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3">
         <v>147068687</v>
       </c>
@@ -10834,10 +8101,10 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="O16" s="19">
         <v>45323</v>
@@ -10850,18 +8117,10 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="str">
-        <v>TC-102</v>
-      </c>
-      <c r="B17" s="3">
-        <v>38</v>
-      </c>
-      <c r="C17" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D17" s="3" t="str">
-        <v>Normal - Maintenance Rekening - Fix rate date: terisi &amp; Interest rate: terisi</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="3">
         <v>295206913</v>
       </c>
@@ -10875,10 +8134,10 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="O17" s="19">
         <v>45323</v>
@@ -10891,18 +8150,10 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="str">
-        <v>TC-103</v>
-      </c>
-      <c r="B18" s="3">
-        <v>39</v>
-      </c>
-      <c r="C18" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D18" s="3" t="str">
-        <v>Normal - Maintenance Rekening - Fix rate date: 00/00/0000 &amp; Interest rate: 0.0000</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3">
         <v>315343623</v>
       </c>
@@ -10916,10 +8167,10 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="O18" s="19">
         <v>45323</v>
@@ -10932,18 +8183,10 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="str">
-        <v>TC-104</v>
-      </c>
-      <c r="B19" s="3">
-        <v>40</v>
-      </c>
-      <c r="C19" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D19" s="3" t="str">
-        <v>Normal - Maintenance Rekening - Fix rate date: terisi &amp; Interest rate: 0.0000</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3">
         <v>317711891</v>
       </c>
@@ -10957,10 +8200,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="O19" s="19">
         <v>45323</v>
@@ -10973,18 +8216,10 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="str">
-        <v>TC-105</v>
-      </c>
-      <c r="B20" s="3">
-        <v>41</v>
-      </c>
-      <c r="C20" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D20" s="3" t="str">
-        <v>Normal - Maintenance Rekening - Fix rate date: 00/00/0000 &amp; Interest rate: terisi</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3">
         <v>1000732946</v>
       </c>
@@ -10998,10 +8233,10 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="O20" s="19">
         <v>45323</v>
@@ -11014,18 +8249,10 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="str">
-        <v>TC-106</v>
-      </c>
-      <c r="B21" s="3">
-        <v>42</v>
-      </c>
-      <c r="C21" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D21" s="3" t="str">
-        <v>Normal - Maintenance Rekening - Fix rate date: 2099 &amp; Interest rate: terisi</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="3">
         <v>1001079381</v>
       </c>
@@ -11039,10 +8266,10 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="O21" s="19">
         <v>45323</v>
@@ -11055,18 +8282,10 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="str">
-        <v>TC-107</v>
-      </c>
-      <c r="B22" s="3">
-        <v>43</v>
-      </c>
-      <c r="C22" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D22" s="3" t="str">
-        <v>Normal - Maintenance Rekening - Fix rate date &lt; tgl system &amp; Interest rate: terisi</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="3">
         <v>1000810122</v>
       </c>
@@ -11080,10 +8299,10 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="O22" s="19">
         <v>45323</v>
@@ -11096,18 +8315,10 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="str">
-        <v>TC-113</v>
-      </c>
-      <c r="B23" s="3">
-        <v>49</v>
-      </c>
-      <c r="C23" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D23" s="3" t="str">
-        <v>Normal - Maintenance rekening pinjaman - Transaksi 1T</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="3">
         <v>1001142482</v>
       </c>
@@ -11121,10 +8332,10 @@
         <v>6000000000000</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="O23" s="19">
         <v>45323</v>
@@ -11137,18 +8348,10 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="str">
-        <v>TC-031</v>
-      </c>
-      <c r="B24" s="3">
-        <v>59</v>
-      </c>
-      <c r="C24" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="14">
         <v>187582982</v>
       </c>
@@ -11160,10 +8363,10 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="6" t="s">
-        <v>452</v>
+        <v>305</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>452</v>
+        <v>305</v>
       </c>
       <c r="O24" s="19">
         <v>45323</v>
@@ -11171,23 +8374,15 @@
       <c r="P24" s="19">
         <v>45323</v>
       </c>
-      <c r="Q24" s="37">
+      <c r="Q24" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="str">
-        <v>TC-032</v>
-      </c>
-      <c r="B25" s="3">
-        <v>60</v>
-      </c>
-      <c r="C25" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="14">
         <v>253173485</v>
       </c>
@@ -11199,10 +8394,10 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="6" t="s">
-        <v>450</v>
+        <v>303</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>451</v>
+        <v>304</v>
       </c>
       <c r="O25" s="19">
         <v>45323</v>
@@ -11210,23 +8405,15 @@
       <c r="P25" s="19">
         <v>45323</v>
       </c>
-      <c r="Q25" s="37">
+      <c r="Q25" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="str">
-        <v>TC-033</v>
-      </c>
-      <c r="B26" s="3">
-        <v>61</v>
-      </c>
-      <c r="C26" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="3">
         <v>317443626</v>
       </c>
@@ -11238,10 +8425,10 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="6" t="s">
-        <v>452</v>
+        <v>305</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>452</v>
+        <v>305</v>
       </c>
       <c r="O26" s="19">
         <v>45323</v>
@@ -11253,22 +8440,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" t="str">
-        <v>TC-004</v>
-      </c>
-      <c r="B27">
-        <v>64</v>
-      </c>
-      <c r="C27" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F29" s="38"/>
+      <c r="F29" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11293,7 +8466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C290590-27BE-46D2-84BE-E2B128CC7D3D}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
@@ -11382,20 +8555,16 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="str" cm="1">
-        <f t="array" ref="A3:A23">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;""""))</f>
-        <v>TC-035</v>
-      </c>
-      <c r="B3" s="3" cm="1">
-        <f t="array" ref="B3:D23">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="str">
-        <v>Maintenance Info</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <v>Validasi PK Rules 1</v>
-      </c>
+      <c r="A3" s="3" t="e" cm="1" vm="1">
+        <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;""""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" s="3" t="e" cm="1" vm="1">
+        <f t="array" ref="B3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>317464646</v>
       </c>
@@ -11403,10 +8572,10 @@
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="K3" s="19">
         <v>45323</v>
@@ -11425,18 +8594,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="str">
-        <v>TC-037</v>
-      </c>
-      <c r="B4" s="3">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="str">
-        <v>Maintenance Info</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <v>Validasi PK Rules 2</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="14">
         <v>317660050</v>
       </c>
@@ -11444,10 +8605,10 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="K4" s="19">
         <v>45323</v>
@@ -11466,18 +8627,10 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="str">
-        <v>TC-039</v>
-      </c>
-      <c r="B5" s="3">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <v>Maintenance Info</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <v>Validasi PK Rules 3</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="14">
         <v>317672066</v>
       </c>
@@ -11485,10 +8638,10 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="K5" s="19">
         <v>45323</v>
@@ -11507,18 +8660,10 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="str">
-        <v>TC-041</v>
-      </c>
-      <c r="B6" s="3">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="str">
-        <v>Maintenance Info</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <v>Validasi PK Rules 3 - Tanggal PK saja yang diisi</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="14">
         <v>317672099</v>
       </c>
@@ -11544,18 +8689,10 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="str">
-        <v>TC-043</v>
-      </c>
-      <c r="B7" s="3">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="str">
-        <v>Maintenance Info</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <v>Validasi PK Rules 4 isi 1 field - Rek Rules 1 - No PK akhir di isi sama</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="3">
         <v>1000632953</v>
       </c>
@@ -11564,7 +8701,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -11579,18 +8716,10 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="str">
-        <v>TC-044</v>
-      </c>
-      <c r="B8" s="3">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="str">
-        <v>Maintenance Info</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <v>Validasi PK Rules 4 isi 1 field - Rek Rules 1 - No PK sama di isi sama</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3">
         <v>1000632975</v>
       </c>
@@ -11598,25 +8727,17 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="6" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="str">
-        <v>TC-045</v>
-      </c>
-      <c r="B9" s="3">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <v>Maintenance Info</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <v>Validasi PK Rules 4 isi 1 field - Rek Rules 1 - Tanggal PK awal di isi sama</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>1000632986</v>
       </c>
@@ -11631,18 +8752,10 @@
       <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="str">
-        <v>TC-046</v>
-      </c>
-      <c r="B10" s="3">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="str">
-        <v>Maintenance Info</v>
-      </c>
-      <c r="D10" s="3" t="str">
-        <v>Validasi PK Rules 4 isi 1 field - Rek Rules 1 - Tanggal PK akhir di isi sama</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="3">
         <v>1000634086</v>
       </c>
@@ -11657,18 +8770,10 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="str">
-        <v>TC-051</v>
-      </c>
-      <c r="B11" s="3">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="str">
-        <v>Maintenance Info</v>
-      </c>
-      <c r="D11" s="3" t="str">
-        <v>Validasi PK Rules 4 isi 1 field - Rek Rules 2 - No PK akhir != No PK awal</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3">
         <v>1000881944</v>
       </c>
@@ -11677,7 +8782,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
@@ -11692,18 +8797,10 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="str">
-        <v>TC-052</v>
-      </c>
-      <c r="B12" s="3">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="str">
-        <v>Maintenance Info</v>
-      </c>
-      <c r="D12" s="3" t="str">
-        <v>Validasi PK Rules 4 isi 1 field - Rek Rules 2 - No PK awal != No PK akhir</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3">
         <v>1000881955</v>
       </c>
@@ -11711,7 +8808,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="24"/>
@@ -11727,18 +8824,10 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="str">
-        <v>TC-053</v>
-      </c>
-      <c r="B13" s="3">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3" t="str">
-        <v>Maintenance Info</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <v>Validasi PK Rules 4 isi 1 field - Rek Rules 2 - Tanggal PK awal != Tanggal PK akhir</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3">
         <v>1000882198</v>
       </c>
@@ -11762,18 +8851,10 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="str">
-        <v>TC-054</v>
-      </c>
-      <c r="B14" s="3">
-        <v>25</v>
-      </c>
-      <c r="C14" s="3" t="str">
-        <v>Maintenance Info</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <v>Validasi PK Rules 4 isi 1 field - Rek Rules 2 - Tanggal PK akhir != Tanggal PK awal</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3">
         <v>1000882201</v>
       </c>
@@ -11797,18 +8878,10 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="str">
-        <v>TC-094</v>
-      </c>
-      <c r="B15" s="3">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3" t="str">
-        <v>Maintenance Info</v>
-      </c>
-      <c r="D15" s="3" t="str">
-        <v>Normal - Menjalankan use case Maintenance informasi rekening pinjaman dengan status rekening Pending</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3">
         <v>1000544283</v>
       </c>
@@ -11816,10 +8889,10 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="K15" s="19">
         <v>45323</v>
@@ -11838,18 +8911,10 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="str">
-        <v>TC-096</v>
-      </c>
-      <c r="B16" s="3">
-        <v>32</v>
-      </c>
-      <c r="C16" s="3" t="str">
-        <v>Maintenance Info</v>
-      </c>
-      <c r="D16" s="3" t="str">
-        <v>Normal - Maintenance info - Fix rate date: terisi &amp; Interest rate: terisi</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3">
         <v>287437941</v>
       </c>
@@ -11857,10 +8922,10 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="K16" s="19">
         <v>45323</v>
@@ -11879,18 +8944,10 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="str">
-        <v>TC-097</v>
-      </c>
-      <c r="B17" s="3">
-        <v>33</v>
-      </c>
-      <c r="C17" s="3" t="str">
-        <v>Maintenance Info</v>
-      </c>
-      <c r="D17" s="3" t="str">
-        <v>Normal - Maintenance info - Fix rate date: 00/00/0000 &amp; Interest rate: 0.0000</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="3">
         <v>315342686</v>
       </c>
@@ -11898,10 +8955,10 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="K17" s="19">
         <v>45323</v>
@@ -11911,18 +8968,10 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="str">
-        <v>TC-098</v>
-      </c>
-      <c r="B18" s="3">
-        <v>34</v>
-      </c>
-      <c r="C18" s="3" t="str">
-        <v>Maintenance Info</v>
-      </c>
-      <c r="D18" s="3" t="str">
-        <v>Normal - Maintenance info - Fix rate date: terisi &amp; Interest rate: 0.0000</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3">
         <v>317711880</v>
       </c>
@@ -11930,10 +8979,10 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="K18" s="19">
         <v>45323</v>
@@ -11943,18 +8992,10 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="str">
-        <v>TC-099</v>
-      </c>
-      <c r="B19" s="3">
-        <v>35</v>
-      </c>
-      <c r="C19" s="3" t="str">
-        <v>Maintenance Info</v>
-      </c>
-      <c r="D19" s="3" t="str">
-        <v>Normal - Maintenance info - Fix rate date: 00/00/0000 &amp; Interest rate: terisi</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3">
         <v>1000725699</v>
       </c>
@@ -11962,10 +9003,10 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="K19" s="19">
         <v>45323</v>
@@ -11975,18 +9016,10 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="str">
-        <v>TC-100</v>
-      </c>
-      <c r="B20" s="3">
-        <v>36</v>
-      </c>
-      <c r="C20" s="3" t="str">
-        <v>Maintenance Info</v>
-      </c>
-      <c r="D20" s="3" t="str">
-        <v>Normal - Maintenance info - Fix rate date: 2099 &amp; Interest rate: terisi</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3">
         <v>1001079370</v>
       </c>
@@ -11994,10 +9027,10 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="K20" s="19">
         <v>45323</v>
@@ -12007,18 +9040,10 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="str">
-        <v>TC-101</v>
-      </c>
-      <c r="B21" s="3">
-        <v>37</v>
-      </c>
-      <c r="C21" s="3" t="str">
-        <v>Maintenance Info</v>
-      </c>
-      <c r="D21" s="3" t="str">
-        <v>Normal - Maintenance info - Fix rate date &lt; tgl system &amp; Interest rate: terisi</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="3">
         <v>253011491</v>
       </c>
@@ -12026,10 +9051,10 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="K21" s="19">
         <v>45323</v>
@@ -12039,18 +9064,10 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="str">
-        <v>TC-059</v>
-      </c>
-      <c r="B22" s="3">
-        <v>62</v>
-      </c>
-      <c r="C22" s="3" t="str">
-        <v>Maintenance Info</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="3">
         <v>317464646</v>
       </c>
@@ -12058,10 +9075,10 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="6" t="s">
-        <v>452</v>
+        <v>305</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>452</v>
+        <v>305</v>
       </c>
       <c r="K22" s="19">
         <v>45323</v>
@@ -12071,18 +9088,10 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="str">
-        <v>TC-060</v>
-      </c>
-      <c r="B23" s="3">
-        <v>63</v>
-      </c>
-      <c r="C23" s="3" t="str">
-        <v>Maintenance Info</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="14">
         <v>317660050</v>
       </c>
@@ -12090,10 +9099,10 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="6" t="s">
-        <v>450</v>
+        <v>303</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>451</v>
+        <v>304</v>
       </c>
       <c r="K23" s="19">
         <v>45323</v>
@@ -12123,7 +9132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570D8653-5A3D-4C31-A9C8-843719706B5C}">
   <dimension ref="A1:X16"/>
   <sheetViews>
@@ -12207,20 +9216,16 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="str" cm="1">
-        <f t="array" ref="A3:A4">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;""""))</f>
-        <v>TC-061</v>
-      </c>
-      <c r="B3" s="3" cm="1">
-        <f t="array" ref="B3:D4">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="str">
-        <v>Restrukturisasi Rek</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <v>Restrukturisasi Rekening - Normal - Input form</v>
-      </c>
+      <c r="A3" s="3" t="e" cm="1" vm="1">
+        <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;""""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" s="3" t="e" cm="1" vm="1">
+        <f t="array" ref="B3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="19">
         <v>45689</v>
       </c>
@@ -12262,18 +9267,10 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="str">
-        <v>TC-069</v>
-      </c>
-      <c r="B4" s="3">
-        <v>58</v>
-      </c>
-      <c r="C4" s="3" t="str">
-        <v>Restrukturisasi Rek</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <v>Normal - Restrukturisasi Rekening - Input Excel</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="19"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -12469,7 +9466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDECCE7E-6CCB-49CF-B9BE-26D9732D6A27}">
   <dimension ref="A1:P22"/>
   <sheetViews>
@@ -12530,25 +9527,21 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="str" cm="1">
-        <f t="array" ref="A3:A8">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;""""))</f>
-        <v>TC-091</v>
-      </c>
-      <c r="B3" s="3" cm="1">
-        <f t="array" ref="B3:D8">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
-        <v>27</v>
-      </c>
-      <c r="C3" s="3" t="str">
-        <v>Pemindahbukuan</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <v>Normal - Pemindahbukuan dana GL-GL</v>
-      </c>
+      <c r="A3" s="3" t="e" cm="1" vm="1">
+        <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;""""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" s="3" t="e" cm="1" vm="1">
+        <f t="array" ref="B3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="6" t="s">
         <v>225</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="G3" s="10">
         <v>1100000000000</v>
@@ -12562,18 +9555,10 @@
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="str">
-        <v>TC-092</v>
-      </c>
-      <c r="B4" s="3">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3" t="str">
-        <v>Pemindahbukuan</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <v>Normal - Pemindahbukuan dana interbranch GL-GL</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="6" t="s">
         <v>225</v>
       </c>
@@ -12590,18 +9575,10 @@
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="str">
-        <v>TC-108</v>
-      </c>
-      <c r="B5" s="3">
-        <v>44</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <v>Pemindahbukuan</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <v>Normal - Pemindahbukuan rekening - Simpanan ke Simpanan &gt; 1T</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="3">
         <v>1000007939</v>
       </c>
@@ -12622,18 +9599,10 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="str">
-        <v>TC-109</v>
-      </c>
-      <c r="B6" s="3">
-        <v>45</v>
-      </c>
-      <c r="C6" s="3" t="str">
-        <v>Pemindahbukuan</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <v>Normal - Pemindahbukuan rekening - Pinjaman ke Pinjaman &gt; 1T</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="4">
         <v>1000810133</v>
       </c>
@@ -12654,18 +9623,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="str">
-        <v>TC-110</v>
-      </c>
-      <c r="B7" s="3">
-        <v>46</v>
-      </c>
-      <c r="C7" s="3" t="str">
-        <v>Pemindahbukuan</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <v>Normal - Pemindahbukuan rekening - Pinjaman ke Simpanan &gt; 1T</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="4">
         <v>1000810348</v>
       </c>
@@ -12686,18 +9647,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="str">
-        <v>TC-111</v>
-      </c>
-      <c r="B8" s="3">
-        <v>47</v>
-      </c>
-      <c r="C8" s="3" t="str">
-        <v>Pemindahbukuan</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <v>Normal - Pemindahbukuan rekening - Simpanan ke Pinjaman &gt; 1T</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="4">
         <v>1000007928</v>
       </c>
@@ -12979,161 +9932,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7F4889-46AF-4808-B06F-ACED5C6C53AF}">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="str" cm="1">
-        <f t="array" ref="A3:A4">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;""""))</f>
-        <v>TC-095</v>
-      </c>
-      <c r="B3" s="3" cm="1">
-        <f t="array" ref="B3:D4">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="str">
-        <v>Bucket Adjusment</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <v>Normal - Menjalankan use case Bucket Adjusment dengan status rekening Pending</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1000544283</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="10">
-        <v>200000</v>
-      </c>
-      <c r="H3" s="10">
-        <v>200000</v>
-      </c>
-      <c r="I3" s="10">
-        <v>200000</v>
-      </c>
-      <c r="J3" s="10">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="str">
-        <v>TC-115</v>
-      </c>
-      <c r="B4" s="3">
-        <v>51</v>
-      </c>
-      <c r="C4" s="3" t="str">
-        <v>Bucket Adjusment</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <v>Normal - Bucket Adjustment - Transaksi 1T</v>
-      </c>
-      <c r="E4">
-        <v>1000810348</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10">
-        <v>-2100000000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1D68C1F8-ABFC-40E1-A4B5-14A9F0EF6A32}">
-          <x14:formula1>
-            <xm:f>Var!$B$13:$B$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>A1</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Data Files/LisSkenarioBaru.xlsx
+++ b/Data Files/LisSkenarioBaru.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon\ASIC\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA10866-D7B1-4A20-AFDE-61AE61A4A9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEB53AE-F4F3-48A3-9F18-333E72BF8732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="793" activeTab="1" xr2:uid="{757C07E9-73FD-4EAE-8969-0533CFDE11EA}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Approval" sheetId="3" r:id="rId3"/>
     <sheet name="Var" sheetId="4" r:id="rId4"/>
     <sheet name="Documentation" sheetId="17" r:id="rId5"/>
-    <sheet name="Act Maintenance Rek" sheetId="15" r:id="rId6"/>
-    <sheet name="Act Maintenance Info" sheetId="16" r:id="rId7"/>
-    <sheet name="Act Restrukturisasi Rek" sheetId="12" r:id="rId8"/>
-    <sheet name="Act Pemindahbukuan" sheetId="5" r:id="rId9"/>
-    <sheet name="Act Bucket Adjusment" sheetId="11" r:id="rId10"/>
-    <sheet name="Act Pembukaan Rek" sheetId="8" r:id="rId11"/>
-    <sheet name="Act Blokir Rek" sheetId="9" r:id="rId12"/>
-    <sheet name="Act Asuransi" sheetId="14" r:id="rId13"/>
+    <sheet name="Act Bucket Adjusment" sheetId="11" r:id="rId6"/>
+    <sheet name="Act Asuransi" sheetId="14" r:id="rId7"/>
+    <sheet name="Act Maintenance Rek" sheetId="15" r:id="rId8"/>
+    <sheet name="Act Maintenance Info" sheetId="16" r:id="rId9"/>
+    <sheet name="Act Restrukturisasi Rek" sheetId="12" r:id="rId10"/>
+    <sheet name="Act Pemindahbukuan" sheetId="5" r:id="rId11"/>
+    <sheet name="Act Pembukaan Rek" sheetId="8" r:id="rId12"/>
+    <sheet name="Act Blokir Rek" sheetId="9" r:id="rId13"/>
     <sheet name="Act Pending Rekening" sheetId="13" r:id="rId14"/>
     <sheet name="Act Penutupan Rek" sheetId="10" r:id="rId15"/>
   </sheets>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="345">
   <si>
     <t>NoTC</t>
   </si>
@@ -595,12 +595,6 @@
     <t>15,0</t>
   </si>
   <si>
-    <t>an komersial</t>
-  </si>
-  <si>
-    <t>12303011</t>
-  </si>
-  <si>
     <t>01/06/2016</t>
   </si>
   <si>
@@ -895,9 +889,6 @@
     <t>Input form Perpanjangan Sementara</t>
   </si>
   <si>
-    <t>TC-001</t>
-  </si>
-  <si>
     <t>ASIC/1234</t>
   </si>
   <si>
@@ -919,9 +910,6 @@
     <t>001360180001001</t>
   </si>
   <si>
-    <t>Normal - Maintenance Rekening - Input form Perpanjangan Sementara</t>
-  </si>
-  <si>
     <t>Teoritis</t>
   </si>
   <si>
@@ -1013,6 +1001,132 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>BulkUpload</t>
+  </si>
+  <si>
+    <t>ExcelFilename</t>
+  </si>
+  <si>
+    <t>TC-004 MaintenanceRekeningPinjaman.xlsx</t>
+  </si>
+  <si>
+    <t>Bulk Upload</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>TC-069 RestrukturisasiRekening.xlsx</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>MaintenanceRekeningPinjaman (5).xlsx</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>A003</t>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>ApprovalId</t>
+  </si>
+  <si>
+    <t>SS001</t>
+  </si>
+  <si>
+    <t>Single Side Pinbuk</t>
+  </si>
+  <si>
+    <t>A005</t>
+  </si>
+  <si>
+    <t>Asuransi Single Side</t>
+  </si>
+  <si>
+    <t>Col 5</t>
+  </si>
+  <si>
+    <t>10062025001</t>
+  </si>
+  <si>
+    <t>Col 1</t>
+  </si>
+  <si>
+    <t>10062025002</t>
+  </si>
+  <si>
+    <t>10062025003</t>
+  </si>
+  <si>
+    <t>10062025004</t>
+  </si>
+  <si>
+    <t>Col 2</t>
+  </si>
+  <si>
+    <t>Col 1 dengan restruk</t>
+  </si>
+  <si>
+    <t>Rekening WORST COLLECTIBILITY = 1, Kode Restruk Blank</t>
+  </si>
+  <si>
+    <t>Rekening WORST COLLECTIBILITY = 2, Kode Restruk Blank</t>
+  </si>
+  <si>
+    <t>Rekening WORST COLLECTIBILITY = 1, Kode Restruk 8</t>
+  </si>
+  <si>
+    <t>Rekening WORST COLLECTIBILITY = 2, Kode Restruk 8</t>
+  </si>
+  <si>
+    <t>Rekening WORST COLLECTIBILITY = 1, Kode Restruk Selain Blank dan 8</t>
+  </si>
+  <si>
+    <t>Rekening WORST COLLECTIBILITY = 2, Kode Restruk Selain Blank dan 8</t>
+  </si>
+  <si>
+    <t>Rekening WORST COLLECTIBILITY = 3, Kode Restruk Blank</t>
+  </si>
+  <si>
+    <t>Rekening WORST COLLECTIBILITY = 4, Kode Restruk Blank</t>
+  </si>
+  <si>
+    <t>Rekening WORST COLLECTIBILITY = 5, Kode Restruk Blank</t>
+  </si>
+  <si>
+    <t>Rekening WORST COLLECTIBILITY = 3, Kode Restruk 8</t>
+  </si>
+  <si>
+    <t>Rekening WORST COLLECTIBILITY = 4, Kode Restruk 8</t>
+  </si>
+  <si>
+    <t>Rekening WORST COLLECTIBILITY = 5, Kode Restruk 8</t>
+  </si>
+  <si>
+    <t>Rekening WORST COLLECTIBILITY = 3, Kode Restruk Selain Blank dan 8</t>
+  </si>
+  <si>
+    <t>Rekening WORST COLLECTIBILITY = 4, Kode Restruk Selain Blank dan 8</t>
+  </si>
+  <si>
+    <t>Rekening WORST COLLECTIBILITY = 5, Kode Restruk Selain Blank dan 8</t>
+  </si>
+  <si>
+    <t>Bucket Single Side</t>
+  </si>
+  <si>
+    <t>A007</t>
   </si>
 </sst>
 </file>
@@ -1069,6 +1183,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1115,7 +1230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1171,22 +1286,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1260,17 +1364,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1701,10 +1802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BD990D-F751-4EA0-817F-5AB9F99CF85E}">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1713,7 +1814,7 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="97" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
@@ -1721,10 +1822,11 @@
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="45" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1762,31 +1864,32 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="B2" s="7" t="str">
-        <f t="shared" ref="B2:B38" si="0">CONCATENATE(A2,"-","01")</f>
-        <v>TC-001-01</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>306</v>
-      </c>
+        <f t="shared" ref="B2:B3" si="0">CONCATENATE(A2,"-","01")</f>
+        <v>A001-01</v>
+      </c>
+      <c r="C2" s="31"/>
       <c r="D2" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="F2" s="7">
         <v>11353</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H2" s="7">
         <v>16001</v>
@@ -1795,128 +1898,275 @@
         <v>52</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M2" s="20">
+      <c r="M2" s="7"/>
+      <c r="N2" s="20">
         <f>IF(A2&lt;&gt;"",COUNTIF(Activity!A:A,A2),"")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>A002-01</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F3" s="7">
+        <v>11353</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" s="7">
+        <v>16001</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="20">
+        <f>IF(A3&lt;&gt;"",COUNTIF(Activity!A:A,A3),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="20" t="str">
-        <f>IF(A3&lt;&gt;"",COUNTIF(Activity!A:A,A3),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="7"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" s="7" t="str">
+        <f t="shared" ref="B4" si="1">CONCATENATE(A4,"-","01")</f>
+        <v>A003-01</v>
+      </c>
       <c r="C4" s="31"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="20" t="str">
+      <c r="D4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F4" s="7">
+        <v>11353</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="7">
+        <v>16001</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="20">
         <f>IF(A4&lt;&gt;"",COUNTIF(Activity!A:A,A4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" s="7" t="str">
+        <f t="shared" ref="B5:B7" si="2">CONCATENATE(A5,"-","01")</f>
+        <v>A004-01</v>
+      </c>
       <c r="C5" s="31"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="20" t="str">
+      <c r="D5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F5" s="7">
+        <v>11353</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="7">
+        <v>16001</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="20">
         <f>IF(A5&lt;&gt;"",COUNTIF(Activity!A:A,A5),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>SS001-01</v>
+      </c>
       <c r="C6" s="31"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="20" t="str">
+      <c r="D6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" s="7">
+        <v>11353</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="7">
+        <v>16001</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="20">
         <f>IF(A6&lt;&gt;"",COUNTIF(Activity!A:A,A6),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>A005-01</v>
+      </c>
       <c r="C7" s="31"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="20" t="str">
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F7" s="7">
+        <v>11353</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="7">
+        <v>16001</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="20">
         <f>IF(A7&lt;&gt;"",COUNTIF(Activity!A:A,A7),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="20" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" s="7" t="str">
+        <f t="shared" ref="B8" si="3">CONCATENATE(A8,"-","01")</f>
+        <v>A007-01</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F8" s="7">
+        <v>11353</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="7">
+        <v>16001</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="20">
         <f>IF(A8&lt;&gt;"",COUNTIF(Activity!A:A,A8),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="27"/>
       <c r="B9" s="7"/>
       <c r="C9" s="31"/>
@@ -1929,12 +2179,13 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="20" t="str">
+      <c r="M9" s="7"/>
+      <c r="N9" s="20" t="str">
         <f>IF(A9&lt;&gt;"",COUNTIF(Activity!A:A,A9),"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
       <c r="B10" s="7"/>
       <c r="C10" s="31"/>
@@ -1947,12 +2198,13 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="20" t="str">
+      <c r="M10" s="7"/>
+      <c r="N10" s="20" t="str">
         <f>IF(A10&lt;&gt;"",COUNTIF(Activity!A:A,A10),"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="27"/>
       <c r="B11" s="7"/>
       <c r="C11" s="31"/>
@@ -1965,12 +2217,13 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="20" t="str">
+      <c r="M11" s="7"/>
+      <c r="N11" s="20" t="str">
         <f>IF(A11&lt;&gt;"",COUNTIF(Activity!A:A,A11),"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="7"/>
       <c r="C12" s="31"/>
@@ -1983,12 +2236,13 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="20" t="str">
+      <c r="M12" s="7"/>
+      <c r="N12" s="20" t="str">
         <f>IF(A12&lt;&gt;"",COUNTIF(Activity!A:A,A12),"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
       <c r="B13" s="7"/>
       <c r="C13" s="31"/>
@@ -2001,12 +2255,13 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="20" t="str">
+      <c r="M13" s="7"/>
+      <c r="N13" s="20" t="str">
         <f>IF(A13&lt;&gt;"",COUNTIF(Activity!A:A,A13),"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
       <c r="B14" s="7"/>
       <c r="C14" s="31"/>
@@ -2019,12 +2274,13 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="20" t="str">
+      <c r="M14" s="7"/>
+      <c r="N14" s="20" t="str">
         <f>IF(A14&lt;&gt;"",COUNTIF(Activity!A:A,A14),"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="7"/>
       <c r="C15" s="31"/>
@@ -2037,12 +2293,13 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="20" t="str">
+      <c r="M15" s="7"/>
+      <c r="N15" s="20" t="str">
         <f>IF(A15&lt;&gt;"",COUNTIF(Activity!A:A,A15),"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="7"/>
       <c r="C16" s="31"/>
@@ -2055,12 +2312,13 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="20" t="str">
+      <c r="M16" s="7"/>
+      <c r="N16" s="20" t="str">
         <f>IF(A16&lt;&gt;"",COUNTIF(Activity!A:A,A16),"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="7"/>
       <c r="C17" s="31"/>
@@ -2073,12 +2331,13 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="20" t="str">
+      <c r="M17" s="7"/>
+      <c r="N17" s="20" t="str">
         <f>IF(A17&lt;&gt;"",COUNTIF(Activity!A:A,A17),"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="7"/>
       <c r="C18" s="31"/>
@@ -2091,12 +2350,13 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="20" t="str">
+      <c r="M18" s="7"/>
+      <c r="N18" s="20" t="str">
         <f>IF(A18&lt;&gt;"",COUNTIF(Activity!A:A,A18),"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="28"/>
       <c r="B19" s="7"/>
       <c r="C19" s="31"/>
@@ -2109,12 +2369,13 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="20" t="str">
+      <c r="M19" s="7"/>
+      <c r="N19" s="20" t="str">
         <f>IF(A19&lt;&gt;"",COUNTIF(Activity!A:A,A19),"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="28"/>
       <c r="B20" s="7"/>
       <c r="C20" s="31"/>
@@ -2127,12 +2388,13 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="20" t="str">
+      <c r="M20" s="7"/>
+      <c r="N20" s="20" t="str">
         <f>IF(A20&lt;&gt;"",COUNTIF(Activity!A:A,A20),"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="28"/>
       <c r="B21" s="7"/>
       <c r="C21" s="31"/>
@@ -2145,12 +2407,13 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="20" t="str">
+      <c r="M21" s="7"/>
+      <c r="N21" s="20" t="str">
         <f>IF(A21&lt;&gt;"",COUNTIF(Activity!A:A,A21),"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="28"/>
       <c r="B22" s="7"/>
       <c r="C22" s="31"/>
@@ -2163,12 +2426,13 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="20" t="str">
+      <c r="M22" s="7"/>
+      <c r="N22" s="20" t="str">
         <f>IF(A22&lt;&gt;"",COUNTIF(Activity!A:A,A22),"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="28"/>
       <c r="B23" s="7"/>
       <c r="C23" s="31"/>
@@ -2181,12 +2445,13 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="20" t="str">
+      <c r="M23" s="7"/>
+      <c r="N23" s="20" t="str">
         <f>IF(A23&lt;&gt;"",COUNTIF(Activity!A:A,A23),"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="28"/>
       <c r="B24" s="7"/>
       <c r="C24" s="31"/>
@@ -2199,12 +2464,13 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="20" t="str">
+      <c r="M24" s="7"/>
+      <c r="N24" s="20" t="str">
         <f>IF(A24&lt;&gt;"",COUNTIF(Activity!A:A,A24),"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="28"/>
       <c r="B25" s="7"/>
       <c r="C25" s="31"/>
@@ -2217,12 +2483,13 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="20" t="str">
+      <c r="M25" s="7"/>
+      <c r="N25" s="20" t="str">
         <f>IF(A25&lt;&gt;"",COUNTIF(Activity!A:A,A25),"")</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="28"/>
       <c r="B26" s="7"/>
       <c r="C26" s="31"/>
@@ -2235,12 +2502,13 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="20" t="str">
+      <c r="M26" s="7"/>
+      <c r="N26" s="20" t="str">
         <f>IF(A26&lt;&gt;"",COUNTIF(Activity!A:A,A26),"")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
       <c r="B27" s="7"/>
       <c r="C27" s="31"/>
@@ -2253,12 +2521,13 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="20" t="str">
+      <c r="M27" s="7"/>
+      <c r="N27" s="20" t="str">
         <f>IF(A27&lt;&gt;"",COUNTIF(Activity!A:A,A27),"")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
       <c r="B28" s="7"/>
       <c r="C28" s="31"/>
@@ -2271,12 +2540,13 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="20" t="str">
+      <c r="M28" s="7"/>
+      <c r="N28" s="20" t="str">
         <f>IF(A28&lt;&gt;"",COUNTIF(Activity!A:A,A28),"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
       <c r="B29" s="7"/>
       <c r="C29" s="31"/>
@@ -2289,12 +2559,13 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="20" t="str">
+      <c r="M29" s="7"/>
+      <c r="N29" s="20" t="str">
         <f>IF(A29&lt;&gt;"",COUNTIF(Activity!A:A,A29),"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="25"/>
       <c r="B30" s="7"/>
       <c r="C30" s="31"/>
@@ -2307,12 +2578,13 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="20" t="str">
+      <c r="M30" s="7"/>
+      <c r="N30" s="20" t="str">
         <f>IF(A30&lt;&gt;"",COUNTIF(Activity!A:A,A30),"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="25"/>
       <c r="B31" s="7"/>
       <c r="C31" s="31"/>
@@ -2325,12 +2597,13 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="20" t="str">
+      <c r="M31" s="7"/>
+      <c r="N31" s="20" t="str">
         <f>IF(A31&lt;&gt;"",COUNTIF(Activity!A:A,A31),"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
       <c r="B32" s="7"/>
       <c r="C32" s="31"/>
@@ -2343,12 +2616,13 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="20" t="str">
+      <c r="M32" s="7"/>
+      <c r="N32" s="20" t="str">
         <f>IF(A32&lt;&gt;"",COUNTIF(Activity!A:A,A32),"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="7"/>
       <c r="C33" s="31"/>
@@ -2361,12 +2635,13 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="20" t="str">
+      <c r="M33" s="7"/>
+      <c r="N33" s="20" t="str">
         <f>IF(A33&lt;&gt;"",COUNTIF(Activity!A:A,A33),"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
       <c r="B34" s="7"/>
       <c r="C34" s="31"/>
@@ -2379,12 +2654,13 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="20" t="str">
+      <c r="M34" s="7"/>
+      <c r="N34" s="20" t="str">
         <f>IF(A34&lt;&gt;"",COUNTIF(Activity!A:A,A34),"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
       <c r="B35" s="7"/>
       <c r="C35" s="31"/>
@@ -2397,12 +2673,13 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="20" t="str">
+      <c r="M35" s="7"/>
+      <c r="N35" s="20" t="str">
         <f>IF(A35&lt;&gt;"",COUNTIF(Activity!A:A,A35),"")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
       <c r="B36" s="7"/>
       <c r="C36" s="31"/>
@@ -2415,12 +2692,13 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
-      <c r="M36" s="20" t="str">
+      <c r="M36" s="7"/>
+      <c r="N36" s="20" t="str">
         <f>IF(A36&lt;&gt;"",COUNTIF(Activity!A:A,A36),"")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="30"/>
       <c r="B37" s="7"/>
       <c r="C37" s="31"/>
@@ -2433,12 +2711,13 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="20" t="str">
+      <c r="M37" s="7"/>
+      <c r="N37" s="20" t="str">
         <f>IF(A37&lt;&gt;"",COUNTIF(Activity!A:A,A37),"")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="30"/>
       <c r="B38" s="7"/>
       <c r="C38" s="31"/>
@@ -2451,12 +2730,13 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
-      <c r="M38" s="20" t="str">
+      <c r="M38" s="7"/>
+      <c r="N38" s="20" t="str">
         <f>IF(A38&lt;&gt;"",COUNTIF(Activity!A:A,A38),"")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="30"/>
       <c r="B39" s="7"/>
       <c r="C39" s="31"/>
@@ -2469,12 +2749,13 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
-      <c r="M39" s="20" t="str">
+      <c r="M39" s="7"/>
+      <c r="N39" s="20" t="str">
         <f>IF(A39&lt;&gt;"",COUNTIF(Activity!A:A,A39),"")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="30"/>
       <c r="B40" s="7"/>
       <c r="C40" s="31"/>
@@ -2487,12 +2768,13 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
-      <c r="M40" s="20" t="str">
+      <c r="M40" s="7"/>
+      <c r="N40" s="20" t="str">
         <f>IF(A40&lt;&gt;"",COUNTIF(Activity!A:A,A40),"")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="30"/>
       <c r="B41" s="7"/>
       <c r="C41" s="31"/>
@@ -2505,12 +2787,13 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
-      <c r="M41" s="20" t="str">
+      <c r="M41" s="7"/>
+      <c r="N41" s="20" t="str">
         <f>IF(A41&lt;&gt;"",COUNTIF(Activity!A:A,A41),"")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="30"/>
       <c r="B42" s="7"/>
       <c r="C42" s="31"/>
@@ -2523,12 +2806,13 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
-      <c r="M42" s="20" t="str">
+      <c r="M42" s="7"/>
+      <c r="N42" s="20" t="str">
         <f>IF(A42&lt;&gt;"",COUNTIF(Activity!A:A,A42),"")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="30"/>
       <c r="B43" s="7"/>
       <c r="C43" s="31"/>
@@ -2541,12 +2825,13 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
-      <c r="M43" s="20" t="str">
+      <c r="M43" s="7"/>
+      <c r="N43" s="20" t="str">
         <f>IF(A43&lt;&gt;"",COUNTIF(Activity!A:A,A43),"")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="30"/>
       <c r="B44" s="7"/>
       <c r="C44" s="31"/>
@@ -2559,12 +2844,13 @@
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
-      <c r="M44" s="20" t="str">
+      <c r="M44" s="7"/>
+      <c r="N44" s="20" t="str">
         <f>IF(A44&lt;&gt;"",COUNTIF(Activity!A:A,A44),"")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="30"/>
       <c r="B45" s="7"/>
       <c r="C45" s="31"/>
@@ -2577,12 +2863,13 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
-      <c r="M45" s="20" t="str">
+      <c r="M45" s="7"/>
+      <c r="N45" s="20" t="str">
         <f>IF(A45&lt;&gt;"",COUNTIF(Activity!A:A,A45),"")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="30"/>
       <c r="B46" s="7"/>
       <c r="C46" s="31"/>
@@ -2595,12 +2882,13 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
-      <c r="M46" s="20" t="str">
+      <c r="M46" s="7"/>
+      <c r="N46" s="20" t="str">
         <f>IF(A46&lt;&gt;"",COUNTIF(Activity!A:A,A46),"")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="30"/>
       <c r="B47" s="7"/>
       <c r="C47" s="31"/>
@@ -2613,12 +2901,13 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
-      <c r="M47" s="20" t="str">
+      <c r="M47" s="7"/>
+      <c r="N47" s="20" t="str">
         <f>IF(A47&lt;&gt;"",COUNTIF(Activity!A:A,A47),"")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="30"/>
       <c r="B48" s="7"/>
       <c r="C48" s="31"/>
@@ -2631,12 +2920,13 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
-      <c r="M48" s="20" t="str">
+      <c r="M48" s="7"/>
+      <c r="N48" s="20" t="str">
         <f>IF(A48&lt;&gt;"",COUNTIF(Activity!A:A,A48),"")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="30"/>
       <c r="B49" s="7"/>
       <c r="C49" s="31"/>
@@ -2649,12 +2939,13 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
-      <c r="M49" s="20" t="str">
+      <c r="M49" s="7"/>
+      <c r="N49" s="20" t="str">
         <f>IF(A49&lt;&gt;"",COUNTIF(Activity!A:A,A49),"")</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="30"/>
       <c r="B50" s="7"/>
       <c r="C50" s="31"/>
@@ -2667,12 +2958,13 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
-      <c r="M50" s="20" t="str">
+      <c r="M50" s="7"/>
+      <c r="N50" s="20" t="str">
         <f>IF(A50&lt;&gt;"",COUNTIF(Activity!A:A,A50),"")</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="30"/>
       <c r="B51" s="7"/>
       <c r="C51" s="31"/>
@@ -2685,12 +2977,13 @@
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
-      <c r="M51" s="20" t="str">
+      <c r="M51" s="7"/>
+      <c r="N51" s="20" t="str">
         <f>IF(A51&lt;&gt;"",COUNTIF(Activity!A:A,A51),"")</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="30"/>
       <c r="B52" s="7"/>
       <c r="C52" s="31"/>
@@ -2703,12 +2996,13 @@
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
-      <c r="M52" s="20" t="str">
+      <c r="M52" s="7"/>
+      <c r="N52" s="20" t="str">
         <f>IF(A52&lt;&gt;"",COUNTIF(Activity!A:A,A52),"")</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="25"/>
       <c r="B53" s="7"/>
       <c r="C53" s="31"/>
@@ -2721,12 +3015,13 @@
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
-      <c r="M53" s="20" t="str">
+      <c r="M53" s="7"/>
+      <c r="N53" s="20" t="str">
         <f>IF(A53&lt;&gt;"",COUNTIF(Activity!A:A,A53),"")</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="25"/>
       <c r="B54" s="7"/>
       <c r="C54" s="31"/>
@@ -2739,12 +3034,13 @@
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
-      <c r="M54" s="20" t="str">
+      <c r="M54" s="7"/>
+      <c r="N54" s="20" t="str">
         <f>IF(A54&lt;&gt;"",COUNTIF(Activity!A:A,A54),"")</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="25"/>
       <c r="B55" s="7"/>
       <c r="C55" s="31"/>
@@ -2757,12 +3053,13 @@
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
-      <c r="M55" s="20" t="str">
+      <c r="M55" s="7"/>
+      <c r="N55" s="20" t="str">
         <f>IF(A55&lt;&gt;"",COUNTIF(Activity!A:A,A55),"")</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="7"/>
       <c r="C56" s="31"/>
@@ -2775,12 +3072,13 @@
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
-      <c r="M56" s="20" t="str">
+      <c r="M56" s="7"/>
+      <c r="N56" s="20" t="str">
         <f>IF(A56&lt;&gt;"",COUNTIF(Activity!A:A,A56),"")</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="25"/>
       <c r="B57" s="7"/>
       <c r="C57" s="31"/>
@@ -2793,12 +3091,13 @@
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
-      <c r="M57" s="20" t="str">
+      <c r="M57" s="7"/>
+      <c r="N57" s="20" t="str">
         <f>IF(A57&lt;&gt;"",COUNTIF(Activity!A:A,A57),"")</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="25"/>
       <c r="B58" s="7"/>
       <c r="C58" s="31"/>
@@ -2811,12 +3110,13 @@
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
-      <c r="M58" s="20" t="str">
+      <c r="M58" s="7"/>
+      <c r="N58" s="20" t="str">
         <f>IF(A58&lt;&gt;"",COUNTIF(Activity!A:A,A58),"")</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="25"/>
       <c r="B59" s="7"/>
       <c r="C59" s="31"/>
@@ -2829,12 +3129,13 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
-      <c r="M59" s="20" t="str">
+      <c r="M59" s="7"/>
+      <c r="N59" s="20" t="str">
         <f>IF(A59&lt;&gt;"",COUNTIF(Activity!A:A,A59),"")</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="25"/>
       <c r="B60" s="7"/>
       <c r="C60" s="31"/>
@@ -2847,12 +3148,13 @@
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
-      <c r="M60" s="20" t="str">
+      <c r="M60" s="7"/>
+      <c r="N60" s="20" t="str">
         <f>IF(A60&lt;&gt;"",COUNTIF(Activity!A:A,A60),"")</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="25"/>
       <c r="B61" s="7"/>
       <c r="C61" s="31"/>
@@ -2865,12 +3167,13 @@
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
-      <c r="M61" s="20" t="str">
+      <c r="M61" s="7"/>
+      <c r="N61" s="20" t="str">
         <f>IF(A61&lt;&gt;"",COUNTIF(Activity!A:A,A61),"")</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="25"/>
       <c r="B62" s="7"/>
       <c r="C62" s="31"/>
@@ -2883,12 +3186,13 @@
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
-      <c r="M62" s="20" t="str">
+      <c r="M62" s="7"/>
+      <c r="N62" s="20" t="str">
         <f>IF(A62&lt;&gt;"",COUNTIF(Activity!A:A,A62),"")</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="25"/>
       <c r="B63" s="7"/>
       <c r="C63" s="31"/>
@@ -2901,12 +3205,13 @@
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
-      <c r="M63" s="20" t="str">
+      <c r="M63" s="7"/>
+      <c r="N63" s="20" t="str">
         <f>IF(A63&lt;&gt;"",COUNTIF(Activity!A:A,A63),"")</f>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="25"/>
       <c r="B64" s="7"/>
       <c r="C64" s="31"/>
@@ -2919,12 +3224,13 @@
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
-      <c r="M64" s="20" t="str">
+      <c r="M64" s="7"/>
+      <c r="N64" s="20" t="str">
         <f>IF(A64&lt;&gt;"",COUNTIF(Activity!A:A,A64),"")</f>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="25"/>
       <c r="B65" s="7"/>
       <c r="C65" s="31"/>
@@ -2937,7 +3243,8 @@
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
-      <c r="M65" s="20" t="str">
+      <c r="M65" s="7"/>
+      <c r="N65" s="20" t="str">
         <f>IF(A65&lt;&gt;"",COUNTIF(Activity!A:A,A65),"")</f>
         <v/>
       </c>
@@ -2963,42 +3270,48 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7F4889-46AF-4808-B06F-ACED5C6C53AF}">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570D8653-5A3D-4C31-A9C8-843719706B5C}">
+  <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="6" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" customWidth="1"/>
+    <col min="20" max="20" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:24" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -3012,90 +3325,273 @@
         <v>129</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>148</v>
-      </c>
       <c r="J2" s="13" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="e" cm="1" vm="1">
-        <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;""""))</f>
+        <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;"""")*(Activity!G:G&lt;&gt;"Y")*(Activity!G:G&lt;&gt;"Y"))</f>
         <v>#VALUE!</v>
       </c>
       <c r="B3" s="3" t="e" cm="1" vm="1">
-        <f t="array" ref="B3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
+        <f t="array" ref="B3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!G:G&lt;&gt;"Y"))</f>
         <v>#VALUE!</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3">
-        <v>1000544283</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="10">
-        <v>200000</v>
-      </c>
-      <c r="H3" s="10">
-        <v>200000</v>
-      </c>
-      <c r="I3" s="10">
-        <v>200000</v>
-      </c>
-      <c r="J3" s="10">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E3" s="19">
+        <v>45689</v>
+      </c>
+      <c r="F3" s="3">
+        <v>333</v>
+      </c>
+      <c r="G3" s="3">
+        <v>11222</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" s="3">
+        <v>167971381</v>
+      </c>
+      <c r="J3" s="3">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="W3" t="s">
+        <v>206</v>
+      </c>
+      <c r="X3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4">
-        <v>1000810348</v>
-      </c>
+      <c r="E4" s="19"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10">
-        <v>-2100000000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="T4" s="3">
+        <v>7</v>
+      </c>
+      <c r="U4" s="3">
+        <v>2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>207</v>
+      </c>
+      <c r="X4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="T5" s="3">
+        <v>7</v>
+      </c>
+      <c r="U5" s="3">
+        <v>2</v>
+      </c>
+      <c r="W5" t="s">
+        <v>208</v>
+      </c>
+      <c r="X5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="T6" s="3">
+        <v>7</v>
+      </c>
+      <c r="U6" s="3">
+        <v>2</v>
+      </c>
+      <c r="W6" t="s">
+        <v>209</v>
+      </c>
+      <c r="X6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E7" s="19"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="T7" s="3">
+        <v>7</v>
+      </c>
+      <c r="U7" s="3">
+        <v>2</v>
+      </c>
+      <c r="W7" t="s">
+        <v>210</v>
+      </c>
+      <c r="X7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T8" s="3">
+        <v>7</v>
+      </c>
+      <c r="U8" s="3">
+        <v>2</v>
+      </c>
+      <c r="W8" t="s">
+        <v>211</v>
+      </c>
+      <c r="X8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T12" s="3">
+        <v>7</v>
+      </c>
+      <c r="U12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T13" s="3">
+        <v>7</v>
+      </c>
+      <c r="U13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T14" s="3">
+        <v>7</v>
+      </c>
+      <c r="U14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T15" s="3">
+        <v>7</v>
+      </c>
+      <c r="U15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T16" s="3">
+        <v>7</v>
+      </c>
+      <c r="U16" s="3">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L7" xr:uid="{2CFE5422-0593-4EF6-A007-26CDCD55D970}">
+      <formula1>$W$3:$W$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M7" xr:uid="{8D1F34CC-EF84-4493-9DED-9E4CB330FD31}">
+      <formula1>$X$3:$X$9</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1D68C1F8-ABFC-40E1-A4B5-14A9F0EF6A32}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6996AD9A-3288-45F4-B274-495895623B2E}">
           <x14:formula1>
             <xm:f>Var!$B$13:$B$22</xm:f>
           </x14:formula1>
@@ -3108,11 +3604,492 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDECCE7E-6CCB-49CF-B9BE-26D9732D6A27}">
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="str" cm="1">
+        <f t="array" ref="A3:A4">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;"""")*(Activity!G:G&lt;&gt;"Y"))</f>
+        <v>A001</v>
+      </c>
+      <c r="B3" s="3" cm="1">
+        <f t="array" ref="B3:D4">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!G:G&lt;&gt;"Y"))</f>
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <v>Pemindahbukuan</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <v>test</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1100000000000</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="str">
+        <v>A003</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <v>Pemindahbukuan</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <v>test</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1200000000000</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>1000007939</v>
+      </c>
+      <c r="F5" s="4">
+        <v>200080295</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1100000000000</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1000810133</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1000007939</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4">
+        <v>1000810133</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1000810199</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1200000000000</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1000810348</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1000007928</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4">
+        <v>1000810348</v>
+      </c>
+      <c r="F7" s="3">
+        <v>200084449</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1300000000000</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1000810144</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1000613690</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4">
+        <v>1000007928</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1000810166</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1400000000000</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1000810155</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4">
+        <v>1000007928</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1000810166</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1400000000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>1000613690</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1500000000000</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>1000810144</v>
+      </c>
+      <c r="F11" s="3">
+        <v>200078491</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1600000000000</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1000810199</v>
+      </c>
+      <c r="O11" s="4">
+        <v>200080295</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>1000810155</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1700000000000</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1000810166</v>
+      </c>
+      <c r="O12" s="3">
+        <v>200084449</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F13" s="3">
+        <v>225281702</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1800000000000</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1000810202</v>
+      </c>
+      <c r="O13" s="3">
+        <v>200078491</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1000810202</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1900000000000</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3">
+        <v>225281702</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" s="3">
+        <v>225281702</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1800000000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1000810202</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1900000000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4">
+        <v>1000007928</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1000810166</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1400000000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1300000000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <v>1000810144</v>
+      </c>
+      <c r="F19" s="3">
+        <v>200078491</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1100000000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>1000810155</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1200000000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4">
+        <v>1000007928</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1000810166</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1400000000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1300000000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5028B80F-2914-4662-B83F-8304FA6E5AA1}">
+          <x14:formula1>
+            <xm:f>Var!$B$13:$B$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:G1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F24C01-C853-4210-B6F2-D96E9B3CD0E5}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3134,15 +4111,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -3169,11 +4146,11 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="e" cm="1" vm="1">
-        <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;""""))</f>
+        <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;"""")*(Activity!G:G&lt;&gt;"Y"))</f>
         <v>#VALUE!</v>
       </c>
       <c r="B3" s="3" t="e" cm="1" vm="1">
-        <f t="array" ref="B3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
+        <f t="array" ref="B3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!G:G&lt;&gt;"Y"))</f>
         <v>#VALUE!</v>
       </c>
       <c r="C3" s="3"/>
@@ -3257,7 +4234,7 @@
         <v>10001032630</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G8" s="10">
         <v>1300000000000</v>
@@ -3302,7 +4279,7 @@
         <v>10001032630</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G11" s="10">
         <v>1300000000000</v>
@@ -3389,12 +4366,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E925F52-EAAA-4A3D-9319-73B65C754D34}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3416,15 +4393,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -3450,16 +4427,20 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="e" cm="1" vm="1">
-        <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;""""))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B3" s="3" t="e" cm="1" vm="1">
-        <f t="array" ref="B3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="3" t="str" cm="1">
+        <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;"""")*(Activity!G:G&lt;&gt;"Y"))</f>
+        <v>A001</v>
+      </c>
+      <c r="B3" s="3" cm="1">
+        <f t="array" ref="B3:D3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!G:G&lt;&gt;"Y"))</f>
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <v>Blokir Rekening</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
       <c r="E3" s="3">
         <v>226356621</v>
       </c>
@@ -3512,230 +4493,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C547CAC-65BB-400B-8328-46C49E04DC52}">
-  <dimension ref="A1:Q4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-    </row>
-    <row r="2" spans="1:17" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="e" cm="1" vm="1">
-        <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;""""))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B3" s="3" t="e" cm="1" vm="1">
-        <f t="array" ref="B3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="14">
-        <v>1000809820</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="G3" s="15">
-        <v>1000000000</v>
-      </c>
-      <c r="H3" s="15">
-        <v>100000</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="J3" s="15">
-        <v>50000</v>
-      </c>
-      <c r="K3" s="15">
-        <v>10000</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="M3" s="14">
-        <v>228356776</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q3" s="14">
-        <v>1000103587</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="14">
-        <v>1000809820</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="G4" s="15">
-        <v>1000000000</v>
-      </c>
-      <c r="H4" s="15">
-        <v>100000</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="J4" s="15">
-        <v>50000</v>
-      </c>
-      <c r="K4" s="15">
-        <v>10000</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="M4" s="14">
-        <v>228356776</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q4" s="14">
-        <v>1000103587</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BA579E74-18EC-4CA1-A0A2-FBFBFAE96C09}">
-          <x14:formula1>
-            <xm:f>Var!$B$13:$B$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>A1</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BF20EE-0642-4665-91B6-82837366E096}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3752,14 +4515,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -3783,11 +4546,11 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="e" cm="1" vm="1">
-        <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;""""))</f>
+        <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;"""")*(Activity!G:G&lt;&gt;"Y"))</f>
         <v>#VALUE!</v>
       </c>
       <c r="B3" s="3" t="e" cm="1" vm="1">
-        <f t="array" ref="B3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
+        <f t="array" ref="B3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!G:G&lt;&gt;"Y"))</f>
         <v>#VALUE!</v>
       </c>
       <c r="C3" s="3"/>
@@ -3843,7 +4606,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3865,20 +4628,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -3920,11 +4683,11 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="e" cm="1" vm="1">
-        <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;""""))</f>
+        <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;"""")*(Activity!G:G&lt;&gt;"Y"))</f>
         <v>#VALUE!</v>
       </c>
       <c r="B3" s="3" t="e" cm="1" vm="1">
-        <f t="array" ref="B3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
+        <f t="array" ref="B3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!G:G&lt;&gt;"Y"))</f>
         <v>#VALUE!</v>
       </c>
       <c r="C3" s="3"/>
@@ -4007,23 +4770,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D923057-5622-4B75-B52E-77EA52D2CA36}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
     <col min="3" max="3" width="4.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4042,14 +4807,20 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="B2" s="3" t="str">
         <f>IF(A2="", "",VLOOKUP(A2,Batch!A:E,5,FALSE))</f>
-        <v>Normal - Maintenance Rekening - Input form Perpanjangan Sementara</v>
+        <v>Bulk Upload</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -4058,272 +4829,716 @@
         <v>119</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="9"/>
+      <c r="G2" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f>IF(A3="", "",VLOOKUP(A3,Batch!A:E,5,FALSE))</f>
+        <v>Bulk Upload</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f>IF(A4="", "",VLOOKUP(A4,Batch!A:E,5,FALSE))</f>
+        <v>Bulk Upload</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f>IF(A5="", "",VLOOKUP(A5,Batch!A:E,5,FALSE))</f>
+        <v>Bulk Upload</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f>IF(A6="", "",VLOOKUP(A6,Batch!A:E,5,FALSE))</f>
+        <v>Test</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f>IF(A7="", "",VLOOKUP(A7,Batch!A:E,5,FALSE))</f>
+        <v>Bulk Upload</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+      <c r="F7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f>IF(A8="", "",VLOOKUP(A8,Batch!A:E,5,FALSE))</f>
+        <v>Bulk Upload</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="9"/>
+      <c r="F8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f>IF(A9="", "",VLOOKUP(A9,Batch!A:E,5,FALSE))</f>
+        <v>Bulk Upload</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f>IF(A10="", "",VLOOKUP(A10,Batch!A:E,5,FALSE))</f>
+        <v>Test</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f>IF(A11="", "",VLOOKUP(A11,Batch!A:E,5,FALSE))</f>
+        <v>Test</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f>IF(A12="", "",VLOOKUP(A12,Batch!A:E,5,FALSE))</f>
+        <v>Test</v>
+      </c>
+      <c r="C12" s="3">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f>IF(A13="", "",VLOOKUP(A13,Batch!A:E,5,FALSE))</f>
+        <v>Test</v>
+      </c>
+      <c r="C13" s="3">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f>IF(A14="", "",VLOOKUP(A14,Batch!A:E,5,FALSE))</f>
+        <v>Asuransi Single Side</v>
+      </c>
+      <c r="C14" s="3">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f>IF(A15="", "",VLOOKUP(A15,Batch!A:E,5,FALSE))</f>
+        <v>Asuransi Single Side</v>
+      </c>
+      <c r="C15" s="3">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f>IF(A16="", "",VLOOKUP(A16,Batch!A:E,5,FALSE))</f>
+        <v>Asuransi Single Side</v>
+      </c>
+      <c r="C16" s="3">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f>IF(A17="", "",VLOOKUP(A17,Batch!A:E,5,FALSE))</f>
+        <v>Asuransi Single Side</v>
+      </c>
+      <c r="C17" s="3">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f>IF(A18="", "",VLOOKUP(A18,Batch!A:E,5,FALSE))</f>
+        <v>Bucket Single Side</v>
+      </c>
+      <c r="C18" s="3">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f>IF(A19="", "",VLOOKUP(A19,Batch!A:E,5,FALSE))</f>
+        <v>Bucket Single Side</v>
+      </c>
+      <c r="C19" s="3">
+        <v>18</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f>IF(A20="", "",VLOOKUP(A20,Batch!A:E,5,FALSE))</f>
+        <v>Bucket Single Side</v>
+      </c>
+      <c r="C20" s="3">
+        <v>19</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f>IF(A21="", "",VLOOKUP(A21,Batch!A:E,5,FALSE))</f>
+        <v>Bucket Single Side</v>
+      </c>
+      <c r="C21" s="3">
+        <v>20</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f>IF(A22="", "",VLOOKUP(A22,Batch!A:E,5,FALSE))</f>
+        <v>Bucket Single Side</v>
+      </c>
+      <c r="C22" s="3">
+        <v>21</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f>IF(A23="", "",VLOOKUP(A23,Batch!A:E,5,FALSE))</f>
+        <v>Bucket Single Side</v>
+      </c>
+      <c r="C23" s="3">
+        <v>22</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f>IF(A24="", "",VLOOKUP(A24,Batch!A:E,5,FALSE))</f>
+        <v>Bucket Single Side</v>
+      </c>
+      <c r="C24" s="3">
+        <v>23</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f>IF(A25="", "",VLOOKUP(A25,Batch!A:E,5,FALSE))</f>
+        <v>Bucket Single Side</v>
+      </c>
+      <c r="C25" s="3">
+        <v>24</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B26" s="3" t="str">
+        <f>IF(A26="", "",VLOOKUP(A26,Batch!A:E,5,FALSE))</f>
+        <v>Bucket Single Side</v>
+      </c>
+      <c r="C26" s="3">
+        <v>25</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>344</v>
+      </c>
       <c r="B27" s="3" t="str">
         <f>IF(A27="", "",VLOOKUP(A27,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
+        <v>Bucket Single Side</v>
+      </c>
+      <c r="C27" s="3">
+        <v>26</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>344</v>
+      </c>
       <c r="B28" s="3" t="str">
         <f>IF(A28="", "",VLOOKUP(A28,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
+        <v>Bucket Single Side</v>
+      </c>
+      <c r="C28" s="3">
+        <v>27</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>344</v>
+      </c>
       <c r="B29" s="3" t="str">
         <f>IF(A29="", "",VLOOKUP(A29,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
+        <v>Bucket Single Side</v>
+      </c>
+      <c r="C29" s="3">
+        <v>28</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>344</v>
+      </c>
       <c r="B30" s="3" t="str">
         <f>IF(A30="", "",VLOOKUP(A30,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
+        <v>Bucket Single Side</v>
+      </c>
+      <c r="C30" s="3">
+        <v>29</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>344</v>
+      </c>
       <c r="B31" s="3" t="str">
         <f>IF(A31="", "",VLOOKUP(A31,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+        <v>Bucket Single Side</v>
+      </c>
+      <c r="C31" s="3">
+        <v>30</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>344</v>
+      </c>
       <c r="B32" s="3" t="str">
         <f>IF(A32="", "",VLOOKUP(A32,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+        <v>Bucket Single Side</v>
+      </c>
+      <c r="C32" s="3">
+        <v>31</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="27"/>
       <c r="B33" s="3" t="str">
         <f>IF(A33="", "",VLOOKUP(A33,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4332,9 +5547,11 @@
       <c r="D33" s="9"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="27"/>
       <c r="B34" s="3" t="str">
         <f>IF(A34="", "",VLOOKUP(A34,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4343,9 +5560,11 @@
       <c r="D34" s="9"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="27"/>
       <c r="B35" s="3" t="str">
         <f>IF(A35="", "",VLOOKUP(A35,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4354,9 +5573,11 @@
       <c r="D35" s="9"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="27"/>
       <c r="B36" s="3" t="str">
         <f>IF(A36="", "",VLOOKUP(A36,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4365,9 +5586,11 @@
       <c r="D36" s="9"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="27"/>
       <c r="B37" s="3" t="str">
         <f>IF(A37="", "",VLOOKUP(A37,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4376,9 +5599,11 @@
       <c r="D37" s="9"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="27"/>
       <c r="B38" s="3" t="str">
         <f>IF(A38="", "",VLOOKUP(A38,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4387,9 +5612,11 @@
       <c r="D38" s="9"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="27"/>
       <c r="B39" s="3" t="str">
         <f>IF(A39="", "",VLOOKUP(A39,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4398,9 +5625,11 @@
       <c r="D39" s="9"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="27"/>
       <c r="B40" s="3" t="str">
         <f>IF(A40="", "",VLOOKUP(A40,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4409,9 +5638,11 @@
       <c r="D40" s="9"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="27"/>
       <c r="B41" s="3" t="str">
         <f>IF(A41="", "",VLOOKUP(A41,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4420,9 +5651,11 @@
       <c r="D41" s="9"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="27"/>
       <c r="B42" s="3" t="str">
         <f>IF(A42="", "",VLOOKUP(A42,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4431,9 +5664,11 @@
       <c r="D42" s="9"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="27"/>
       <c r="B43" s="3" t="str">
         <f>IF(A43="", "",VLOOKUP(A43,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4442,9 +5677,11 @@
       <c r="D43" s="9"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="30"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="27"/>
       <c r="B44" s="3" t="str">
         <f>IF(A44="", "",VLOOKUP(A44,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4453,9 +5690,11 @@
       <c r="D44" s="9"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="27"/>
       <c r="B45" s="3" t="str">
         <f>IF(A45="", "",VLOOKUP(A45,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4464,9 +5703,11 @@
       <c r="D45" s="9"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="30"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="27"/>
       <c r="B46" s="3" t="str">
         <f>IF(A46="", "",VLOOKUP(A46,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4475,9 +5716,11 @@
       <c r="D46" s="9"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="30"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="27"/>
       <c r="B47" s="3" t="str">
         <f>IF(A47="", "",VLOOKUP(A47,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4486,9 +5729,11 @@
       <c r="D47" s="9"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="30"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="27"/>
       <c r="B48" s="3" t="str">
         <f>IF(A48="", "",VLOOKUP(A48,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4497,9 +5742,11 @@
       <c r="D48" s="9"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="30"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="27"/>
       <c r="B49" s="3" t="str">
         <f>IF(A49="", "",VLOOKUP(A49,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4508,9 +5755,11 @@
       <c r="D49" s="9"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="30"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="28"/>
       <c r="B50" s="3" t="str">
         <f>IF(A50="", "",VLOOKUP(A50,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4519,9 +5768,11 @@
       <c r="D50" s="9"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="30"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="28"/>
       <c r="B51" s="3" t="str">
         <f>IF(A51="", "",VLOOKUP(A51,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4530,9 +5781,11 @@
       <c r="D51" s="9"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="30"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="28"/>
       <c r="B52" s="3" t="str">
         <f>IF(A52="", "",VLOOKUP(A52,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4541,9 +5794,11 @@
       <c r="D52" s="9"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="28"/>
       <c r="B53" s="3" t="str">
         <f>IF(A53="", "",VLOOKUP(A53,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4552,9 +5807,11 @@
       <c r="D53" s="9"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="28"/>
       <c r="B54" s="3" t="str">
         <f>IF(A54="", "",VLOOKUP(A54,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4563,9 +5820,11 @@
       <c r="D54" s="9"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="28"/>
       <c r="B55" s="3" t="str">
         <f>IF(A55="", "",VLOOKUP(A55,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4574,9 +5833,11 @@
       <c r="D55" s="9"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="28"/>
       <c r="B56" s="3" t="str">
         <f>IF(A56="", "",VLOOKUP(A56,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4585,9 +5846,11 @@
       <c r="D56" s="9"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="28"/>
       <c r="B57" s="3" t="str">
         <f>IF(A57="", "",VLOOKUP(A57,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4596,9 +5859,11 @@
       <c r="D57" s="9"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="28"/>
       <c r="B58" s="3" t="str">
         <f>IF(A58="", "",VLOOKUP(A58,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4607,9 +5872,11 @@
       <c r="D58" s="9"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="28"/>
       <c r="B59" s="3" t="str">
         <f>IF(A59="", "",VLOOKUP(A59,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4618,9 +5885,11 @@
       <c r="D59" s="9"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="28"/>
       <c r="B60" s="3" t="str">
         <f>IF(A60="", "",VLOOKUP(A60,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4629,9 +5898,11 @@
       <c r="D60" s="9"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="28"/>
       <c r="B61" s="3" t="str">
         <f>IF(A61="", "",VLOOKUP(A61,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4640,9 +5911,11 @@
       <c r="D61" s="9"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
       <c r="B62" s="3" t="str">
         <f>IF(A62="", "",VLOOKUP(A62,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4651,9 +5924,11 @@
       <c r="D62" s="9"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
       <c r="B63" s="3" t="str">
         <f>IF(A63="", "",VLOOKUP(A63,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4662,9 +5937,11 @@
       <c r="D63" s="9"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="3"/>
       <c r="B64" s="3" t="str">
         <f>IF(A64="", "",VLOOKUP(A64,Batch!A:E,5,FALSE))</f>
         <v/>
@@ -4673,8 +5950,10 @@
       <c r="D64" s="9"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="str">
         <f>IF(A65="", "",VLOOKUP(A65,Batch!A:E,5,FALSE))</f>
@@ -4684,8 +5963,10 @@
       <c r="D65" s="9"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="str">
         <f>IF(A66="", "",VLOOKUP(A66,Batch!A:E,5,FALSE))</f>
@@ -4695,8 +5976,10 @@
       <c r="D66" s="9"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="str">
         <f>IF(A67="", "",VLOOKUP(A67,Batch!A:E,5,FALSE))</f>
@@ -4706,39 +5989,8 @@
       <c r="D67" s="9"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3" t="str">
-        <f>IF(A68="", "",VLOOKUP(A68,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3" t="str">
-        <f>IF(A69="", "",VLOOKUP(A69,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3" t="str">
-        <f>IF(A70="", "",VLOOKUP(A70,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4747,23 +5999,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{691E1A8B-4B71-4070-BA0B-083A8025DF5B}">
+          <x14:formula1>
+            <xm:f>Batch!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>A62:A67 A2:A32</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{593B68EA-C046-4643-8C2B-295BCBFD6066}">
           <x14:formula1>
             <xm:f>Var!$B$8:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F70</xm:sqref>
+          <xm:sqref>F2:F67</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FAF5F033-C3D2-4CC6-8DCE-0986036BE00C}">
           <x14:formula1>
             <xm:f>Var!$B$13:$B$22</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D70</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{691E1A8B-4B71-4070-BA0B-083A8025DF5B}">
-          <x14:formula1>
-            <xm:f>Batch!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A14 A27 A65:A70</xm:sqref>
+          <xm:sqref>D2:D67</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4776,7 +6028,7 @@
   <dimension ref="A1:AE27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4826,10 +6078,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>14</v>
@@ -5009,7 +6261,7 @@
         <v>2000000000001</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G3" s="4">
         <v>76331</v>
@@ -5264,7 +6516,7 @@
         <v>5000000000001</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G6" s="4">
         <v>76331</v>
@@ -5497,7 +6749,7 @@
         <v>500000000001</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G9" s="4">
         <v>79626</v>
@@ -5722,7 +6974,7 @@
         <v>50000000001</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G12" s="4">
         <v>79626</v>
@@ -6055,7 +7307,7 @@
         <v>5000000001</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G17" s="4">
         <v>30028</v>
@@ -6240,7 +7492,7 @@
         <v>5000000001</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G20" s="4">
         <v>30028</v>
@@ -6449,7 +7701,7 @@
         <v>2000000000001</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G23" s="4">
         <v>75789</v>
@@ -6704,7 +7956,7 @@
         <v>5000000000001</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G26" s="4">
         <v>75789</v>
@@ -6857,7 +8109,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B13" sqref="B13:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7058,8 +8310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146911E3-3D96-4805-9FD0-4118322ED41F}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7078,165 +8330,165 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>282</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>283</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>284</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>285</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="C6" s="23" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -7245,10 +8497,10 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -7260,10 +8512,10 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="23" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -7276,10 +8528,10 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="23" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -7292,10 +8544,10 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="23" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -7308,7 +8560,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="23" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -7322,7 +8574,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="23" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -7336,7 +8588,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -7350,7 +8602,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="23" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -7364,7 +8616,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="23" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -7378,7 +8630,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="23" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -7392,7 +8644,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="23" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -7409,16 +8661,978 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF16E7AA-ADED-4D28-A781-927C1D368780}">
-  <dimension ref="A1:AA29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7F4889-46AF-4808-B06F-ACED5C6C53AF}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+    </row>
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="str" cm="1">
+        <f t="array" ref="A3:A19">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;"""")*(Activity!G:G&lt;&gt;"Y"))</f>
+        <v>A001</v>
+      </c>
+      <c r="B3" s="3" cm="1">
+        <f t="array" ref="B3:D19">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!G:G&lt;&gt;"Y"))</f>
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <v>Bucket Adjusment</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1000544283</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="10">
+        <v>200000</v>
+      </c>
+      <c r="H3" s="10">
+        <v>200000</v>
+      </c>
+      <c r="I3" s="10">
+        <v>200000</v>
+      </c>
+      <c r="J3" s="10">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="str">
+        <v>A003</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <v>Bucket Adjusment</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <v>test</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1000810348</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10">
+        <v>-210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="str">
+        <v>A007</v>
+      </c>
+      <c r="B5" s="3">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <v>Bucket Adjusment</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <v>Rekening WORST COLLECTIBILITY = 1, Kode Restruk Blank</v>
+      </c>
+      <c r="E5" s="3">
+        <v>166282203</v>
+      </c>
+      <c r="F5" s="10">
+        <v>200000</v>
+      </c>
+      <c r="G5" s="10">
+        <v>200000</v>
+      </c>
+      <c r="H5" s="10">
+        <v>200000</v>
+      </c>
+      <c r="I5" s="10">
+        <v>200000</v>
+      </c>
+      <c r="J5" s="10">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="str">
+        <v>A007</v>
+      </c>
+      <c r="B6" s="3">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <v>Bucket Adjusment</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <v>Rekening WORST COLLECTIBILITY = 2, Kode Restruk Blank</v>
+      </c>
+      <c r="E6" s="3">
+        <v>225169064</v>
+      </c>
+      <c r="F6" s="10">
+        <v>200000</v>
+      </c>
+      <c r="G6" s="10">
+        <v>200000</v>
+      </c>
+      <c r="H6" s="10">
+        <v>200000</v>
+      </c>
+      <c r="I6" s="10">
+        <v>200000</v>
+      </c>
+      <c r="J6" s="10">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="str">
+        <v>A007</v>
+      </c>
+      <c r="B7" s="3">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <v>Bucket Adjusment</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <v>Rekening WORST COLLECTIBILITY = 1, Kode Restruk 8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1000103576</v>
+      </c>
+      <c r="F7" s="10">
+        <v>200000</v>
+      </c>
+      <c r="G7" s="10">
+        <v>200000</v>
+      </c>
+      <c r="H7" s="10">
+        <v>200000</v>
+      </c>
+      <c r="I7" s="10">
+        <v>200000</v>
+      </c>
+      <c r="J7" s="10">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="str">
+        <v>A007</v>
+      </c>
+      <c r="B8" s="3">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <v>Bucket Adjusment</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <v>Rekening WORST COLLECTIBILITY = 2, Kode Restruk 8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>316027708</v>
+      </c>
+      <c r="F8" s="10">
+        <v>200000</v>
+      </c>
+      <c r="G8" s="10">
+        <v>200000</v>
+      </c>
+      <c r="H8" s="10">
+        <v>200000</v>
+      </c>
+      <c r="I8" s="10">
+        <v>200000</v>
+      </c>
+      <c r="J8" s="10">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="str">
+        <v>A007</v>
+      </c>
+      <c r="B9" s="3">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <v>Bucket Adjusment</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <v>Rekening WORST COLLECTIBILITY = 1, Kode Restruk Selain Blank dan 8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1000809853</v>
+      </c>
+      <c r="F9" s="10">
+        <v>200000</v>
+      </c>
+      <c r="G9" s="10">
+        <v>200000</v>
+      </c>
+      <c r="H9" s="10">
+        <v>200000</v>
+      </c>
+      <c r="I9" s="10">
+        <v>200000</v>
+      </c>
+      <c r="J9" s="10">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="str">
+        <v>A007</v>
+      </c>
+      <c r="B10" s="3">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <v>Bucket Adjusment</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <v>Rekening WORST COLLECTIBILITY = 2, Kode Restruk Selain Blank dan 8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1000139853</v>
+      </c>
+      <c r="F10" s="10">
+        <v>200000</v>
+      </c>
+      <c r="G10" s="10">
+        <v>200000</v>
+      </c>
+      <c r="H10" s="10">
+        <v>200000</v>
+      </c>
+      <c r="I10" s="10">
+        <v>200000</v>
+      </c>
+      <c r="J10" s="10">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="str">
+        <v>A007</v>
+      </c>
+      <c r="B11" s="3">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <v>Bucket Adjusment</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <v>Rekening WORST COLLECTIBILITY = 3, Kode Restruk Blank</v>
+      </c>
+      <c r="E11" s="3">
+        <v>317717826</v>
+      </c>
+      <c r="F11" s="10">
+        <v>200000</v>
+      </c>
+      <c r="G11" s="10">
+        <v>200000</v>
+      </c>
+      <c r="H11" s="10">
+        <v>200000</v>
+      </c>
+      <c r="I11" s="10">
+        <v>200000</v>
+      </c>
+      <c r="J11" s="10">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="str">
+        <v>A007</v>
+      </c>
+      <c r="B12" s="3">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <v>Bucket Adjusment</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <v>Rekening WORST COLLECTIBILITY = 4, Kode Restruk Blank</v>
+      </c>
+      <c r="E12" s="3">
+        <v>317717768</v>
+      </c>
+      <c r="F12" s="10">
+        <v>200000</v>
+      </c>
+      <c r="G12" s="10">
+        <v>200000</v>
+      </c>
+      <c r="H12" s="10">
+        <v>200000</v>
+      </c>
+      <c r="I12" s="10">
+        <v>200000</v>
+      </c>
+      <c r="J12" s="10">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="str">
+        <v>A007</v>
+      </c>
+      <c r="B13" s="3">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <v>Bucket Adjusment</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <v>Rekening WORST COLLECTIBILITY = 5, Kode Restruk Blank</v>
+      </c>
+      <c r="E13" s="3">
+        <v>315700450</v>
+      </c>
+      <c r="F13" s="10">
+        <v>200000</v>
+      </c>
+      <c r="G13" s="10">
+        <v>200000</v>
+      </c>
+      <c r="H13" s="10">
+        <v>200000</v>
+      </c>
+      <c r="I13" s="10">
+        <v>200000</v>
+      </c>
+      <c r="J13" s="10">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="str">
+        <v>A007</v>
+      </c>
+      <c r="B14" s="3">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <v>Bucket Adjusment</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <v>Rekening WORST COLLECTIBILITY = 3, Kode Restruk 8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>315608092</v>
+      </c>
+      <c r="F14" s="10">
+        <v>200000</v>
+      </c>
+      <c r="G14" s="10">
+        <v>200000</v>
+      </c>
+      <c r="H14" s="10">
+        <v>200000</v>
+      </c>
+      <c r="I14" s="10">
+        <v>200000</v>
+      </c>
+      <c r="J14" s="10">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="str">
+        <v>A007</v>
+      </c>
+      <c r="B15" s="3">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <v>Bucket Adjusment</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <v>Rekening WORST COLLECTIBILITY = 4, Kode Restruk 8</v>
+      </c>
+      <c r="E15" s="3">
+        <v>317658177</v>
+      </c>
+      <c r="F15" s="10">
+        <v>200000</v>
+      </c>
+      <c r="G15" s="10">
+        <v>200000</v>
+      </c>
+      <c r="H15" s="10">
+        <v>200000</v>
+      </c>
+      <c r="I15" s="10">
+        <v>200000</v>
+      </c>
+      <c r="J15" s="10">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="str">
+        <v>A007</v>
+      </c>
+      <c r="B16" s="3">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <v>Bucket Adjusment</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <v>Rekening WORST COLLECTIBILITY = 5, Kode Restruk 8</v>
+      </c>
+      <c r="E16" s="3">
+        <v>315607633</v>
+      </c>
+      <c r="F16" s="10">
+        <v>200000</v>
+      </c>
+      <c r="G16" s="10">
+        <v>200000</v>
+      </c>
+      <c r="H16" s="10">
+        <v>200000</v>
+      </c>
+      <c r="I16" s="10">
+        <v>200000</v>
+      </c>
+      <c r="J16" s="10">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="str">
+        <v>A007</v>
+      </c>
+      <c r="B17" s="3">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <v>Bucket Adjusment</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <v>Rekening WORST COLLECTIBILITY = 3, Kode Restruk Selain Blank dan 8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>317241653</v>
+      </c>
+      <c r="F17" s="10">
+        <v>200000</v>
+      </c>
+      <c r="G17" s="10">
+        <v>200000</v>
+      </c>
+      <c r="H17" s="10">
+        <v>200000</v>
+      </c>
+      <c r="I17" s="10">
+        <v>200000</v>
+      </c>
+      <c r="J17" s="10">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="str">
+        <v>A007</v>
+      </c>
+      <c r="B18" s="3">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <v>Bucket Adjusment</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <v>Rekening WORST COLLECTIBILITY = 4, Kode Restruk Selain Blank dan 8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>317657548</v>
+      </c>
+      <c r="F18" s="10">
+        <v>200000</v>
+      </c>
+      <c r="G18" s="10">
+        <v>200000</v>
+      </c>
+      <c r="H18" s="10">
+        <v>200000</v>
+      </c>
+      <c r="I18" s="10">
+        <v>200000</v>
+      </c>
+      <c r="J18" s="10">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="str">
+        <v>A007</v>
+      </c>
+      <c r="B19" s="3">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <v>Bucket Adjusment</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <v>Rekening WORST COLLECTIBILITY = 5, Kode Restruk Selain Blank dan 8</v>
+      </c>
+      <c r="E19" s="3">
+        <v>315596629</v>
+      </c>
+      <c r="F19" s="10">
+        <v>200000</v>
+      </c>
+      <c r="G19" s="10">
+        <v>200000</v>
+      </c>
+      <c r="H19" s="10">
+        <v>200000</v>
+      </c>
+      <c r="I19" s="10">
+        <v>200000</v>
+      </c>
+      <c r="J19" s="10">
+        <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1D68C1F8-ABFC-40E1-A4B5-14A9F0EF6A32}">
+          <x14:formula1>
+            <xm:f>Var!$B$13:$B$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C547CAC-65BB-400B-8328-46C49E04DC52}">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+    </row>
+    <row r="2" spans="1:17" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="str" cm="1">
+        <f t="array" ref="A3:A6">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;"""")*(Activity!G:G&lt;&gt;"Y"))</f>
+        <v>A005</v>
+      </c>
+      <c r="B3" s="3" cm="1">
+        <f t="array" ref="B3:D6">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!G:G&lt;&gt;"Y"))</f>
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <v>Asuransi</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <v>Col 5</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1000809820</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="15">
+        <v>1000000000</v>
+      </c>
+      <c r="H3" s="15">
+        <v>100000</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" s="15">
+        <v>50000</v>
+      </c>
+      <c r="K3" s="15">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="M3" s="14">
+        <v>228356776</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>315596629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="str">
+        <v>A005</v>
+      </c>
+      <c r="B4" s="3">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <v>Asuransi</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <v>Col 1</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1000809820</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1000000000</v>
+      </c>
+      <c r="H4" s="15">
+        <v>100000</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J4" s="15">
+        <v>50000</v>
+      </c>
+      <c r="K4" s="15">
+        <v>10000</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="M4" s="14">
+        <v>228356776</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>1000023521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="str">
+        <v>A005</v>
+      </c>
+      <c r="B5" s="3">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <v>Asuransi</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <v>Col 2</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1000809820</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1000000000</v>
+      </c>
+      <c r="H5" s="15">
+        <v>100000</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" s="15">
+        <v>50000</v>
+      </c>
+      <c r="K5" s="15">
+        <v>10000</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="M5" s="14">
+        <v>228356776</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>166279969</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="str">
+        <v>A005</v>
+      </c>
+      <c r="B6" s="3">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <v>Asuransi</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <v>Col 1 dengan restruk</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1000809820</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1000000000</v>
+      </c>
+      <c r="H6" s="15">
+        <v>100000</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="15">
+        <v>50000</v>
+      </c>
+      <c r="K6" s="15">
+        <v>10000</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="M6" s="14">
+        <v>228356776</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>167971381</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BA579E74-18EC-4CA1-A0A2-FBFBFAE96C09}">
+          <x14:formula1>
+            <xm:f>Var!$B$13:$B$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF16E7AA-ADED-4D28-A781-927C1D368780}">
+  <dimension ref="A1:AA29"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="91.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
@@ -7438,25 +9652,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="1:27" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -7475,75 +9689,75 @@
         <v>132</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="L2" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="O2" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="O2" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>194</v>
-      </c>
       <c r="Q2" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U2"/>
       <c r="V2" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="X2" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="Y2" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="Z2" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="AA2" s="17" t="s">
         <v>174</v>
-      </c>
-      <c r="Z2" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA2" s="17" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str" cm="1">
-        <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;""""))</f>
-        <v>TC-001</v>
+        <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;"""")*(Activity!G:G&lt;&gt;"Y"))</f>
+        <v>A002</v>
       </c>
       <c r="B3" s="3" cm="1">
-        <f t="array" ref="B3:D3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
-        <v>1</v>
+        <f t="array" ref="B3:D3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!G:G&lt;&gt;"Y"))</f>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="str">
         <v>Maintenance Rek</v>
       </c>
       <c r="D3" s="3" t="str">
-        <v>Input form Perpanjangan Sementara</v>
+        <v>test</v>
       </c>
       <c r="E3" s="14">
         <v>187582982</v>
@@ -7556,10 +9770,10 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O3" s="19">
         <v>45689</v>
@@ -7570,7 +9784,7 @@
       <c r="Q3" s="15">
         <v>3</v>
       </c>
-      <c r="U3" s="33">
+      <c r="U3" s="35">
         <v>1</v>
       </c>
       <c r="V3" s="6">
@@ -7580,10 +9794,10 @@
         <v>7</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Y3" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Z3" s="3">
         <v>2</v>
@@ -7608,10 +9822,10 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O4" s="19">
         <v>45323</v>
@@ -7622,7 +9836,7 @@
       <c r="Q4" s="3">
         <v>3</v>
       </c>
-      <c r="U4" s="33"/>
+      <c r="U4" s="35"/>
       <c r="V4" s="6">
         <v>1000555400</v>
       </c>
@@ -7630,10 +9844,10 @@
         <v>7</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Y4" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Z4" s="3">
         <v>2</v>
@@ -7658,10 +9872,10 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O5" s="19">
         <v>45323</v>
@@ -7672,7 +9886,7 @@
       <c r="Q5" s="3">
         <v>3</v>
       </c>
-      <c r="U5" s="33"/>
+      <c r="U5" s="35"/>
       <c r="V5" s="6">
         <v>1000555400</v>
       </c>
@@ -7680,10 +9894,10 @@
         <v>7</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Y5" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Z5" s="3">
         <v>2</v>
@@ -7708,10 +9922,10 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O6" s="19">
         <v>45323</v>
@@ -7722,7 +9936,7 @@
       <c r="Q6" s="3">
         <v>3</v>
       </c>
-      <c r="U6" s="33"/>
+      <c r="U6" s="35"/>
       <c r="V6" s="6">
         <v>1000555400</v>
       </c>
@@ -7730,10 +9944,10 @@
         <v>7</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Y6" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Z6" s="3">
         <v>2</v>
@@ -7768,7 +9982,7 @@
       <c r="Q7" s="3">
         <v>3</v>
       </c>
-      <c r="U7" s="33"/>
+      <c r="U7" s="35"/>
       <c r="V7" s="6">
         <v>1000555400</v>
       </c>
@@ -7776,10 +9990,10 @@
         <v>7</v>
       </c>
       <c r="X7" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Y7" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Z7" s="3">
         <v>2</v>
@@ -7805,7 +10019,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="6"/>
       <c r="N8" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
@@ -7829,7 +10043,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="19"/>
@@ -7862,7 +10076,7 @@
       <c r="Q10" s="3">
         <v>4</v>
       </c>
-      <c r="U10" s="33">
+      <c r="U10" s="35">
         <v>2</v>
       </c>
       <c r="V10" s="6">
@@ -7872,10 +10086,10 @@
         <v>7</v>
       </c>
       <c r="X10" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y10" s="18" t="s">
         <v>177</v>
-      </c>
-      <c r="Y10" s="18" t="s">
-        <v>179</v>
       </c>
       <c r="Z10" s="3">
         <v>1</v>
@@ -7908,7 +10122,7 @@
       <c r="Q11" s="3">
         <v>4</v>
       </c>
-      <c r="U11" s="33"/>
+      <c r="U11" s="35"/>
       <c r="V11" s="6">
         <v>1000483681</v>
       </c>
@@ -7916,10 +10130,10 @@
         <v>7</v>
       </c>
       <c r="X11" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y11" s="18" t="s">
         <v>177</v>
-      </c>
-      <c r="Y11" s="18" t="s">
-        <v>179</v>
       </c>
       <c r="Z11" s="3">
         <v>1</v>
@@ -7945,14 +10159,14 @@
       <c r="L12" s="3"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="3">
         <v>4</v>
       </c>
-      <c r="U12" s="33"/>
+      <c r="U12" s="35"/>
       <c r="V12" s="6">
         <v>1000483681</v>
       </c>
@@ -7960,10 +10174,10 @@
         <v>7</v>
       </c>
       <c r="X12" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y12" s="18" t="s">
         <v>177</v>
-      </c>
-      <c r="Y12" s="18" t="s">
-        <v>179</v>
       </c>
       <c r="Z12" s="3">
         <v>1</v>
@@ -7988,7 +10202,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="19"/>
@@ -7996,7 +10210,7 @@
       <c r="Q13" s="3">
         <v>2</v>
       </c>
-      <c r="U13" s="33"/>
+      <c r="U13" s="35"/>
       <c r="V13" s="6">
         <v>1000483681</v>
       </c>
@@ -8004,10 +10218,10 @@
         <v>7</v>
       </c>
       <c r="X13" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y13" s="18" t="s">
         <v>177</v>
-      </c>
-      <c r="Y13" s="18" t="s">
-        <v>179</v>
       </c>
       <c r="Z13" s="3">
         <v>1</v>
@@ -8034,13 +10248,13 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="26" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="3">
         <v>2</v>
       </c>
-      <c r="U14" s="33"/>
+      <c r="U14" s="35"/>
       <c r="V14" s="6">
         <v>1000483681</v>
       </c>
@@ -8048,10 +10262,10 @@
         <v>7</v>
       </c>
       <c r="X14" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y14" s="18" t="s">
         <v>177</v>
-      </c>
-      <c r="Y14" s="18" t="s">
-        <v>179</v>
       </c>
       <c r="Z14" s="3">
         <v>1</v>
@@ -8101,10 +10315,10 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O16" s="19">
         <v>45323</v>
@@ -8134,10 +10348,10 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O17" s="19">
         <v>45323</v>
@@ -8167,10 +10381,10 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O18" s="19">
         <v>45323</v>
@@ -8200,10 +10414,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O19" s="19">
         <v>45323</v>
@@ -8233,10 +10447,10 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O20" s="19">
         <v>45323</v>
@@ -8266,10 +10480,10 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O21" s="19">
         <v>45323</v>
@@ -8299,10 +10513,10 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O22" s="19">
         <v>45323</v>
@@ -8332,10 +10546,10 @@
         <v>6000000000000</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O23" s="19">
         <v>45323</v>
@@ -8363,10 +10577,10 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="O24" s="19">
         <v>45323</v>
@@ -8394,10 +10608,10 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="O25" s="19">
         <v>45323</v>
@@ -8425,10 +10639,10 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="O26" s="19">
         <v>45323</v>
@@ -8466,12 +10680,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C290590-27BE-46D2-84BE-E2B128CC7D3D}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8492,20 +10706,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:17" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -8524,47 +10738,51 @@
         <v>132</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>182</v>
-      </c>
       <c r="I2" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>198</v>
-      </c>
       <c r="O2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="e" cm="1" vm="1">
-        <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;""""))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B3" s="3" t="e" cm="1" vm="1">
-        <f t="array" ref="B3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="3" t="str" cm="1">
+        <f t="array" ref="A3:A4">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;"""")*(Activity!G:G&lt;&gt;"Y"))</f>
+        <v>A001</v>
+      </c>
+      <c r="B3" s="3" cm="1">
+        <f t="array" ref="B3:D4">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!G:G&lt;&gt;"Y"))</f>
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <v>Maintenance Info</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
       <c r="E3" s="3">
         <v>317464646</v>
       </c>
@@ -8572,10 +10790,10 @@
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K3" s="19">
         <v>45323</v>
@@ -8584,43 +10802,51 @@
         <v>45323</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q3" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="3" t="str">
+        <v>A003</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <v>Maintenance Info</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <v>test</v>
+      </c>
       <c r="E4" s="14">
         <v>317660050</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>268</v>
+      <c r="I4" s="6">
+        <v>2323</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2323</v>
       </c>
       <c r="K4" s="19">
-        <v>45323</v>
+        <v>44958</v>
       </c>
       <c r="L4" s="19">
-        <v>45323</v>
+        <v>44958</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="3">
         <v>2</v>
@@ -8638,10 +10864,10 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K5" s="19">
         <v>45323</v>
@@ -8650,10 +10876,10 @@
         <v>45689</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="3">
         <v>2</v>
@@ -8679,10 +10905,10 @@
         <v>45689</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q6" s="3">
         <v>2</v>
@@ -8701,15 +10927,15 @@
       <c r="H7" s="15"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
       <c r="O7" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="3">
         <v>2</v>
@@ -8727,7 +10953,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="19"/>
@@ -8782,18 +11008,18 @@
       <c r="H11" s="3"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="O11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8808,16 +11034,16 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="O12" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q12" s="3">
         <v>6</v>
@@ -8841,10 +11067,10 @@
       </c>
       <c r="L13" s="19"/>
       <c r="O13" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="3">
         <v>6</v>
@@ -8868,10 +11094,10 @@
         <v>42406</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="3">
         <v>6</v>
@@ -8889,10 +11115,10 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K15" s="19">
         <v>45323</v>
@@ -8901,10 +11127,10 @@
         <v>45689</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q15" s="3">
         <v>6</v>
@@ -8922,10 +11148,10 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K16" s="19">
         <v>45323</v>
@@ -8934,10 +11160,10 @@
         <v>45689</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="3">
         <v>6</v>
@@ -8955,10 +11181,10 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K17" s="19">
         <v>45323</v>
@@ -8979,10 +11205,10 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K18" s="19">
         <v>45323</v>
@@ -9003,10 +11229,10 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K19" s="19">
         <v>45323</v>
@@ -9027,10 +11253,10 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K20" s="19">
         <v>45323</v>
@@ -9051,10 +11277,10 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K21" s="19">
         <v>45323</v>
@@ -9075,10 +11301,10 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K22" s="19">
         <v>45323</v>
@@ -9099,10 +11325,10 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K23" s="19">
         <v>45323</v>
@@ -9130,806 +11356,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570D8653-5A3D-4C31-A9C8-843719706B5C}">
-  <dimension ref="A1:X16"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.21875" customWidth="1"/>
-    <col min="20" max="20" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:24" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="e" cm="1" vm="1">
-        <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;""""))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B3" s="3" t="e" cm="1" vm="1">
-        <f t="array" ref="B3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="19">
-        <v>45689</v>
-      </c>
-      <c r="F3" s="3">
-        <v>333</v>
-      </c>
-      <c r="G3" s="3">
-        <v>11222</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="I3" s="3">
-        <v>167971381</v>
-      </c>
-      <c r="J3" s="3">
-        <v>7</v>
-      </c>
-      <c r="K3" s="3">
-        <v>3</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="W3" t="s">
-        <v>208</v>
-      </c>
-      <c r="X3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="T4" s="3">
-        <v>7</v>
-      </c>
-      <c r="U4" s="3">
-        <v>2</v>
-      </c>
-      <c r="W4" t="s">
-        <v>209</v>
-      </c>
-      <c r="X4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="T5" s="3">
-        <v>7</v>
-      </c>
-      <c r="U5" s="3">
-        <v>2</v>
-      </c>
-      <c r="W5" t="s">
-        <v>210</v>
-      </c>
-      <c r="X5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="T6" s="3">
-        <v>7</v>
-      </c>
-      <c r="U6" s="3">
-        <v>2</v>
-      </c>
-      <c r="W6" t="s">
-        <v>211</v>
-      </c>
-      <c r="X6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E7" s="19"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="T7" s="3">
-        <v>7</v>
-      </c>
-      <c r="U7" s="3">
-        <v>2</v>
-      </c>
-      <c r="W7" t="s">
-        <v>212</v>
-      </c>
-      <c r="X7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="T8" s="3">
-        <v>7</v>
-      </c>
-      <c r="U8" s="3">
-        <v>2</v>
-      </c>
-      <c r="W8" t="s">
-        <v>213</v>
-      </c>
-      <c r="X8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="X9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="T11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="T12" s="3">
-        <v>7</v>
-      </c>
-      <c r="U12" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="T13" s="3">
-        <v>7</v>
-      </c>
-      <c r="U13" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="T14" s="3">
-        <v>7</v>
-      </c>
-      <c r="U14" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="T15" s="3">
-        <v>7</v>
-      </c>
-      <c r="U15" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="T16" s="3">
-        <v>7</v>
-      </c>
-      <c r="U16" s="3">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L7" xr:uid="{2CFE5422-0593-4EF6-A007-26CDCD55D970}">
-      <formula1>$W$3:$W$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M7" xr:uid="{8D1F34CC-EF84-4493-9DED-9E4CB330FD31}">
-      <formula1>$X$3:$X$9</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6996AD9A-3288-45F4-B274-495895623B2E}">
-          <x14:formula1>
-            <xm:f>Var!$B$13:$B$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>A1</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDECCE7E-6CCB-49CF-B9BE-26D9732D6A27}">
-  <dimension ref="A1:P22"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.5546875" customWidth="1"/>
-    <col min="13" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-    </row>
-    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="e" cm="1" vm="1">
-        <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;""""))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B3" s="3" t="e" cm="1" vm="1">
-        <f t="array" ref="B3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G3" s="10">
-        <v>1100000000000</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1200000000000</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>1000007939</v>
-      </c>
-      <c r="F5" s="4">
-        <v>200080295</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1100000000000</v>
-      </c>
-      <c r="N5" s="4">
-        <v>1000810133</v>
-      </c>
-      <c r="O5" s="3">
-        <v>1000007939</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4">
-        <v>1000810133</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1000810199</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1200000000000</v>
-      </c>
-      <c r="N6" s="4">
-        <v>1000810348</v>
-      </c>
-      <c r="O6" s="4">
-        <v>1000007928</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4">
-        <v>1000810348</v>
-      </c>
-      <c r="F7" s="3">
-        <v>200084449</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1300000000000</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1000810144</v>
-      </c>
-      <c r="O7" s="3">
-        <v>1000613690</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4">
-        <v>1000007928</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1000810166</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1400000000000</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1000810155</v>
-      </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4">
-        <v>1000007928</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1000810166</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1400000000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <v>1000613690</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1500000000000</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <v>1000810144</v>
-      </c>
-      <c r="F11" s="3">
-        <v>200078491</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1600000000000</v>
-      </c>
-      <c r="N11" s="3">
-        <v>1000810199</v>
-      </c>
-      <c r="O11" s="4">
-        <v>200080295</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
-        <v>1000810155</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1700000000000</v>
-      </c>
-      <c r="N12" s="4">
-        <v>1000810166</v>
-      </c>
-      <c r="O12" s="3">
-        <v>200084449</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="F13" s="3">
-        <v>225281702</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1800000000000</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1000810202</v>
-      </c>
-      <c r="O13" s="3">
-        <v>200078491</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1000810202</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1900000000000</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3">
-        <v>225281702</v>
-      </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="F15" s="3">
-        <v>225281702</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1800000000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1000810202</v>
-      </c>
-      <c r="G16" s="10">
-        <v>1900000000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4">
-        <v>1000007928</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1000810166</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1400000000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G18" s="10">
-        <v>1300000000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3">
-        <v>1000810144</v>
-      </c>
-      <c r="F19" s="3">
-        <v>200078491</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1100000000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3">
-        <v>1000810155</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1200000000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4">
-        <v>1000007928</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1000810166</v>
-      </c>
-      <c r="G21" s="10">
-        <v>1400000000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G22" s="10">
-        <v>1300000000000</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5028B80F-2914-4662-B83F-8304FA6E5AA1}">
-          <x14:formula1>
-            <xm:f>Var!$B$13:$B$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>A1:G1</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Data Files/LisSkenarioBaru.xlsx
+++ b/Data Files/LisSkenarioBaru.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon\ASIC\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEB53AE-F4F3-48A3-9F18-333E72BF8732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C2A0EC-E53D-434D-B314-64188334D2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="793" activeTab="1" xr2:uid="{757C07E9-73FD-4EAE-8969-0533CFDE11EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="793" activeTab="2" xr2:uid="{757C07E9-73FD-4EAE-8969-0533CFDE11EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Batch" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,10 @@
     <sheet name="Documentation" sheetId="17" r:id="rId5"/>
     <sheet name="Act Bucket Adjusment" sheetId="11" r:id="rId6"/>
     <sheet name="Act Asuransi" sheetId="14" r:id="rId7"/>
-    <sheet name="Act Maintenance Rek" sheetId="15" r:id="rId8"/>
-    <sheet name="Act Maintenance Info" sheetId="16" r:id="rId9"/>
-    <sheet name="Act Restrukturisasi Rek" sheetId="12" r:id="rId10"/>
-    <sheet name="Act Pemindahbukuan" sheetId="5" r:id="rId11"/>
+    <sheet name="Act Pemindahbukuan" sheetId="5" r:id="rId8"/>
+    <sheet name="Act Maintenance Rek" sheetId="15" r:id="rId9"/>
+    <sheet name="Act Maintenance Info" sheetId="16" r:id="rId10"/>
+    <sheet name="Act Restrukturisasi Rek" sheetId="12" r:id="rId11"/>
     <sheet name="Act Pembukaan Rek" sheetId="8" r:id="rId12"/>
     <sheet name="Act Blokir Rek" sheetId="9" r:id="rId13"/>
     <sheet name="Act Pending Rekening" sheetId="13" r:id="rId14"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="378">
   <si>
     <t>NoTC</t>
   </si>
@@ -886,9 +886,6 @@
     <t>Exit Acceptance Criteria</t>
   </si>
   <si>
-    <t>Input form Perpanjangan Sementara</t>
-  </si>
-  <si>
     <t>ASIC/1234</t>
   </si>
   <si>
@@ -907,9 +904,6 @@
     <t>31/11/2015</t>
   </si>
   <si>
-    <t>001360180001001</t>
-  </si>
-  <si>
     <t>Teoritis</t>
   </si>
   <si>
@@ -1009,69 +1003,9 @@
     <t>ExcelFilename</t>
   </si>
   <si>
-    <t>TC-004 MaintenanceRekeningPinjaman.xlsx</t>
-  </si>
-  <si>
-    <t>Bulk Upload</t>
-  </si>
-  <si>
-    <t>A001</t>
-  </si>
-  <si>
-    <t>TC-069 RestrukturisasiRekening.xlsx</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>MaintenanceRekeningPinjaman (5).xlsx</t>
-  </si>
-  <si>
-    <t>A002</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>A003</t>
-  </si>
-  <si>
-    <t>A004</t>
-  </si>
-  <si>
     <t>ApprovalId</t>
   </si>
   <si>
-    <t>SS001</t>
-  </si>
-  <si>
-    <t>Single Side Pinbuk</t>
-  </si>
-  <si>
-    <t>A005</t>
-  </si>
-  <si>
-    <t>Asuransi Single Side</t>
-  </si>
-  <si>
-    <t>Col 5</t>
-  </si>
-  <si>
-    <t>10062025001</t>
-  </si>
-  <si>
-    <t>Col 1</t>
-  </si>
-  <si>
-    <t>10062025002</t>
-  </si>
-  <si>
-    <t>10062025003</t>
-  </si>
-  <si>
-    <t>10062025004</t>
-  </si>
-  <si>
     <t>Col 2</t>
   </si>
   <si>
@@ -1123,10 +1057,175 @@
     <t>Rekening WORST COLLECTIBILITY = 5, Kode Restruk Selain Blank dan 8</t>
   </si>
   <si>
-    <t>Bucket Single Side</t>
-  </si>
-  <si>
-    <t>A007</t>
+    <t>Pinbuk Bucket Decrease Teoritis</t>
+  </si>
+  <si>
+    <t>Bucket Rek COLL = 1, Kode Restruk Blank</t>
+  </si>
+  <si>
+    <t>Bucket Rek COLL = 2, Kode Restruk Blank</t>
+  </si>
+  <si>
+    <t>Bucket Rek COLL = 1, Kode Restruk 8</t>
+  </si>
+  <si>
+    <t>Bucket Rek COLL = 2, Kode Restruk 8</t>
+  </si>
+  <si>
+    <t>Bucket Rek COLL = 1, Kode Restruk Selain Blank dan 8</t>
+  </si>
+  <si>
+    <t>Bucket Rek COLL = 2, Kode Restruk Selain Blank dan 8</t>
+  </si>
+  <si>
+    <t>Bucket Rek COLL = 3, Kode Restruk Blank</t>
+  </si>
+  <si>
+    <t>Bucket Rek COLL = 4, Kode Restruk Blank</t>
+  </si>
+  <si>
+    <t>Bucket Rek COLL = 5, Kode Restruk Blank</t>
+  </si>
+  <si>
+    <t>Bucket Rek COLL = 3, Kode Restruk 8</t>
+  </si>
+  <si>
+    <t>Bucket Rek COLL = 4, Kode Restruk 8</t>
+  </si>
+  <si>
+    <t>Bucket Rek COLL = 5, Kode Restruk 8</t>
+  </si>
+  <si>
+    <t>Bucket Rek COLL = 3, Kode Restruk Selain Blank dan 8</t>
+  </si>
+  <si>
+    <t>Bucket Rek COLL = 4, Kode Restruk Selain Blank dan 8</t>
+  </si>
+  <si>
+    <t>Bucket Rek COLL = 5, Kode Restruk Selain Blank dan 8</t>
+  </si>
+  <si>
+    <t>30062025003</t>
+  </si>
+  <si>
+    <t>30062025004</t>
+  </si>
+  <si>
+    <t>Asuransi Single Side COL 1</t>
+  </si>
+  <si>
+    <t>Asuransi Single Side COL 2</t>
+  </si>
+  <si>
+    <t>Rek Beban Col 1 Tanpa Restruk</t>
+  </si>
+  <si>
+    <t>Rek Beban Col 2 Tanpa Restruk</t>
+  </si>
+  <si>
+    <t>Pinbuk Bucket Increase Teoritis</t>
+  </si>
+  <si>
+    <t>RekSingleSideBiaya</t>
+  </si>
+  <si>
+    <t>RekSingleSidePokok</t>
+  </si>
+  <si>
+    <t>IsBucket</t>
+  </si>
+  <si>
+    <t>Pinbuk Bucket Increase</t>
+  </si>
+  <si>
+    <t>ActionPinbukBucket</t>
+  </si>
+  <si>
+    <t>Bucket Increase Teoritis</t>
+  </si>
+  <si>
+    <t>Bucket Decrease Teoritis</t>
+  </si>
+  <si>
+    <t>isBucket</t>
+  </si>
+  <si>
+    <t>A7241</t>
+  </si>
+  <si>
+    <t>A7242</t>
+  </si>
+  <si>
+    <t>A7243</t>
+  </si>
+  <si>
+    <t>A7244</t>
+  </si>
+  <si>
+    <t>A7245</t>
+  </si>
+  <si>
+    <t>A7246</t>
+  </si>
+  <si>
+    <t>A7247</t>
+  </si>
+  <si>
+    <t>A7248</t>
+  </si>
+  <si>
+    <t>A7249</t>
+  </si>
+  <si>
+    <t>A7250</t>
+  </si>
+  <si>
+    <t>A7251</t>
+  </si>
+  <si>
+    <t>A7252</t>
+  </si>
+  <si>
+    <t>A7253</t>
+  </si>
+  <si>
+    <t>A7254</t>
+  </si>
+  <si>
+    <t>A7255</t>
+  </si>
+  <si>
+    <t>A7256</t>
+  </si>
+  <si>
+    <t>A7257</t>
+  </si>
+  <si>
+    <t>A7258</t>
+  </si>
+  <si>
+    <t>A7259</t>
+  </si>
+  <si>
+    <t>col2</t>
+  </si>
+  <si>
+    <t>col1</t>
+  </si>
+  <si>
+    <t>A801</t>
+  </si>
+  <si>
+    <t>Retest Bucket, Asuransi, Pinbuk</t>
+  </si>
+  <si>
+    <t>34172501</t>
+  </si>
+  <si>
+    <t>34172502</t>
+  </si>
+  <si>
+    <t>A802</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1351,9 +1450,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1364,14 +1460,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1802,10 +1902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BD990D-F751-4EA0-817F-5AB9F99CF85E}">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1814,7 +1914,7 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
     <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
@@ -1864,7 +1964,7 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>188</v>
@@ -1872,18 +1972,18 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="B2" s="7" t="str">
-        <f t="shared" ref="B2:B3" si="0">CONCATENATE(A2,"-","01")</f>
-        <v>A001-01</v>
-      </c>
-      <c r="C2" s="31"/>
+        <f t="shared" ref="B2:B18" si="0">CONCATENATE(A2,"-","01")</f>
+        <v>A7241-01</v>
+      </c>
+      <c r="C2" s="30"/>
       <c r="D2" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="F2" s="7">
         <v>11353</v>
@@ -1909,23 +2009,23 @@
       <c r="M2" s="7"/>
       <c r="N2" s="20">
         <f>IF(A2&lt;&gt;"",COUNTIF(Activity!A:A,A2),"")</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="B3" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>A002-01</v>
-      </c>
-      <c r="C3" s="31"/>
+        <v>A7242-01</v>
+      </c>
+      <c r="C3" s="30"/>
       <c r="D3" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="F3" s="7">
         <v>11353</v>
@@ -1951,23 +2051,23 @@
       <c r="M3" s="7"/>
       <c r="N3" s="20">
         <f>IF(A3&lt;&gt;"",COUNTIF(Activity!A:A,A3),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="B4" s="7" t="str">
-        <f t="shared" ref="B4" si="1">CONCATENATE(A4,"-","01")</f>
-        <v>A003-01</v>
-      </c>
-      <c r="C4" s="31"/>
+        <f t="shared" si="0"/>
+        <v>A7243-01</v>
+      </c>
+      <c r="C4" s="30"/>
       <c r="D4" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="F4" s="7">
         <v>11353</v>
@@ -1993,23 +2093,23 @@
       <c r="M4" s="7"/>
       <c r="N4" s="20">
         <f>IF(A4&lt;&gt;"",COUNTIF(Activity!A:A,A4),"")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="B5" s="7" t="str">
-        <f t="shared" ref="B5:B7" si="2">CONCATENATE(A5,"-","01")</f>
-        <v>A004-01</v>
-      </c>
-      <c r="C5" s="31"/>
+        <f t="shared" si="0"/>
+        <v>A7244-01</v>
+      </c>
+      <c r="C5" s="30"/>
       <c r="D5" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7">
         <v>11353</v>
@@ -2040,18 +2140,18 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="B6" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>SS001-01</v>
-      </c>
-      <c r="C6" s="31"/>
+        <f t="shared" si="0"/>
+        <v>A7245-01</v>
+      </c>
+      <c r="C6" s="30"/>
       <c r="D6" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F6" s="7">
         <v>11353</v>
@@ -2082,18 +2182,18 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="B7" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>A005-01</v>
-      </c>
-      <c r="C7" s="31"/>
+        <f t="shared" si="0"/>
+        <v>A7246-01</v>
+      </c>
+      <c r="C7" s="30"/>
       <c r="D7" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F7" s="7">
         <v>11353</v>
@@ -2119,25 +2219,23 @@
       <c r="M7" s="7"/>
       <c r="N7" s="20">
         <f>IF(A7&lt;&gt;"",COUNTIF(Activity!A:A,A7),"")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="B8" s="7" t="str">
-        <f t="shared" ref="B8" si="3">CONCATENATE(A8,"-","01")</f>
-        <v>A007-01</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>302</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>A7247-01</v>
+      </c>
+      <c r="C8" s="30"/>
       <c r="D8" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="F8" s="7">
         <v>11353</v>
@@ -2163,281 +2261,605 @@
       <c r="M8" s="7"/>
       <c r="N8" s="20">
         <f>IF(A8&lt;&gt;"",COUNTIF(Activity!A:A,A8),"")</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="A9" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>A7248-01</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F9" s="7">
+        <v>11353</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H9" s="7">
+        <v>16001</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="20" t="str">
+      <c r="N9" s="20">
         <f>IF(A9&lt;&gt;"",COUNTIF(Activity!A:A,A9),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="A10" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>A7249-01</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F10" s="7">
+        <v>11353</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="7">
+        <v>16001</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="M10" s="7"/>
-      <c r="N10" s="20" t="str">
+      <c r="N10" s="20">
         <f>IF(A10&lt;&gt;"",COUNTIF(Activity!A:A,A10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="A11" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>A7250-01</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F11" s="7">
+        <v>11353</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" s="7">
+        <v>16001</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="20" t="str">
+      <c r="N11" s="20">
         <f>IF(A11&lt;&gt;"",COUNTIF(Activity!A:A,A11),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="A12" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="B12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>A7251-01</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F12" s="7">
+        <v>11353</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12" s="7">
+        <v>16001</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="M12" s="7"/>
-      <c r="N12" s="20" t="str">
+      <c r="N12" s="20">
         <f>IF(A12&lt;&gt;"",COUNTIF(Activity!A:A,A12),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="A13" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="B13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>A7252-01</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F13" s="7">
+        <v>11353</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H13" s="7">
+        <v>16001</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="20" t="str">
+      <c r="N13" s="20">
         <f>IF(A13&lt;&gt;"",COUNTIF(Activity!A:A,A13),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="A14" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="B14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>A7253-01</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F14" s="7">
+        <v>11353</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14" s="7">
+        <v>16001</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="M14" s="7"/>
-      <c r="N14" s="20" t="str">
+      <c r="N14" s="20">
         <f>IF(A14&lt;&gt;"",COUNTIF(Activity!A:A,A14),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="A15" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>A7254-01</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F15" s="7">
+        <v>11353</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H15" s="7">
+        <v>16001</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="M15" s="7"/>
-      <c r="N15" s="20" t="str">
+      <c r="N15" s="20">
         <f>IF(A15&lt;&gt;"",COUNTIF(Activity!A:A,A15),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="A16" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>A7255-01</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F16" s="7">
+        <v>11353</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H16" s="7">
+        <v>16001</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="M16" s="7"/>
-      <c r="N16" s="20" t="str">
+      <c r="N16" s="20">
         <f>IF(A16&lt;&gt;"",COUNTIF(Activity!A:A,A16),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="A17" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" s="7" t="str">
+        <f>CONCATENATE(A17,"-","01")</f>
+        <v>A7256-01</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F17" s="7">
+        <v>11353</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" s="7">
+        <v>16001</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="M17" s="7"/>
-      <c r="N17" s="20" t="str">
+      <c r="N17" s="20">
         <f>IF(A17&lt;&gt;"",COUNTIF(Activity!A:A,A17),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="A18" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="B18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>A7257-01</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F18" s="7">
+        <v>11353</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H18" s="7">
+        <v>16001</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="M18" s="7"/>
-      <c r="N18" s="20" t="str">
+      <c r="N18" s="20">
         <f>IF(A18&lt;&gt;"",COUNTIF(Activity!A:A,A18),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="A19" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="B19" s="7" t="str">
+        <f t="shared" ref="B19" si="1">CONCATENATE(A19,"-","01")</f>
+        <v>A7258-01</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F19" s="7">
+        <v>11353</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" s="7">
+        <v>16001</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="20" t="str">
+      <c r="N19" s="20">
         <f>IF(A19&lt;&gt;"",COUNTIF(Activity!A:A,A19),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="A20" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="B20" s="7" t="str">
+        <f t="shared" ref="B20:B22" si="2">CONCATENATE(A20,"-","01")</f>
+        <v>A7259-01</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F20" s="7">
+        <v>11353</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H20" s="7">
+        <v>16001</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="M20" s="7"/>
-      <c r="N20" s="20" t="str">
+      <c r="N20" s="20">
         <f>IF(A20&lt;&gt;"",COUNTIF(Activity!A:A,A20),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="A21" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="B21" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>A801-01</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F21" s="7">
+        <v>11353</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" s="7">
+        <v>16001</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="M21" s="7"/>
-      <c r="N21" s="20" t="str">
+      <c r="N21" s="20">
         <f>IF(A21&lt;&gt;"",COUNTIF(Activity!A:A,A21),"")</f>
-        <v/>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="A22" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="B22" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>A802-01</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F22" s="7">
+        <v>11353</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H22" s="7">
+        <v>16001</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="M22" s="7"/>
-      <c r="N22" s="20" t="str">
+      <c r="N22" s="20">
         <f>IF(A22&lt;&gt;"",COUNTIF(Activity!A:A,A22),"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="31"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -2452,11 +2874,11 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="31"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -2471,9 +2893,9 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="31"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -2490,11 +2912,11 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="31"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2509,11 +2931,11 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="31"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -2528,11 +2950,11 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="31"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="29"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -2547,11 +2969,11 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="31"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="29"/>
+      <c r="E29" s="3"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -2566,11 +2988,11 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="31"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="29"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -2585,11 +3007,11 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="31"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="29"/>
+      <c r="E31" s="3"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -2604,11 +3026,11 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="31"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="29"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -2623,11 +3045,11 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="31"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -2642,9 +3064,9 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="31"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="7"/>
       <c r="E34" s="3"/>
       <c r="F34" s="7"/>
@@ -2661,9 +3083,9 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="31"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="7"/>
       <c r="E35" s="3"/>
       <c r="F35" s="7"/>
@@ -2680,9 +3102,9 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="31"/>
+      <c r="C36" s="30"/>
       <c r="D36" s="7"/>
       <c r="E36" s="3"/>
       <c r="F36" s="7"/>
@@ -2699,9 +3121,9 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="31"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="7"/>
       <c r="E37" s="3"/>
       <c r="F37" s="7"/>
@@ -2718,9 +3140,9 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="31"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="7"/>
       <c r="E38" s="3"/>
       <c r="F38" s="7"/>
@@ -2737,9 +3159,9 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="31"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="7"/>
       <c r="E39" s="3"/>
       <c r="F39" s="7"/>
@@ -2756,9 +3178,9 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="31"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="7"/>
       <c r="E40" s="3"/>
       <c r="F40" s="7"/>
@@ -2775,9 +3197,9 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="31"/>
+      <c r="C41" s="30"/>
       <c r="D41" s="7"/>
       <c r="E41" s="3"/>
       <c r="F41" s="7"/>
@@ -2794,9 +3216,9 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="31"/>
+      <c r="C42" s="30"/>
       <c r="D42" s="7"/>
       <c r="E42" s="3"/>
       <c r="F42" s="7"/>
@@ -2813,9 +3235,9 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="31"/>
+      <c r="C43" s="30"/>
       <c r="D43" s="7"/>
       <c r="E43" s="3"/>
       <c r="F43" s="7"/>
@@ -2832,9 +3254,9 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="30"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="31"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="7"/>
       <c r="E44" s="3"/>
       <c r="F44" s="7"/>
@@ -2851,9 +3273,9 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="7"/>
-      <c r="C45" s="31"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="7"/>
       <c r="E45" s="3"/>
       <c r="F45" s="7"/>
@@ -2870,9 +3292,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="30"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="7"/>
-      <c r="C46" s="31"/>
+      <c r="C46" s="30"/>
       <c r="D46" s="7"/>
       <c r="E46" s="3"/>
       <c r="F46" s="7"/>
@@ -2889,9 +3311,9 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="30"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="7"/>
-      <c r="C47" s="31"/>
+      <c r="C47" s="30"/>
       <c r="D47" s="7"/>
       <c r="E47" s="3"/>
       <c r="F47" s="7"/>
@@ -2908,9 +3330,9 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="30"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="7"/>
-      <c r="C48" s="31"/>
+      <c r="C48" s="30"/>
       <c r="D48" s="7"/>
       <c r="E48" s="3"/>
       <c r="F48" s="7"/>
@@ -2927,9 +3349,9 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="30"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="7"/>
-      <c r="C49" s="31"/>
+      <c r="C49" s="30"/>
       <c r="D49" s="7"/>
       <c r="E49" s="3"/>
       <c r="F49" s="7"/>
@@ -2946,9 +3368,9 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="30"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="7"/>
-      <c r="C50" s="31"/>
+      <c r="C50" s="30"/>
       <c r="D50" s="7"/>
       <c r="E50" s="3"/>
       <c r="F50" s="7"/>
@@ -2965,9 +3387,9 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="30"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="31"/>
+      <c r="C51" s="30"/>
       <c r="D51" s="7"/>
       <c r="E51" s="3"/>
       <c r="F51" s="7"/>
@@ -2984,9 +3406,9 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="30"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="7"/>
-      <c r="C52" s="31"/>
+      <c r="C52" s="30"/>
       <c r="D52" s="7"/>
       <c r="E52" s="3"/>
       <c r="F52" s="7"/>
@@ -3005,7 +3427,7 @@
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="25"/>
       <c r="B53" s="7"/>
-      <c r="C53" s="31"/>
+      <c r="C53" s="30"/>
       <c r="D53" s="7"/>
       <c r="E53" s="3"/>
       <c r="F53" s="7"/>
@@ -3024,7 +3446,7 @@
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="25"/>
       <c r="B54" s="7"/>
-      <c r="C54" s="31"/>
+      <c r="C54" s="30"/>
       <c r="D54" s="7"/>
       <c r="E54" s="3"/>
       <c r="F54" s="7"/>
@@ -3043,7 +3465,7 @@
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="25"/>
       <c r="B55" s="7"/>
-      <c r="C55" s="31"/>
+      <c r="C55" s="30"/>
       <c r="D55" s="7"/>
       <c r="E55" s="3"/>
       <c r="F55" s="7"/>
@@ -3062,7 +3484,7 @@
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="31"/>
+      <c r="C56" s="30"/>
       <c r="D56" s="7"/>
       <c r="E56" s="3"/>
       <c r="F56" s="7"/>
@@ -3081,7 +3503,7 @@
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="25"/>
       <c r="B57" s="7"/>
-      <c r="C57" s="31"/>
+      <c r="C57" s="30"/>
       <c r="D57" s="7"/>
       <c r="E57" s="3"/>
       <c r="F57" s="7"/>
@@ -3097,158 +3519,6 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="20" t="str">
-        <f>IF(A58&lt;&gt;"",COUNTIF(Activity!A:A,A58),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="20" t="str">
-        <f>IF(A59&lt;&gt;"",COUNTIF(Activity!A:A,A59),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="20" t="str">
-        <f>IF(A60&lt;&gt;"",COUNTIF(Activity!A:A,A60),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="20" t="str">
-        <f>IF(A61&lt;&gt;"",COUNTIF(Activity!A:A,A61),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="20" t="str">
-        <f>IF(A62&lt;&gt;"",COUNTIF(Activity!A:A,A62),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="20" t="str">
-        <f>IF(A63&lt;&gt;"",COUNTIF(Activity!A:A,A63),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="20" t="str">
-        <f>IF(A64&lt;&gt;"",COUNTIF(Activity!A:A,A64),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="20" t="str">
-        <f>IF(A65&lt;&gt;"",COUNTIF(Activity!A:A,A65),"")</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3261,7 +3531,7 @@
           <x14:formula1>
             <xm:f>Var!$B$2:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D65</xm:sqref>
+          <xm:sqref>D2:D57</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3270,6 +3540,672 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C290590-27BE-46D2-84BE-E2B128CC7D3D}">
+  <dimension ref="A1:Q23"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+    </row>
+    <row r="2" spans="1:17" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="e" cm="1" vm="1">
+        <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;"""")*(Activity!G:G&lt;&gt;"Y"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" s="3" t="e" cm="1" vm="1">
+        <f t="array" ref="B3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!G:G&lt;&gt;"Y"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>317464646</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="K3" s="19">
+        <v>45323</v>
+      </c>
+      <c r="L3" s="19">
+        <v>45323</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="14">
+        <v>317660050</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="6">
+        <v>2323</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2323</v>
+      </c>
+      <c r="K4" s="19">
+        <v>44958</v>
+      </c>
+      <c r="L4" s="19">
+        <v>44958</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="14">
+        <v>317672066</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="K5" s="19">
+        <v>45323</v>
+      </c>
+      <c r="L5" s="19">
+        <v>45689</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="14">
+        <v>317672099</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="19">
+        <v>45323</v>
+      </c>
+      <c r="L6" s="19">
+        <v>45689</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <v>1000632953</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="O7" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>1000632975</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>1000632986</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="19">
+        <v>42531</v>
+      </c>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>1000634086</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19">
+        <v>42531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>1000881944</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="O11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>1000881955</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="O12" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>1000882198</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="19">
+        <v>42402</v>
+      </c>
+      <c r="L13" s="19"/>
+      <c r="O13" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>1000882201</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19">
+        <v>42406</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <v>1000544283</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="K15" s="19">
+        <v>45323</v>
+      </c>
+      <c r="L15" s="19">
+        <v>45689</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <v>287437941</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="K16" s="19">
+        <v>45323</v>
+      </c>
+      <c r="L16" s="19">
+        <v>45689</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <v>315342686</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="K17" s="19">
+        <v>45323</v>
+      </c>
+      <c r="L17" s="19">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
+        <v>317711880</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="K18" s="19">
+        <v>45323</v>
+      </c>
+      <c r="L18" s="19">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <v>1000725699</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="K19" s="19">
+        <v>45323</v>
+      </c>
+      <c r="L19" s="19">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>1001079370</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="K20" s="19">
+        <v>45323</v>
+      </c>
+      <c r="L20" s="19">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <v>253011491</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="K21" s="19">
+        <v>45323</v>
+      </c>
+      <c r="L21" s="19">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <v>317464646</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="K22" s="19">
+        <v>45323</v>
+      </c>
+      <c r="L22" s="19">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="14">
+        <v>317660050</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="K23" s="19">
+        <v>45323</v>
+      </c>
+      <c r="L23" s="19">
+        <v>45323</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{39E8237B-9413-4A55-B6E4-D44CD08A5131}">
+          <x14:formula1>
+            <xm:f>Var!$B$13:$B$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570D8653-5A3D-4C31-A9C8-843719706B5C}">
   <dimension ref="A1:X16"/>
   <sheetViews>
@@ -3295,19 +4231,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
@@ -3603,493 +4539,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDECCE7E-6CCB-49CF-B9BE-26D9732D6A27}">
-  <dimension ref="A1:P22"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.5546875" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="str" cm="1">
-        <f t="array" ref="A3:A4">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;"""")*(Activity!G:G&lt;&gt;"Y"))</f>
-        <v>A001</v>
-      </c>
-      <c r="B3" s="3" cm="1">
-        <f t="array" ref="B3:D4">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!G:G&lt;&gt;"Y"))</f>
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="str">
-        <v>Pemindahbukuan</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <v>test</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="G3" s="10">
-        <v>1100000000000</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="str">
-        <v>A003</v>
-      </c>
-      <c r="B4" s="3">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="str">
-        <v>Pemindahbukuan</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <v>test</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1200000000000</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>1000007939</v>
-      </c>
-      <c r="F5" s="4">
-        <v>200080295</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1100000000000</v>
-      </c>
-      <c r="N5" s="4">
-        <v>1000810133</v>
-      </c>
-      <c r="O5" s="3">
-        <v>1000007939</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4">
-        <v>1000810133</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1000810199</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1200000000000</v>
-      </c>
-      <c r="N6" s="4">
-        <v>1000810348</v>
-      </c>
-      <c r="O6" s="4">
-        <v>1000007928</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4">
-        <v>1000810348</v>
-      </c>
-      <c r="F7" s="3">
-        <v>200084449</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1300000000000</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1000810144</v>
-      </c>
-      <c r="O7" s="3">
-        <v>1000613690</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4">
-        <v>1000007928</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1000810166</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1400000000000</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1000810155</v>
-      </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4">
-        <v>1000007928</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1000810166</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1400000000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <v>1000613690</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1500000000000</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <v>1000810144</v>
-      </c>
-      <c r="F11" s="3">
-        <v>200078491</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1600000000000</v>
-      </c>
-      <c r="N11" s="3">
-        <v>1000810199</v>
-      </c>
-      <c r="O11" s="4">
-        <v>200080295</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
-        <v>1000810155</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1700000000000</v>
-      </c>
-      <c r="N12" s="4">
-        <v>1000810166</v>
-      </c>
-      <c r="O12" s="3">
-        <v>200084449</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="F13" s="3">
-        <v>225281702</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1800000000000</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1000810202</v>
-      </c>
-      <c r="O13" s="3">
-        <v>200078491</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1000810202</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1900000000000</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3">
-        <v>225281702</v>
-      </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="F15" s="3">
-        <v>225281702</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1800000000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1000810202</v>
-      </c>
-      <c r="G16" s="10">
-        <v>1900000000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4">
-        <v>1000007928</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1000810166</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1400000000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="G18" s="10">
-        <v>1300000000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3">
-        <v>1000810144</v>
-      </c>
-      <c r="F19" s="3">
-        <v>200078491</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1100000000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3">
-        <v>1000810155</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1200000000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4">
-        <v>1000007928</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1000810166</v>
-      </c>
-      <c r="G21" s="10">
-        <v>1400000000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="G22" s="10">
-        <v>1300000000000</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5028B80F-2914-4662-B83F-8304FA6E5AA1}">
-          <x14:formula1>
-            <xm:f>Var!$B$13:$B$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>A1:G1</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F24C01-C853-4210-B6F2-D96E9B3CD0E5}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4111,15 +4566,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -4393,15 +4848,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -4427,20 +4882,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="str" cm="1">
+      <c r="A3" s="3" t="e" cm="1" vm="1">
         <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;"""")*(Activity!G:G&lt;&gt;"Y"))</f>
-        <v>A001</v>
-      </c>
-      <c r="B3" s="3" cm="1">
-        <f t="array" ref="B3:D3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!G:G&lt;&gt;"Y"))</f>
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="str">
-        <v>Blokir Rekening</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" s="3" t="e" cm="1" vm="1">
+        <f t="array" ref="B3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!G:G&lt;&gt;"Y"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>226356621</v>
       </c>
@@ -4515,14 +4966,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -4628,20 +5079,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -4770,20 +5221,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D923057-5622-4B75-B52E-77EA52D2CA36}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
     <col min="3" max="3" width="4.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4808,106 +5259,94 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>307</v>
+      <c r="A2" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="B2" s="3" t="str">
         <f>IF(A2="", "",VLOOKUP(A2,Batch!A:E,5,FALSE))</f>
-        <v>Bulk Upload</v>
+        <v>Retest Bucket, Asuransi, Pinbuk</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>119</v>
+      <c r="D2" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>305</v>
-      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>307</v>
+      <c r="A3" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="B3" s="3" t="str">
         <f>IF(A3="", "",VLOOKUP(A3,Batch!A:E,5,FALSE))</f>
-        <v>Bulk Upload</v>
+        <v>Retest Bucket, Asuransi, Pinbuk</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>115</v>
+      <c r="D3" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>308</v>
-      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>307</v>
+      <c r="A4" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="B4" s="3" t="str">
         <f>IF(A4="", "",VLOOKUP(A4,Batch!A:E,5,FALSE))</f>
-        <v>Bulk Upload</v>
+        <v>Retest Bucket, Asuransi, Pinbuk</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>119</v>
+      <c r="D4" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>310</v>
-      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>307</v>
+      <c r="A5" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="B5" s="3" t="str">
         <f>IF(A5="", "",VLOOKUP(A5,Batch!A:E,5,FALSE))</f>
-        <v>Bulk Upload</v>
+        <v>Retest Bucket, Asuransi, Pinbuk</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>111</v>
+      <c r="D5" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>309</v>
@@ -4915,125 +5354,131 @@
       <c r="F5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>311</v>
+      <c r="A6" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="B6" s="3" t="str">
         <f>IF(A6="", "",VLOOKUP(A6,Batch!A:E,5,FALSE))</f>
-        <v>Test</v>
+        <v>Retest Bucket, Asuransi, Pinbuk</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>119</v>
+      <c r="D6" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>307</v>
+      <c r="A7" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="B7" s="3" t="str">
         <f>IF(A7="", "",VLOOKUP(A7,Batch!A:E,5,FALSE))</f>
-        <v>Bulk Upload</v>
+        <v>Retest Bucket, Asuransi, Pinbuk</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="3"/>
+      <c r="D7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="F7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>307</v>
+      <c r="A8" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="B8" s="3" t="str">
         <f>IF(A8="", "",VLOOKUP(A8,Batch!A:E,5,FALSE))</f>
-        <v>Bulk Upload</v>
+        <v>Retest Bucket, Asuransi, Pinbuk</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="F8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>307</v>
+      <c r="A9" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="B9" s="3" t="str">
         <f>IF(A9="", "",VLOOKUP(A9,Batch!A:E,5,FALSE))</f>
-        <v>Bulk Upload</v>
+        <v>Retest Bucket, Asuransi, Pinbuk</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="3"/>
+      <c r="D9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>313</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>313</v>
+      <c r="A10" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="B10" s="3" t="str">
         <f>IF(A10="", "",VLOOKUP(A10,Batch!A:E,5,FALSE))</f>
-        <v>Test</v>
+        <v>Retest Bucket, Asuransi, Pinbuk</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>313</v>
+      <c r="A11" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="B11" s="3" t="str">
         <f>IF(A11="", "",VLOOKUP(A11,Batch!A:E,5,FALSE))</f>
-        <v>Test</v>
+        <v>Retest Bucket, Asuransi, Pinbuk</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
@@ -5042,80 +5487,76 @@
         <v>114</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>313</v>
+      <c r="A12" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="B12" s="3" t="str">
         <f>IF(A12="", "",VLOOKUP(A12,Batch!A:E,5,FALSE))</f>
-        <v>Test</v>
+        <v>Retest Bucket, Asuransi, Pinbuk</v>
       </c>
       <c r="C12" s="3">
         <v>11</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>305</v>
-      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>313</v>
+      <c r="A13" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="B13" s="3" t="str">
         <f>IF(A13="", "",VLOOKUP(A13,Batch!A:E,5,FALSE))</f>
-        <v>Test</v>
+        <v>Retest Bucket, Asuransi, Pinbuk</v>
       </c>
       <c r="C13" s="3">
         <v>12</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>318</v>
+      <c r="A14" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="B14" s="3" t="str">
         <f>IF(A14="", "",VLOOKUP(A14,Batch!A:E,5,FALSE))</f>
-        <v>Asuransi Single Side</v>
+        <v>Retest Bucket, Asuransi, Pinbuk</v>
       </c>
       <c r="C14" s="3">
         <v>13</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>320</v>
+        <v>114</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>67</v>
@@ -5124,21 +5565,21 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>318</v>
+      <c r="A15" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>IF(A15="", "",VLOOKUP(A15,Batch!A:E,5,FALSE))</f>
-        <v>Asuransi Single Side</v>
+        <v>Retest Bucket, Asuransi, Pinbuk</v>
       </c>
       <c r="C15" s="3">
         <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>322</v>
+        <v>114</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>67</v>
@@ -5147,21 +5588,21 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>318</v>
+      <c r="A16" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="B16" s="3" t="str">
         <f>IF(A16="", "",VLOOKUP(A16,Batch!A:E,5,FALSE))</f>
-        <v>Asuransi Single Side</v>
+        <v>Retest Bucket, Asuransi, Pinbuk</v>
       </c>
       <c r="C16" s="3">
         <v>15</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>326</v>
+        <v>114</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>67</v>
@@ -5170,21 +5611,21 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>318</v>
+      <c r="A17" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="B17" s="3" t="str">
         <f>IF(A17="", "",VLOOKUP(A17,Batch!A:E,5,FALSE))</f>
-        <v>Asuransi Single Side</v>
+        <v>Retest Bucket, Asuransi, Pinbuk</v>
       </c>
       <c r="C17" s="3">
         <v>16</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>327</v>
+      <c r="E17" s="7" t="s">
+        <v>339</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>67</v>
@@ -5193,21 +5634,21 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>344</v>
+      <c r="A18" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="B18" s="3" t="str">
         <f>IF(A18="", "",VLOOKUP(A18,Batch!A:E,5,FALSE))</f>
-        <v>Bucket Single Side</v>
+        <v>Retest Bucket, Asuransi, Pinbuk</v>
       </c>
       <c r="C18" s="3">
         <v>17</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>328</v>
+      <c r="D18" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>67</v>
@@ -5216,44 +5657,44 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>344</v>
+      <c r="A19" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="B19" s="3" t="str">
         <f>IF(A19="", "",VLOOKUP(A19,Batch!A:E,5,FALSE))</f>
-        <v>Bucket Single Side</v>
+        <v>Retest Bucket, Asuransi, Pinbuk</v>
       </c>
       <c r="C19" s="3">
         <v>18</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>114</v>
+      <c r="D19" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>344</v>
+      <c r="A20" s="27" t="s">
+        <v>373</v>
       </c>
       <c r="B20" s="3" t="str">
         <f>IF(A20="", "",VLOOKUP(A20,Batch!A:E,5,FALSE))</f>
-        <v>Bucket Single Side</v>
+        <v>Retest Bucket, Asuransi, Pinbuk</v>
       </c>
       <c r="C20" s="3">
         <v>19</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>114</v>
+      <c r="D20" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>67</v>
@@ -5262,735 +5703,27 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>344</v>
+      <c r="A21" s="27" t="s">
+        <v>377</v>
       </c>
       <c r="B21" s="3" t="str">
         <f>IF(A21="", "",VLOOKUP(A21,Batch!A:E,5,FALSE))</f>
-        <v>Bucket Single Side</v>
+        <v>Rekening WORST COLLECTIBILITY = 1, Kode Restruk Selain Blank dan 8</v>
       </c>
       <c r="C21" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>114</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>67</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B22" s="3" t="str">
-        <f>IF(A22="", "",VLOOKUP(A22,Batch!A:E,5,FALSE))</f>
-        <v>Bucket Single Side</v>
-      </c>
-      <c r="C22" s="3">
-        <v>21</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B23" s="3" t="str">
-        <f>IF(A23="", "",VLOOKUP(A23,Batch!A:E,5,FALSE))</f>
-        <v>Bucket Single Side</v>
-      </c>
-      <c r="C23" s="3">
-        <v>22</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B24" s="3" t="str">
-        <f>IF(A24="", "",VLOOKUP(A24,Batch!A:E,5,FALSE))</f>
-        <v>Bucket Single Side</v>
-      </c>
-      <c r="C24" s="3">
-        <v>23</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B25" s="3" t="str">
-        <f>IF(A25="", "",VLOOKUP(A25,Batch!A:E,5,FALSE))</f>
-        <v>Bucket Single Side</v>
-      </c>
-      <c r="C25" s="3">
-        <v>24</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B26" s="3" t="str">
-        <f>IF(A26="", "",VLOOKUP(A26,Batch!A:E,5,FALSE))</f>
-        <v>Bucket Single Side</v>
-      </c>
-      <c r="C26" s="3">
-        <v>25</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B27" s="3" t="str">
-        <f>IF(A27="", "",VLOOKUP(A27,Batch!A:E,5,FALSE))</f>
-        <v>Bucket Single Side</v>
-      </c>
-      <c r="C27" s="3">
-        <v>26</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B28" s="3" t="str">
-        <f>IF(A28="", "",VLOOKUP(A28,Batch!A:E,5,FALSE))</f>
-        <v>Bucket Single Side</v>
-      </c>
-      <c r="C28" s="3">
-        <v>27</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B29" s="3" t="str">
-        <f>IF(A29="", "",VLOOKUP(A29,Batch!A:E,5,FALSE))</f>
-        <v>Bucket Single Side</v>
-      </c>
-      <c r="C29" s="3">
-        <v>28</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B30" s="3" t="str">
-        <f>IF(A30="", "",VLOOKUP(A30,Batch!A:E,5,FALSE))</f>
-        <v>Bucket Single Side</v>
-      </c>
-      <c r="C30" s="3">
-        <v>29</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B31" s="3" t="str">
-        <f>IF(A31="", "",VLOOKUP(A31,Batch!A:E,5,FALSE))</f>
-        <v>Bucket Single Side</v>
-      </c>
-      <c r="C31" s="3">
-        <v>30</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B32" s="3" t="str">
-        <f>IF(A32="", "",VLOOKUP(A32,Batch!A:E,5,FALSE))</f>
-        <v>Bucket Single Side</v>
-      </c>
-      <c r="C32" s="3">
-        <v>31</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
-      <c r="B33" s="3" t="str">
-        <f>IF(A33="", "",VLOOKUP(A33,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
-      <c r="B34" s="3" t="str">
-        <f>IF(A34="", "",VLOOKUP(A34,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
-      <c r="B35" s="3" t="str">
-        <f>IF(A35="", "",VLOOKUP(A35,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="27"/>
-      <c r="B36" s="3" t="str">
-        <f>IF(A36="", "",VLOOKUP(A36,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
-      <c r="B37" s="3" t="str">
-        <f>IF(A37="", "",VLOOKUP(A37,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="3" t="str">
-        <f>IF(A38="", "",VLOOKUP(A38,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="27"/>
-      <c r="B39" s="3" t="str">
-        <f>IF(A39="", "",VLOOKUP(A39,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="27"/>
-      <c r="B40" s="3" t="str">
-        <f>IF(A40="", "",VLOOKUP(A40,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="27"/>
-      <c r="B41" s="3" t="str">
-        <f>IF(A41="", "",VLOOKUP(A41,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
-      <c r="B42" s="3" t="str">
-        <f>IF(A42="", "",VLOOKUP(A42,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="27"/>
-      <c r="B43" s="3" t="str">
-        <f>IF(A43="", "",VLOOKUP(A43,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="27"/>
-      <c r="B44" s="3" t="str">
-        <f>IF(A44="", "",VLOOKUP(A44,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="3" t="str">
-        <f>IF(A45="", "",VLOOKUP(A45,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
-      <c r="B46" s="3" t="str">
-        <f>IF(A46="", "",VLOOKUP(A46,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
-      <c r="B47" s="3" t="str">
-        <f>IF(A47="", "",VLOOKUP(A47,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
-      <c r="B48" s="3" t="str">
-        <f>IF(A48="", "",VLOOKUP(A48,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
-      <c r="B49" s="3" t="str">
-        <f>IF(A49="", "",VLOOKUP(A49,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
-      <c r="B50" s="3" t="str">
-        <f>IF(A50="", "",VLOOKUP(A50,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
-      <c r="B51" s="3" t="str">
-        <f>IF(A51="", "",VLOOKUP(A51,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
-      <c r="B52" s="3" t="str">
-        <f>IF(A52="", "",VLOOKUP(A52,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="28"/>
-      <c r="B53" s="3" t="str">
-        <f>IF(A53="", "",VLOOKUP(A53,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="28"/>
-      <c r="B54" s="3" t="str">
-        <f>IF(A54="", "",VLOOKUP(A54,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="28"/>
-      <c r="B55" s="3" t="str">
-        <f>IF(A55="", "",VLOOKUP(A55,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="28"/>
-      <c r="B56" s="3" t="str">
-        <f>IF(A56="", "",VLOOKUP(A56,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
-      <c r="B57" s="3" t="str">
-        <f>IF(A57="", "",VLOOKUP(A57,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="28"/>
-      <c r="B58" s="3" t="str">
-        <f>IF(A58="", "",VLOOKUP(A58,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="28"/>
-      <c r="B59" s="3" t="str">
-        <f>IF(A59="", "",VLOOKUP(A59,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="28"/>
-      <c r="B60" s="3" t="str">
-        <f>IF(A60="", "",VLOOKUP(A60,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="28"/>
-      <c r="B61" s="3" t="str">
-        <f>IF(A61="", "",VLOOKUP(A61,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3" t="str">
-        <f>IF(A62="", "",VLOOKUP(A62,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3" t="str">
-        <f>IF(A63="", "",VLOOKUP(A63,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3" t="str">
-        <f>IF(A64="", "",VLOOKUP(A64,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3" t="str">
-        <f>IF(A65="", "",VLOOKUP(A65,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3" t="str">
-        <f>IF(A66="", "",VLOOKUP(A66,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3" t="str">
-        <f>IF(A67="", "",VLOOKUP(A67,Batch!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5998,24 +5731,18 @@
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{691E1A8B-4B71-4070-BA0B-083A8025DF5B}">
-          <x14:formula1>
-            <xm:f>Batch!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>A62:A67 A2:A32</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{593B68EA-C046-4643-8C2B-295BCBFD6066}">
           <x14:formula1>
             <xm:f>Var!$B$8:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F67</xm:sqref>
+          <xm:sqref>F2:F21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FAF5F033-C3D2-4CC6-8DCE-0986036BE00C}">
           <x14:formula1>
             <xm:f>Var!$B$13:$B$22</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D67</xm:sqref>
+          <xm:sqref>D2:D21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6025,10 +5752,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70752A91-83F7-4766-8B3A-6B1F070C7186}">
-  <dimension ref="A1:AE27"/>
+  <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6612,35 +6339,25 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>76331</v>
+        <v>19784</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="4">
-        <v>19784</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -8097,6 +7814,69 @@
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
     </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>6</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>76331</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L31" s="4">
+        <v>19784</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8106,10 +7886,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615939AB-F0E8-430C-A7E8-C811E2A909E6}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8301,6 +8081,30 @@
         <v>135</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8311,7 +8115,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8365,16 +8169,16 @@
         <v>231</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>237</v>
@@ -8395,16 +8199,16 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>238</v>
@@ -8423,16 +8227,16 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>252</v>
@@ -8451,16 +8255,16 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>253</v>
@@ -8477,7 +8281,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="C6" s="23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>241</v>
@@ -8512,10 +8316,10 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -8528,10 +8332,10 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -8544,10 +8348,10 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -8560,7 +8364,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -8574,7 +8378,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -8602,7 +8406,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -8616,7 +8420,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -8630,7 +8434,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="23" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -8644,7 +8448,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="23" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -8662,10 +8466,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7F4889-46AF-4808-B06F-ACED5C6C53AF}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8678,25 +8482,28 @@
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="11" max="12" width="11.21875" customWidth="1"/>
+    <col min="15" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -8713,7 +8520,7 @@
         <v>132</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>146</v>
@@ -8725,544 +8532,926 @@
         <v>148</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str" cm="1">
-        <f t="array" ref="A3:A19">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;"""")*(Activity!G:G&lt;&gt;"Y"))</f>
-        <v>A001</v>
+        <f t="array" ref="A3:A18">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;"""")*(Activity!G:G&lt;&gt;"Y"))</f>
+        <v>A801</v>
       </c>
       <c r="B3" s="3" cm="1">
-        <f t="array" ref="B3:D19">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!G:G&lt;&gt;"Y"))</f>
-        <v>7</v>
+        <f t="array" ref="B3:D18">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!G:G&lt;&gt;"Y"))</f>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="str">
         <v>Bucket Adjusment</v>
       </c>
-      <c r="D3" s="3">
-        <v>0</v>
+      <c r="D3" s="3" t="str">
+        <v>Rekening WORST COLLECTIBILITY = 1, Kode Restruk Blank</v>
       </c>
       <c r="E3" s="3">
-        <v>1000544283</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>1001054800</v>
+      </c>
+      <c r="F3" s="10">
+        <v>-10001</v>
+      </c>
       <c r="G3" s="10">
-        <v>200000</v>
+        <v>-10002</v>
       </c>
       <c r="H3" s="10">
-        <v>200000</v>
+        <v>-10003</v>
       </c>
       <c r="I3" s="10">
-        <v>200000</v>
-      </c>
-      <c r="J3" s="10">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-10004</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
+        <v>222325993</v>
+      </c>
+      <c r="L3" s="3">
+        <v>222325993</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1000001449</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1000001449</v>
+      </c>
+      <c r="R3">
+        <v>222325993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
-        <v>A003</v>
+        <v>A801</v>
       </c>
       <c r="B4" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="str">
         <v>Bucket Adjusment</v>
       </c>
       <c r="D4" s="3" t="str">
-        <v>test</v>
+        <v>Rekening WORST COLLECTIBILITY = 2, Kode Restruk Blank</v>
       </c>
       <c r="E4" s="3">
-        <v>1000810348</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10">
-        <v>-210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1000544034</v>
+      </c>
+      <c r="F4" s="10">
+        <v>-10001</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-10002</v>
+      </c>
+      <c r="H4" s="10">
+        <v>-10003</v>
+      </c>
+      <c r="I4" s="10">
+        <v>-10004</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
+        <v>223201727</v>
+      </c>
+      <c r="L4" s="3">
+        <v>223201727</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1000002396</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1000002396</v>
+      </c>
+      <c r="R4">
+        <v>223201727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
-        <v>A007</v>
+        <v>A801</v>
       </c>
       <c r="B5" s="3">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3" t="str">
         <v>Bucket Adjusment</v>
       </c>
       <c r="D5" s="3" t="str">
-        <v>Rekening WORST COLLECTIBILITY = 1, Kode Restruk Blank</v>
+        <v>Rekening WORST COLLECTIBILITY = 1, Kode Restruk 8</v>
       </c>
       <c r="E5" s="3">
-        <v>166282203</v>
+        <v>1000647552</v>
       </c>
       <c r="F5" s="10">
-        <v>200000</v>
+        <v>-10001</v>
       </c>
       <c r="G5" s="10">
-        <v>200000</v>
+        <v>-10002</v>
       </c>
       <c r="H5" s="10">
-        <v>200000</v>
+        <v>-10003</v>
       </c>
       <c r="I5" s="10">
-        <v>200000</v>
-      </c>
-      <c r="J5" s="10">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-10004</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="3">
+        <v>225763138</v>
+      </c>
+      <c r="L5" s="3">
+        <v>225763138</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1000004348</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1000004348</v>
+      </c>
+      <c r="R5">
+        <v>225763138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
-        <v>A007</v>
+        <v>A801</v>
       </c>
       <c r="B6" s="3">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="str">
         <v>Bucket Adjusment</v>
       </c>
       <c r="D6" s="3" t="str">
-        <v>Rekening WORST COLLECTIBILITY = 2, Kode Restruk Blank</v>
+        <v>Rekening WORST COLLECTIBILITY = 2, Kode Restruk 8</v>
       </c>
       <c r="E6" s="3">
-        <v>225169064</v>
+        <v>1000099455</v>
       </c>
       <c r="F6" s="10">
-        <v>200000</v>
+        <v>-10001</v>
       </c>
       <c r="G6" s="10">
-        <v>200000</v>
+        <v>-10002</v>
       </c>
       <c r="H6" s="10">
-        <v>200000</v>
+        <v>-10003</v>
       </c>
       <c r="I6" s="10">
-        <v>200000</v>
-      </c>
-      <c r="J6" s="10">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-10004</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
+        <v>226356031</v>
+      </c>
+      <c r="L6" s="3">
+        <v>226356031</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1000004553</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1000004553</v>
+      </c>
+      <c r="R6">
+        <v>226356031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
-        <v>A007</v>
+        <v>A801</v>
       </c>
       <c r="B7" s="3">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="str">
         <v>Bucket Adjusment</v>
       </c>
       <c r="D7" s="3" t="str">
-        <v>Rekening WORST COLLECTIBILITY = 1, Kode Restruk 8</v>
+        <v>Rekening WORST COLLECTIBILITY = 1, Kode Restruk Selain Blank dan 8</v>
       </c>
       <c r="E7" s="3">
-        <v>1000103576</v>
+        <v>1000645690</v>
       </c>
       <c r="F7" s="10">
-        <v>200000</v>
+        <v>-10001</v>
       </c>
       <c r="G7" s="10">
-        <v>200000</v>
+        <v>-10002</v>
       </c>
       <c r="H7" s="10">
-        <v>200000</v>
+        <v>-10003</v>
       </c>
       <c r="I7" s="10">
-        <v>200000</v>
-      </c>
-      <c r="J7" s="10">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-10004</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
+        <v>223180148</v>
+      </c>
+      <c r="L7" s="3">
+        <v>223180148</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1000005091</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1000005091</v>
+      </c>
+      <c r="R7">
+        <v>223180148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
-        <v>A007</v>
+        <v>A801</v>
       </c>
       <c r="B8" s="3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="str">
         <v>Bucket Adjusment</v>
       </c>
       <c r="D8" s="3" t="str">
-        <v>Rekening WORST COLLECTIBILITY = 2, Kode Restruk 8</v>
+        <v>Rekening WORST COLLECTIBILITY = 2, Kode Restruk Selain Blank dan 8</v>
       </c>
       <c r="E8" s="3">
-        <v>316027708</v>
+        <v>1000667931</v>
       </c>
       <c r="F8" s="10">
-        <v>200000</v>
+        <v>-10001</v>
       </c>
       <c r="G8" s="10">
-        <v>200000</v>
+        <v>-10002</v>
       </c>
       <c r="H8" s="10">
-        <v>200000</v>
+        <v>-10003</v>
       </c>
       <c r="I8" s="10">
-        <v>200000</v>
-      </c>
-      <c r="J8" s="10">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-10004</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
+        <v>224478438</v>
+      </c>
+      <c r="L8" s="3">
+        <v>224478438</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1000005295</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1000005295</v>
+      </c>
+      <c r="R8">
+        <v>224478438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
-        <v>A007</v>
+        <v>A801</v>
       </c>
       <c r="B9" s="3">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="str">
         <v>Bucket Adjusment</v>
       </c>
       <c r="D9" s="3" t="str">
-        <v>Rekening WORST COLLECTIBILITY = 1, Kode Restruk Selain Blank dan 8</v>
+        <v>Rekening WORST COLLECTIBILITY = 3, Kode Restruk Blank</v>
       </c>
       <c r="E9" s="3">
-        <v>1000809853</v>
+        <v>1000083581</v>
       </c>
       <c r="F9" s="10">
-        <v>200000</v>
+        <v>-10001</v>
       </c>
       <c r="G9" s="10">
-        <v>200000</v>
+        <v>-10002</v>
       </c>
       <c r="H9" s="10">
-        <v>200000</v>
+        <v>-10003</v>
       </c>
       <c r="I9" s="10">
-        <v>200000</v>
-      </c>
-      <c r="J9" s="10">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-10004</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>222246250</v>
+      </c>
+      <c r="L9" s="3">
+        <v>222246250</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1000005319</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1000005319</v>
+      </c>
+      <c r="R9">
+        <v>222246250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
-        <v>A007</v>
+        <v>A801</v>
       </c>
       <c r="B10" s="3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="str">
         <v>Bucket Adjusment</v>
       </c>
       <c r="D10" s="3" t="str">
-        <v>Rekening WORST COLLECTIBILITY = 2, Kode Restruk Selain Blank dan 8</v>
+        <v>Rekening WORST COLLECTIBILITY = 4, Kode Restruk Blank</v>
       </c>
       <c r="E10" s="3">
-        <v>1000139853</v>
+        <v>317511520</v>
       </c>
       <c r="F10" s="10">
-        <v>200000</v>
+        <v>-10001</v>
       </c>
       <c r="G10" s="10">
-        <v>200000</v>
+        <v>-10002</v>
       </c>
       <c r="H10" s="10">
-        <v>200000</v>
+        <v>-10003</v>
       </c>
       <c r="I10" s="10">
-        <v>200000</v>
-      </c>
-      <c r="J10" s="10">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-10004</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
+        <v>177736899</v>
+      </c>
+      <c r="L10" s="3">
+        <v>177736899</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1000005422</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1000005422</v>
+      </c>
+      <c r="R10">
+        <v>177736899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
-        <v>A007</v>
+        <v>A801</v>
       </c>
       <c r="B11" s="3">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="str">
         <v>Bucket Adjusment</v>
       </c>
       <c r="D11" s="3" t="str">
-        <v>Rekening WORST COLLECTIBILITY = 3, Kode Restruk Blank</v>
+        <v>Rekening WORST COLLECTIBILITY = 5, Kode Restruk Blank</v>
       </c>
       <c r="E11" s="3">
-        <v>317717826</v>
+        <v>155420938</v>
       </c>
       <c r="F11" s="10">
-        <v>200000</v>
+        <v>-10001</v>
       </c>
       <c r="G11" s="10">
-        <v>200000</v>
+        <v>-10002</v>
       </c>
       <c r="H11" s="10">
-        <v>200000</v>
+        <v>-10003</v>
       </c>
       <c r="I11" s="10">
-        <v>200000</v>
-      </c>
-      <c r="J11" s="10">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-10004</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3">
+        <v>204979470</v>
+      </c>
+      <c r="L11" s="3">
+        <v>204979470</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1000005433</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1000005433</v>
+      </c>
+      <c r="R11">
+        <v>204979470</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="str">
-        <v>A007</v>
+        <v>A801</v>
       </c>
       <c r="B12" s="3">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="str">
         <v>Bucket Adjusment</v>
       </c>
       <c r="D12" s="3" t="str">
-        <v>Rekening WORST COLLECTIBILITY = 4, Kode Restruk Blank</v>
+        <v>Rekening WORST COLLECTIBILITY = 3, Kode Restruk 8</v>
       </c>
       <c r="E12" s="3">
-        <v>317717768</v>
+        <v>317446491</v>
       </c>
       <c r="F12" s="10">
-        <v>200000</v>
+        <v>-10001</v>
       </c>
       <c r="G12" s="10">
-        <v>200000</v>
+        <v>-10002</v>
       </c>
       <c r="H12" s="10">
-        <v>200000</v>
+        <v>-10003</v>
       </c>
       <c r="I12" s="10">
-        <v>200000</v>
-      </c>
-      <c r="J12" s="10">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-10004</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3">
+        <v>223118679</v>
+      </c>
+      <c r="L12" s="3">
+        <v>223118679</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1000005444</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1000005444</v>
+      </c>
+      <c r="R12">
+        <v>223118679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
-        <v>A007</v>
+        <v>A801</v>
       </c>
       <c r="B13" s="3">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3" t="str">
         <v>Bucket Adjusment</v>
       </c>
       <c r="D13" s="3" t="str">
-        <v>Rekening WORST COLLECTIBILITY = 5, Kode Restruk Blank</v>
+        <v>Rekening WORST COLLECTIBILITY = 4, Kode Restruk 8</v>
       </c>
       <c r="E13" s="3">
-        <v>315700450</v>
+        <v>317658417</v>
       </c>
       <c r="F13" s="10">
-        <v>200000</v>
+        <v>-10001</v>
       </c>
       <c r="G13" s="10">
-        <v>200000</v>
+        <v>-10002</v>
       </c>
       <c r="H13" s="10">
-        <v>200000</v>
+        <v>-10003</v>
       </c>
       <c r="I13" s="10">
-        <v>200000</v>
-      </c>
-      <c r="J13" s="10">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-10004</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3">
+        <v>220908012</v>
+      </c>
+      <c r="L13" s="3">
+        <v>220908012</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1000005455</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1000005455</v>
+      </c>
+      <c r="R13">
+        <v>220908012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
-        <v>A007</v>
+        <v>A801</v>
       </c>
       <c r="B14" s="3">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="str">
         <v>Bucket Adjusment</v>
       </c>
       <c r="D14" s="3" t="str">
-        <v>Rekening WORST COLLECTIBILITY = 3, Kode Restruk 8</v>
+        <v>Rekening WORST COLLECTIBILITY = 5, Kode Restruk 8</v>
       </c>
       <c r="E14" s="3">
-        <v>315608092</v>
+        <v>316987952</v>
       </c>
       <c r="F14" s="10">
-        <v>200000</v>
+        <v>-10001</v>
       </c>
       <c r="G14" s="10">
-        <v>200000</v>
+        <v>-10002</v>
       </c>
       <c r="H14" s="10">
-        <v>200000</v>
+        <v>-10003</v>
       </c>
       <c r="I14" s="10">
-        <v>200000</v>
-      </c>
-      <c r="J14" s="10">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-10004</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3">
+        <v>225787988</v>
+      </c>
+      <c r="L14" s="3">
+        <v>225787988</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1000006243</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1000006243</v>
+      </c>
+      <c r="R14">
+        <v>225787988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
-        <v>A007</v>
+        <v>A801</v>
       </c>
       <c r="B15" s="3">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="str">
         <v>Bucket Adjusment</v>
       </c>
       <c r="D15" s="3" t="str">
-        <v>Rekening WORST COLLECTIBILITY = 4, Kode Restruk 8</v>
+        <v>Rekening WORST COLLECTIBILITY = 3, Kode Restruk Selain Blank dan 8</v>
       </c>
       <c r="E15" s="3">
-        <v>317658177</v>
+        <v>317446504</v>
       </c>
       <c r="F15" s="10">
-        <v>200000</v>
+        <v>-10001</v>
       </c>
       <c r="G15" s="10">
-        <v>200000</v>
+        <v>-10002</v>
       </c>
       <c r="H15" s="10">
-        <v>200000</v>
+        <v>-10003</v>
       </c>
       <c r="I15" s="10">
-        <v>200000</v>
-      </c>
-      <c r="J15" s="10">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-10004</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3">
+        <v>215226505</v>
+      </c>
+      <c r="L15" s="3">
+        <v>215226505</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1000007882</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1000007882</v>
+      </c>
+      <c r="R15">
+        <v>215226505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
-        <v>A007</v>
+        <v>A801</v>
       </c>
       <c r="B16" s="3">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3" t="str">
         <v>Bucket Adjusment</v>
       </c>
       <c r="D16" s="3" t="str">
-        <v>Rekening WORST COLLECTIBILITY = 5, Kode Restruk 8</v>
+        <v>Rekening WORST COLLECTIBILITY = 4, Kode Restruk Selain Blank dan 8</v>
       </c>
       <c r="E16" s="3">
-        <v>315607633</v>
+        <v>317658508</v>
       </c>
       <c r="F16" s="10">
-        <v>200000</v>
+        <v>-10001</v>
       </c>
       <c r="G16" s="10">
-        <v>200000</v>
+        <v>-10002</v>
       </c>
       <c r="H16" s="10">
-        <v>200000</v>
+        <v>-10003</v>
       </c>
       <c r="I16" s="10">
-        <v>200000</v>
-      </c>
-      <c r="J16" s="10">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-10004</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3">
+        <v>225229945</v>
+      </c>
+      <c r="L16" s="3">
+        <v>225229945</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1000008149</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1000008149</v>
+      </c>
+      <c r="R16">
+        <v>225229945</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="str">
-        <v>A007</v>
+        <v>A801</v>
       </c>
       <c r="B17" s="3">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="str">
         <v>Bucket Adjusment</v>
       </c>
       <c r="D17" s="3" t="str">
-        <v>Rekening WORST COLLECTIBILITY = 3, Kode Restruk Selain Blank dan 8</v>
+        <v>Rekening WORST COLLECTIBILITY = 5, Kode Restruk Selain Blank dan 8</v>
       </c>
       <c r="E17" s="3">
-        <v>317241653</v>
+        <v>1000745843</v>
       </c>
       <c r="F17" s="10">
-        <v>200000</v>
+        <v>-10001</v>
       </c>
       <c r="G17" s="10">
-        <v>200000</v>
+        <v>-10002</v>
       </c>
       <c r="H17" s="10">
-        <v>200000</v>
+        <v>-10003</v>
       </c>
       <c r="I17" s="10">
-        <v>200000</v>
-      </c>
-      <c r="J17" s="10">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-10004</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3">
+        <v>222242971</v>
+      </c>
+      <c r="L17" s="3">
+        <v>222242971</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1000008207</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1000008207</v>
+      </c>
+      <c r="R17">
+        <v>222242971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="str">
-        <v>A007</v>
+        <v>A802</v>
       </c>
       <c r="B18" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3" t="str">
         <v>Bucket Adjusment</v>
       </c>
       <c r="D18" s="3" t="str">
-        <v>Rekening WORST COLLECTIBILITY = 4, Kode Restruk Selain Blank dan 8</v>
+        <v>Rekening WORST COLLECTIBILITY = 1, Kode Restruk Selain Blank dan 8</v>
       </c>
       <c r="E18" s="3">
-        <v>317657548</v>
+        <v>1000645690</v>
       </c>
       <c r="F18" s="10">
-        <v>200000</v>
+        <v>100001</v>
       </c>
       <c r="G18" s="10">
-        <v>200000</v>
+        <v>100002</v>
       </c>
       <c r="H18" s="10">
-        <v>200000</v>
+        <v>100003</v>
       </c>
       <c r="I18" s="10">
-        <v>200000</v>
-      </c>
-      <c r="J18" s="10">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="str">
-        <v>A007</v>
-      </c>
-      <c r="B19" s="3">
-        <v>31</v>
-      </c>
-      <c r="C19" s="3" t="str">
-        <v>Bucket Adjusment</v>
-      </c>
-      <c r="D19" s="3" t="str">
-        <v>Rekening WORST COLLECTIBILITY = 5, Kode Restruk Selain Blank dan 8</v>
-      </c>
-      <c r="E19" s="3">
-        <v>315596629</v>
-      </c>
-      <c r="F19" s="10">
-        <v>200000</v>
-      </c>
-      <c r="G19" s="10">
-        <v>200000</v>
-      </c>
-      <c r="H19" s="10">
-        <v>200000</v>
-      </c>
-      <c r="I19" s="10">
-        <v>200000</v>
-      </c>
-      <c r="J19" s="10">
-        <v>200000</v>
-      </c>
+        <v>100004</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3">
+        <v>223180148</v>
+      </c>
+      <c r="L18" s="3">
+        <v>223180148</v>
+      </c>
+      <c r="R18">
+        <v>224487498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9287,10 +9476,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C547CAC-65BB-400B-8328-46C49E04DC52}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="B1" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9298,21 +9487,23 @@
     <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" customWidth="1"/>
+    <col min="12" max="12" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>118</v>
       </c>
@@ -9332,8 +9523,9 @@
       <c r="O1" s="34"/>
       <c r="P1" s="34"/>
       <c r="Q1" s="34"/>
-    </row>
-    <row r="2" spans="1:17" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R1" s="34"/>
+    </row>
+    <row r="2" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -9385,33 +9577,36 @@
       <c r="Q2" s="13" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" s="13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str" cm="1">
-        <f t="array" ref="A3:A6">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;"""")*(Activity!G:G&lt;&gt;"Y"))</f>
-        <v>A005</v>
+        <f t="array" ref="A3:A4">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;"""")*(Activity!G:G&lt;&gt;"Y"))</f>
+        <v>A801</v>
       </c>
       <c r="B3" s="3" cm="1">
-        <f t="array" ref="B3:D6">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!G:G&lt;&gt;"Y"))</f>
-        <v>13</v>
+        <f t="array" ref="B3:D4">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!G:G&lt;&gt;"Y"))</f>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="str">
         <v>Asuransi</v>
       </c>
       <c r="D3" s="3" t="str">
-        <v>Col 5</v>
+        <v>Asuransi Single Side COL 1</v>
       </c>
       <c r="E3" s="14">
-        <v>1000809820</v>
+        <v>101804826</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>165</v>
       </c>
       <c r="G3" s="15">
-        <v>1000000000</v>
+        <v>1000000</v>
       </c>
       <c r="H3" s="15">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>166</v>
@@ -9423,13 +9618,13 @@
         <v>10000</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>320</v>
+        <v>372</v>
       </c>
       <c r="M3" s="14">
         <v>228356776</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>167</v>
@@ -9440,22 +9635,25 @@
       <c r="Q3" s="14">
         <v>315596629</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" s="32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
-        <v>A005</v>
+        <v>A801</v>
       </c>
       <c r="B4" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="str">
         <v>Asuransi</v>
       </c>
       <c r="D4" s="3" t="str">
-        <v>Col 1</v>
+        <v>Asuransi Single Side COL 2</v>
       </c>
       <c r="E4" s="14">
-        <v>1000809820</v>
+        <v>101850114</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>165</v>
@@ -9476,13 +9674,13 @@
         <v>10000</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
       <c r="M4" s="14">
         <v>228356776</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>323</v>
+        <v>376</v>
       </c>
       <c r="O4" s="16" t="s">
         <v>167</v>
@@ -9491,24 +9689,19 @@
         <v>168</v>
       </c>
       <c r="Q4" s="14">
-        <v>1000023521</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="str">
-        <v>A005</v>
-      </c>
-      <c r="B5" s="3">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <v>Asuransi</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <v>Col 2</v>
-      </c>
+        <v>166279969</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="14">
-        <v>1000809820</v>
+        <v>101850396</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>165</v>
@@ -9529,13 +9722,13 @@
         <v>10000</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="M5" s="14">
         <v>228356776</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="O5" s="16" t="s">
         <v>167</v>
@@ -9546,22 +9739,15 @@
       <c r="Q5" s="14">
         <v>166279969</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="str">
-        <v>A005</v>
-      </c>
-      <c r="B6" s="3">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="str">
-        <v>Asuransi</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <v>Col 1 dengan restruk</v>
-      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="14">
-        <v>1000809820</v>
+        <v>101851016</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>165</v>
@@ -9582,13 +9768,13 @@
         <v>10000</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="M6" s="14">
         <v>228356776</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="O6" s="16" t="s">
         <v>167</v>
@@ -9599,10 +9785,103 @@
       <c r="Q6" s="14">
         <v>167971381</v>
       </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="14">
+        <v>101850114</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="H7" s="15">
+        <v>50000</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J7" s="15">
+        <v>5000</v>
+      </c>
+      <c r="K7" s="15">
+        <v>1000</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="M7" s="14">
+        <v>228356776</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1000810246</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="14">
+        <v>101850396</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="15">
+        <v>2000000</v>
+      </c>
+      <c r="H8" s="15">
+        <v>100000</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J8" s="15">
+        <v>10000</v>
+      </c>
+      <c r="K8" s="15">
+        <v>2000</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="M8" s="14">
+        <v>228356776</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>166279969</v>
+      </c>
+      <c r="R8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9622,6 +9901,520 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDECCE7E-6CCB-49CF-B9BE-26D9732D6A27}">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="str" cm="1">
+        <f t="array" ref="A3:A4">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;"""")*(Activity!G:G&lt;&gt;"Y"))</f>
+        <v>A801</v>
+      </c>
+      <c r="B3" s="3" cm="1">
+        <f t="array" ref="B3:D4">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!G:G&lt;&gt;"Y"))</f>
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <v>Pemindahbukuan</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <v>Pinbuk Bucket Increase Teoritis</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1000810348</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1000007928</v>
+      </c>
+      <c r="G3" s="10">
+        <v>3000000</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="str">
+        <v>A801</v>
+      </c>
+      <c r="B4" s="3">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <v>Pemindahbukuan</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <v>Pinbuk Bucket Decrease Teoritis</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1000007939</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1000810199</v>
+      </c>
+      <c r="G4" s="10">
+        <v>2000000</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4">
+        <v>1000810348</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1000007928</v>
+      </c>
+      <c r="G5" s="10">
+        <v>3000000</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="M5" s="4">
+        <v>1000810133</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1000007939</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4">
+        <v>1000810133</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1000810199</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1200000000000</v>
+      </c>
+      <c r="H6" s="33"/>
+      <c r="M6" s="4">
+        <v>1000810348</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1000007928</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4">
+        <v>1000810348</v>
+      </c>
+      <c r="F7" s="3">
+        <v>200084449</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1300000000000</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="M7" s="3">
+        <v>1000810144</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1000613690</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4">
+        <v>1000007928</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1000810166</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1400000000000</v>
+      </c>
+      <c r="H8" s="33"/>
+      <c r="M8" s="4">
+        <v>1000810155</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4">
+        <v>1000007928</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1000810166</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1400000000000</v>
+      </c>
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>1000613690</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1500000000000</v>
+      </c>
+      <c r="H10" s="33"/>
+      <c r="M10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>1000810144</v>
+      </c>
+      <c r="F11" s="3">
+        <v>200078491</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1600000000000</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="M11" s="3">
+        <v>1000810199</v>
+      </c>
+      <c r="N11" s="4">
+        <v>200080295</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>1000810155</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1700000000000</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="M12" s="4">
+        <v>1000810166</v>
+      </c>
+      <c r="N12" s="3">
+        <v>200084449</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F13" s="3">
+        <v>225281702</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1800000000000</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="M13" s="3">
+        <v>1000810202</v>
+      </c>
+      <c r="N13" s="3">
+        <v>200078491</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1000810202</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1900000000000</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3">
+        <v>225281702</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" s="3">
+        <v>225281702</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1800000000000</v>
+      </c>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1000810202</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1900000000000</v>
+      </c>
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4">
+        <v>1000007928</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1000810166</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1400000000000</v>
+      </c>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1300000000000</v>
+      </c>
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <v>1000810144</v>
+      </c>
+      <c r="F19" s="3">
+        <v>200078491</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1100000000000</v>
+      </c>
+      <c r="H19" s="33"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>1000810155</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1200000000000</v>
+      </c>
+      <c r="H20" s="33"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4">
+        <v>1000007928</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1000810166</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1400000000000</v>
+      </c>
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1300000000000</v>
+      </c>
+      <c r="H22" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5028B80F-2914-4662-B83F-8304FA6E5AA1}">
+          <x14:formula1>
+            <xm:f>Var!$B$13:$B$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{04DAB649-5D40-4B45-8120-977F1312AE13}">
+          <x14:formula1>
+            <xm:f>Var!$B$29:$B$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H22</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF16E7AA-ADED-4D28-A781-927C1D368780}">
   <dimension ref="A1:AA29"/>
   <sheetViews>
@@ -9652,25 +10445,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
     </row>
     <row r="2" spans="1:27" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -9745,20 +10538,16 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="str" cm="1">
+      <c r="A3" s="3" t="e" cm="1" vm="1">
         <f t="array" ref="A3">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;"""")*(Activity!G:G&lt;&gt;"Y"))</f>
-        <v>A002</v>
-      </c>
-      <c r="B3" s="3" cm="1">
-        <f t="array" ref="B3:D3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!G:G&lt;&gt;"Y"))</f>
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="str">
-        <v>Maintenance Rek</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <v>test</v>
-      </c>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" s="3" t="e" cm="1" vm="1">
+        <f t="array" ref="B3">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!G:G&lt;&gt;"Y"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="14">
         <v>187582982</v>
       </c>
@@ -9770,10 +10559,10 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O3" s="19">
         <v>45689</v>
@@ -9822,10 +10611,10 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O4" s="19">
         <v>45323</v>
@@ -9872,10 +10661,10 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="O5" s="19">
         <v>45323</v>
@@ -9922,10 +10711,10 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="O6" s="19">
         <v>45323</v>
@@ -10019,7 +10808,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="6"/>
       <c r="N8" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
@@ -10043,7 +10832,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="19"/>
@@ -10159,7 +10948,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
@@ -10202,7 +10991,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="19"/>
@@ -10248,7 +11037,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="3">
@@ -10315,10 +11104,10 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="N16" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="O16" s="19">
         <v>45323</v>
@@ -10348,10 +11137,10 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="N17" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="O17" s="19">
         <v>45323</v>
@@ -10381,10 +11170,10 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="N18" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="O18" s="19">
         <v>45323</v>
@@ -10414,10 +11203,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="N19" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="O19" s="19">
         <v>45323</v>
@@ -10447,10 +11236,10 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="N20" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="O20" s="19">
         <v>45323</v>
@@ -10480,10 +11269,10 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="N21" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="O21" s="19">
         <v>45323</v>
@@ -10513,10 +11302,10 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="N22" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="O22" s="19">
         <v>45323</v>
@@ -10546,10 +11335,10 @@
         <v>6000000000000</v>
       </c>
       <c r="M23" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="N23" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="O23" s="19">
         <v>45323</v>
@@ -10577,10 +11366,10 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O24" s="19">
         <v>45323</v>
@@ -10608,10 +11397,10 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O25" s="19">
         <v>45323</v>
@@ -10639,10 +11428,10 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O26" s="19">
         <v>45323</v>
@@ -10655,7 +11444,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F29" s="32"/>
+      <c r="F29" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10678,682 +11467,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C290590-27BE-46D2-84BE-E2B128CC7D3D}">
-  <dimension ref="A1:Q23"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-    </row>
-    <row r="2" spans="1:17" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="str" cm="1">
-        <f t="array" ref="A3:A4">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;"""")*(Activity!G:G&lt;&gt;"Y"))</f>
-        <v>A001</v>
-      </c>
-      <c r="B3" s="3" cm="1">
-        <f t="array" ref="B3:D4">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!G:G&lt;&gt;"Y"))</f>
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="str">
-        <v>Maintenance Info</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>317464646</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="K3" s="19">
-        <v>45323</v>
-      </c>
-      <c r="L3" s="19">
-        <v>45323</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="str">
-        <v>A003</v>
-      </c>
-      <c r="B4" s="3">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="str">
-        <v>Maintenance Info</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <v>test</v>
-      </c>
-      <c r="E4" s="14">
-        <v>317660050</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="6">
-        <v>2323</v>
-      </c>
-      <c r="J4" s="6">
-        <v>2323</v>
-      </c>
-      <c r="K4" s="19">
-        <v>44958</v>
-      </c>
-      <c r="L4" s="19">
-        <v>44958</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="14">
-        <v>317672066</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="K5" s="19">
-        <v>45323</v>
-      </c>
-      <c r="L5" s="19">
-        <v>45689</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="14">
-        <v>317672099</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="19">
-        <v>45323</v>
-      </c>
-      <c r="L6" s="19">
-        <v>45689</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
-        <v>1000632953</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="O7" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
-        <v>1000632975</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
-        <v>1000632986</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="19">
-        <v>42531</v>
-      </c>
-      <c r="L9" s="19"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <v>1000634086</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19">
-        <v>42531</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <v>1000881944</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="O11" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
-        <v>1000881955</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="O12" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
-        <v>1000882198</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="19">
-        <v>42402</v>
-      </c>
-      <c r="L13" s="19"/>
-      <c r="O13" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
-        <v>1000882201</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19">
-        <v>42406</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3">
-        <v>1000544283</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="K15" s="19">
-        <v>45323</v>
-      </c>
-      <c r="L15" s="19">
-        <v>45689</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3">
-        <v>287437941</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="K16" s="19">
-        <v>45323</v>
-      </c>
-      <c r="L16" s="19">
-        <v>45689</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3">
-        <v>315342686</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="K17" s="19">
-        <v>45323</v>
-      </c>
-      <c r="L17" s="19">
-        <v>45689</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3">
-        <v>317711880</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="K18" s="19">
-        <v>45323</v>
-      </c>
-      <c r="L18" s="19">
-        <v>45689</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3">
-        <v>1000725699</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="K19" s="19">
-        <v>45323</v>
-      </c>
-      <c r="L19" s="19">
-        <v>45689</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3">
-        <v>1001079370</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="K20" s="19">
-        <v>45323</v>
-      </c>
-      <c r="L20" s="19">
-        <v>45689</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3">
-        <v>253011491</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="K21" s="19">
-        <v>45323</v>
-      </c>
-      <c r="L21" s="19">
-        <v>45689</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3">
-        <v>317464646</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="K22" s="19">
-        <v>45323</v>
-      </c>
-      <c r="L22" s="19">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="14">
-        <v>317660050</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="K23" s="19">
-        <v>45323</v>
-      </c>
-      <c r="L23" s="19">
-        <v>45323</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{39E8237B-9413-4A55-B6E4-D44CD08A5131}">
-          <x14:formula1>
-            <xm:f>Var!$B$13:$B$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>A1</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Data Files/LisSkenarioBaru.xlsx
+++ b/Data Files/LisSkenarioBaru.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon\ASIC\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C2A0EC-E53D-434D-B314-64188334D2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6FEC04-CCD9-4DB1-9462-EC47354D5311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="793" activeTab="2" xr2:uid="{757C07E9-73FD-4EAE-8969-0533CFDE11EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="793" activeTab="5" xr2:uid="{757C07E9-73FD-4EAE-8969-0533CFDE11EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Batch" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="378">
   <si>
     <t>NoTC</t>
   </si>
@@ -1905,7 +1905,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5754,8 +5754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70752A91-83F7-4766-8B3A-6B1F070C7186}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:P7"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6339,25 +6339,35 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>19784</v>
+        <v>76331</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="4">
+        <v>19784</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -8468,8 +8478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7F4889-46AF-4808-B06F-ACED5C6C53AF}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data Files/LisSkenarioBaru.xlsx
+++ b/Data Files/LisSkenarioBaru.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon\ASIC\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6FEC04-CCD9-4DB1-9462-EC47354D5311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475044D7-57F3-4766-9872-08E1BC47EFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="793" activeTab="5" xr2:uid="{757C07E9-73FD-4EAE-8969-0533CFDE11EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="793" activeTab="1" xr2:uid="{757C07E9-73FD-4EAE-8969-0533CFDE11EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Batch" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="374">
   <si>
     <t>NoTC</t>
   </si>
@@ -1150,63 +1150,6 @@
     <t>isBucket</t>
   </si>
   <si>
-    <t>A7241</t>
-  </si>
-  <si>
-    <t>A7242</t>
-  </si>
-  <si>
-    <t>A7243</t>
-  </si>
-  <si>
-    <t>A7244</t>
-  </si>
-  <si>
-    <t>A7245</t>
-  </si>
-  <si>
-    <t>A7246</t>
-  </si>
-  <si>
-    <t>A7247</t>
-  </si>
-  <si>
-    <t>A7248</t>
-  </si>
-  <si>
-    <t>A7249</t>
-  </si>
-  <si>
-    <t>A7250</t>
-  </si>
-  <si>
-    <t>A7251</t>
-  </si>
-  <si>
-    <t>A7252</t>
-  </si>
-  <si>
-    <t>A7253</t>
-  </si>
-  <si>
-    <t>A7254</t>
-  </si>
-  <si>
-    <t>A7255</t>
-  </si>
-  <si>
-    <t>A7256</t>
-  </si>
-  <si>
-    <t>A7257</t>
-  </si>
-  <si>
-    <t>A7258</t>
-  </si>
-  <si>
-    <t>A7259</t>
-  </si>
-  <si>
     <t>col2</t>
   </si>
   <si>
@@ -1226,6 +1169,51 @@
   </si>
   <si>
     <t>A802</t>
+  </si>
+  <si>
+    <t>TC-01</t>
+  </si>
+  <si>
+    <t>TC-02</t>
+  </si>
+  <si>
+    <t>TC-03</t>
+  </si>
+  <si>
+    <t>TC-04</t>
+  </si>
+  <si>
+    <t>TC-05</t>
+  </si>
+  <si>
+    <t>TC-06</t>
+  </si>
+  <si>
+    <t>TC-07</t>
+  </si>
+  <si>
+    <t>TC-08</t>
+  </si>
+  <si>
+    <t>TC-09</t>
+  </si>
+  <si>
+    <t>TC-10</t>
+  </si>
+  <si>
+    <t>TC-11</t>
+  </si>
+  <si>
+    <t>TC-12</t>
+  </si>
+  <si>
+    <t>TC-13</t>
+  </si>
+  <si>
+    <t>TC-14</t>
+  </si>
+  <si>
+    <t>TC-15</t>
   </si>
 </sst>
 </file>
@@ -1905,7 +1893,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1972,11 +1960,11 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B2" s="7" t="str">
-        <f t="shared" ref="B2:B18" si="0">CONCATENATE(A2,"-","01")</f>
-        <v>A7241-01</v>
+        <f>CONCATENATE(A2,)</f>
+        <v>TC-01</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="7" t="s">
@@ -2009,16 +1997,16 @@
       <c r="M2" s="7"/>
       <c r="N2" s="20">
         <f>IF(A2&lt;&gt;"",COUNTIF(Activity!A:A,A2),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B3" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>A7242-01</v>
+        <f t="shared" ref="B3:B22" si="0">CONCATENATE(A3,)</f>
+        <v>TC-02</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="7" t="s">
@@ -2051,16 +2039,16 @@
       <c r="M3" s="7"/>
       <c r="N3" s="20">
         <f>IF(A3&lt;&gt;"",COUNTIF(Activity!A:A,A3),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>A7243-01</v>
+        <v>TC-03</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="7" t="s">
@@ -2093,16 +2081,16 @@
       <c r="M4" s="7"/>
       <c r="N4" s="20">
         <f>IF(A4&lt;&gt;"",COUNTIF(Activity!A:A,A4),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>A7244-01</v>
+        <v>TC-04</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="7" t="s">
@@ -2135,16 +2123,16 @@
       <c r="M5" s="7"/>
       <c r="N5" s="20">
         <f>IF(A5&lt;&gt;"",COUNTIF(Activity!A:A,A5),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>A7245-01</v>
+        <v>TC-05</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="7" t="s">
@@ -2177,16 +2165,16 @@
       <c r="M6" s="7"/>
       <c r="N6" s="20">
         <f>IF(A6&lt;&gt;"",COUNTIF(Activity!A:A,A6),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B7" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>A7246-01</v>
+        <v>TC-06</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="7" t="s">
@@ -2219,16 +2207,16 @@
       <c r="M7" s="7"/>
       <c r="N7" s="20">
         <f>IF(A7&lt;&gt;"",COUNTIF(Activity!A:A,A7),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>A7247-01</v>
+        <v>TC-07</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="7" t="s">
@@ -2261,16 +2249,16 @@
       <c r="M8" s="7"/>
       <c r="N8" s="20">
         <f>IF(A8&lt;&gt;"",COUNTIF(Activity!A:A,A8),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>A7248-01</v>
+        <v>TC-08</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="7" t="s">
@@ -2303,16 +2291,16 @@
       <c r="M9" s="7"/>
       <c r="N9" s="20">
         <f>IF(A9&lt;&gt;"",COUNTIF(Activity!A:A,A9),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>A7249-01</v>
+        <v>TC-09</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="7" t="s">
@@ -2345,16 +2333,16 @@
       <c r="M10" s="7"/>
       <c r="N10" s="20">
         <f>IF(A10&lt;&gt;"",COUNTIF(Activity!A:A,A10),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>A7250-01</v>
+        <v>TC-10</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="7" t="s">
@@ -2387,16 +2375,16 @@
       <c r="M11" s="7"/>
       <c r="N11" s="20">
         <f>IF(A11&lt;&gt;"",COUNTIF(Activity!A:A,A11),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>A7251-01</v>
+        <v>TC-11</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="7" t="s">
@@ -2429,16 +2417,16 @@
       <c r="M12" s="7"/>
       <c r="N12" s="20">
         <f>IF(A12&lt;&gt;"",COUNTIF(Activity!A:A,A12),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>A7252-01</v>
+        <v>TC-12</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="7" t="s">
@@ -2471,16 +2459,16 @@
       <c r="M13" s="7"/>
       <c r="N13" s="20">
         <f>IF(A13&lt;&gt;"",COUNTIF(Activity!A:A,A13),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="B14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>A7253-01</v>
+        <v>TC-13</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="7" t="s">
@@ -2513,16 +2501,16 @@
       <c r="M14" s="7"/>
       <c r="N14" s="20">
         <f>IF(A14&lt;&gt;"",COUNTIF(Activity!A:A,A14),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>A7254-01</v>
+        <v>TC-14</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="7" t="s">
@@ -2555,16 +2543,16 @@
       <c r="M15" s="7"/>
       <c r="N15" s="20">
         <f>IF(A15&lt;&gt;"",COUNTIF(Activity!A:A,A15),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>A7255-01</v>
+        <v>TC-15</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="7" t="s">
@@ -2597,16 +2585,14 @@
       <c r="M16" s="7"/>
       <c r="N16" s="20">
         <f>IF(A16&lt;&gt;"",COUNTIF(Activity!A:A,A16),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
-        <v>367</v>
-      </c>
+      <c r="A17" s="27"/>
       <c r="B17" s="7" t="str">
-        <f>CONCATENATE(A17,"-","01")</f>
-        <v>A7256-01</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="7" t="s">
@@ -2637,18 +2623,16 @@
         <v>187</v>
       </c>
       <c r="M17" s="7"/>
-      <c r="N17" s="20">
+      <c r="N17" s="20" t="str">
         <f>IF(A17&lt;&gt;"",COUNTIF(Activity!A:A,A17),"")</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
-        <v>368</v>
-      </c>
+      <c r="A18" s="27"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>A7257-01</v>
+        <v/>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="7" t="s">
@@ -2679,18 +2663,16 @@
         <v>187</v>
       </c>
       <c r="M18" s="7"/>
-      <c r="N18" s="20">
+      <c r="N18" s="20" t="str">
         <f>IF(A18&lt;&gt;"",COUNTIF(Activity!A:A,A18),"")</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
-        <v>369</v>
-      </c>
+      <c r="A19" s="27"/>
       <c r="B19" s="7" t="str">
-        <f t="shared" ref="B19" si="1">CONCATENATE(A19,"-","01")</f>
-        <v>A7258-01</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="7" t="s">
@@ -2721,18 +2703,16 @@
         <v>187</v>
       </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="20">
+      <c r="N19" s="20" t="str">
         <f>IF(A19&lt;&gt;"",COUNTIF(Activity!A:A,A19),"")</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
-        <v>370</v>
-      </c>
+      <c r="A20" s="27"/>
       <c r="B20" s="7" t="str">
-        <f t="shared" ref="B20:B22" si="2">CONCATENATE(A20,"-","01")</f>
-        <v>A7259-01</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="7" t="s">
@@ -2763,25 +2743,23 @@
         <v>187</v>
       </c>
       <c r="M20" s="7"/>
-      <c r="N20" s="20">
+      <c r="N20" s="20" t="str">
         <f>IF(A20&lt;&gt;"",COUNTIF(Activity!A:A,A20),"")</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
-        <v>373</v>
-      </c>
+      <c r="A21" s="27"/>
       <c r="B21" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>A801-01</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="F21" s="7">
         <v>11353</v>
@@ -2805,18 +2783,16 @@
         <v>187</v>
       </c>
       <c r="M21" s="7"/>
-      <c r="N21" s="20">
+      <c r="N21" s="20" t="str">
         <f>IF(A21&lt;&gt;"",COUNTIF(Activity!A:A,A21),"")</f>
-        <v>19</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>377</v>
-      </c>
+      <c r="A22" s="29"/>
       <c r="B22" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>A802-01</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C22" s="30" t="s">
         <v>300</v>
@@ -2849,9 +2825,9 @@
         <v>187</v>
       </c>
       <c r="M22" s="7"/>
-      <c r="N22" s="20">
+      <c r="N22" s="20" t="str">
         <f>IF(A22&lt;&gt;"",COUNTIF(Activity!A:A,A22),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -5223,8 +5199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D923057-5622-4B75-B52E-77EA52D2CA36}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5267,11 +5243,11 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B2" s="3" t="str">
         <f>IF(A2="", "",VLOOKUP(A2,Batch!A:E,5,FALSE))</f>
-        <v>Retest Bucket, Asuransi, Pinbuk</v>
+        <v>Bucket Rek COLL = 1, Kode Restruk Blank</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -5290,11 +5266,11 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="B3" s="3" t="str">
         <f>IF(A3="", "",VLOOKUP(A3,Batch!A:E,5,FALSE))</f>
-        <v>Retest Bucket, Asuransi, Pinbuk</v>
+        <v>Bucket Rek COLL = 2, Kode Restruk Blank</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -5313,11 +5289,11 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B4" s="3" t="str">
         <f>IF(A4="", "",VLOOKUP(A4,Batch!A:E,5,FALSE))</f>
-        <v>Retest Bucket, Asuransi, Pinbuk</v>
+        <v>Bucket Rek COLL = 1, Kode Restruk 8</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -5336,11 +5312,11 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B5" s="3" t="str">
         <f>IF(A5="", "",VLOOKUP(A5,Batch!A:E,5,FALSE))</f>
-        <v>Retest Bucket, Asuransi, Pinbuk</v>
+        <v>Bucket Rek COLL = 2, Kode Restruk 8</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -5359,11 +5335,11 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B6" s="3" t="str">
         <f>IF(A6="", "",VLOOKUP(A6,Batch!A:E,5,FALSE))</f>
-        <v>Retest Bucket, Asuransi, Pinbuk</v>
+        <v>Bucket Rek COLL = 1, Kode Restruk Selain Blank dan 8</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -5382,11 +5358,11 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B7" s="3" t="str">
         <f>IF(A7="", "",VLOOKUP(A7,Batch!A:E,5,FALSE))</f>
-        <v>Retest Bucket, Asuransi, Pinbuk</v>
+        <v>Bucket Rek COLL = 2, Kode Restruk Selain Blank dan 8</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
@@ -5405,11 +5381,11 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B8" s="3" t="str">
         <f>IF(A8="", "",VLOOKUP(A8,Batch!A:E,5,FALSE))</f>
-        <v>Retest Bucket, Asuransi, Pinbuk</v>
+        <v>Bucket Rek COLL = 3, Kode Restruk Blank</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
@@ -5428,11 +5404,11 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B9" s="3" t="str">
         <f>IF(A9="", "",VLOOKUP(A9,Batch!A:E,5,FALSE))</f>
-        <v>Retest Bucket, Asuransi, Pinbuk</v>
+        <v>Bucket Rek COLL = 4, Kode Restruk Blank</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
@@ -5451,11 +5427,11 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B10" s="3" t="str">
         <f>IF(A10="", "",VLOOKUP(A10,Batch!A:E,5,FALSE))</f>
-        <v>Retest Bucket, Asuransi, Pinbuk</v>
+        <v>Bucket Rek COLL = 5, Kode Restruk Blank</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
@@ -5474,11 +5450,11 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B11" s="3" t="str">
         <f>IF(A11="", "",VLOOKUP(A11,Batch!A:E,5,FALSE))</f>
-        <v>Retest Bucket, Asuransi, Pinbuk</v>
+        <v>Bucket Rek COLL = 3, Kode Restruk 8</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
@@ -5497,11 +5473,11 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B12" s="3" t="str">
         <f>IF(A12="", "",VLOOKUP(A12,Batch!A:E,5,FALSE))</f>
-        <v>Retest Bucket, Asuransi, Pinbuk</v>
+        <v>Bucket Rek COLL = 4, Kode Restruk 8</v>
       </c>
       <c r="C12" s="3">
         <v>11</v>
@@ -5520,11 +5496,11 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B13" s="3" t="str">
         <f>IF(A13="", "",VLOOKUP(A13,Batch!A:E,5,FALSE))</f>
-        <v>Retest Bucket, Asuransi, Pinbuk</v>
+        <v>Bucket Rek COLL = 5, Kode Restruk 8</v>
       </c>
       <c r="C13" s="3">
         <v>12</v>
@@ -5543,11 +5519,11 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B14" s="3" t="str">
         <f>IF(A14="", "",VLOOKUP(A14,Batch!A:E,5,FALSE))</f>
-        <v>Retest Bucket, Asuransi, Pinbuk</v>
+        <v>Bucket Rek COLL = 3, Kode Restruk Selain Blank dan 8</v>
       </c>
       <c r="C14" s="3">
         <v>13</v>
@@ -5566,11 +5542,11 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>IF(A15="", "",VLOOKUP(A15,Batch!A:E,5,FALSE))</f>
-        <v>Retest Bucket, Asuransi, Pinbuk</v>
+        <v>Bucket Rek COLL = 4, Kode Restruk Selain Blank dan 8</v>
       </c>
       <c r="C15" s="3">
         <v>14</v>
@@ -5593,7 +5569,7 @@
       </c>
       <c r="B16" s="3" t="str">
         <f>IF(A16="", "",VLOOKUP(A16,Batch!A:E,5,FALSE))</f>
-        <v>Retest Bucket, Asuransi, Pinbuk</v>
+        <v>Bucket Rek COLL = 5, Kode Restruk Selain Blank dan 8</v>
       </c>
       <c r="C16" s="3">
         <v>15</v>
@@ -5612,11 +5588,11 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="B17" s="3" t="str">
+        <v>354</v>
+      </c>
+      <c r="B17" s="3" t="e">
         <f>IF(A17="", "",VLOOKUP(A17,Batch!A:E,5,FALSE))</f>
-        <v>Retest Bucket, Asuransi, Pinbuk</v>
+        <v>#N/A</v>
       </c>
       <c r="C17" s="3">
         <v>16</v>
@@ -5635,11 +5611,11 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="B18" s="3" t="str">
+        <v>354</v>
+      </c>
+      <c r="B18" s="3" t="e">
         <f>IF(A18="", "",VLOOKUP(A18,Batch!A:E,5,FALSE))</f>
-        <v>Retest Bucket, Asuransi, Pinbuk</v>
+        <v>#N/A</v>
       </c>
       <c r="C18" s="3">
         <v>17</v>
@@ -5658,11 +5634,11 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="B19" s="3" t="str">
+        <v>354</v>
+      </c>
+      <c r="B19" s="3" t="e">
         <f>IF(A19="", "",VLOOKUP(A19,Batch!A:E,5,FALSE))</f>
-        <v>Retest Bucket, Asuransi, Pinbuk</v>
+        <v>#N/A</v>
       </c>
       <c r="C19" s="3">
         <v>18</v>
@@ -5681,11 +5657,11 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="B20" s="3" t="str">
+        <v>354</v>
+      </c>
+      <c r="B20" s="3" t="e">
         <f>IF(A20="", "",VLOOKUP(A20,Batch!A:E,5,FALSE))</f>
-        <v>Retest Bucket, Asuransi, Pinbuk</v>
+        <v>#N/A</v>
       </c>
       <c r="C20" s="3">
         <v>19</v>
@@ -5704,11 +5680,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
-        <v>377</v>
-      </c>
-      <c r="B21" s="3" t="str">
+        <v>358</v>
+      </c>
+      <c r="B21" s="3" t="e">
         <f>IF(A21="", "",VLOOKUP(A21,Batch!A:E,5,FALSE))</f>
-        <v>Rekening WORST COLLECTIBILITY = 1, Kode Restruk Selain Blank dan 8</v>
+        <v>#N/A</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -8478,8 +8454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7F4889-46AF-4808-B06F-ACED5C6C53AF}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8554,7 +8530,7 @@
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str" cm="1">
         <f t="array" ref="A3:A18">_xlfn._xlws.FILTER(Activity!A:A,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!C:C&lt;&gt;"""")*(Activity!G:G&lt;&gt;"Y"))</f>
-        <v>A801</v>
+        <v>TC-01</v>
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3:D18">_xlfn._xlws.FILTER(Activity!C:E,(Activity!A:A&lt;&gt;"")*(Activity!D:D=A1)*(Activity!G:G&lt;&gt;"Y"))</f>
@@ -8600,7 +8576,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
-        <v>A801</v>
+        <v>TC-02</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -8645,7 +8621,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
-        <v>A801</v>
+        <v>TC-03</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -8690,7 +8666,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
-        <v>A801</v>
+        <v>TC-04</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
@@ -8735,7 +8711,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
-        <v>A801</v>
+        <v>TC-05</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
@@ -8780,7 +8756,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
-        <v>A801</v>
+        <v>TC-06</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -8825,7 +8801,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
-        <v>A801</v>
+        <v>TC-07</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
@@ -8870,7 +8846,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
-        <v>A801</v>
+        <v>TC-08</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
@@ -8915,7 +8891,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
-        <v>A801</v>
+        <v>TC-09</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
@@ -8960,7 +8936,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="str">
-        <v>A801</v>
+        <v>TC-10</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
@@ -9005,7 +8981,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
-        <v>A801</v>
+        <v>TC-11</v>
       </c>
       <c r="B13" s="3">
         <v>11</v>
@@ -9050,7 +9026,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
-        <v>A801</v>
+        <v>TC-12</v>
       </c>
       <c r="B14" s="3">
         <v>12</v>
@@ -9095,7 +9071,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
-        <v>A801</v>
+        <v>TC-13</v>
       </c>
       <c r="B15" s="3">
         <v>13</v>
@@ -9140,7 +9116,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
-        <v>A801</v>
+        <v>TC-14</v>
       </c>
       <c r="B16" s="3">
         <v>14</v>
@@ -9185,7 +9161,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="str">
-        <v>A801</v>
+        <v>TC-15</v>
       </c>
       <c r="B17" s="3">
         <v>15</v>
@@ -9628,13 +9604,13 @@
         <v>10000</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="M3" s="14">
         <v>228356776</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>167</v>
@@ -9684,13 +9660,13 @@
         <v>10000</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="M4" s="14">
         <v>228356776</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="O4" s="16" t="s">
         <v>167</v>
